--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="12820"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="303">
   <si>
     <t>序号</t>
   </si>
@@ -930,6 +930,15 @@
   </si>
   <si>
     <t>5.1.5</t>
+  </si>
+  <si>
+    <t>reatc-native-sensors</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>@react-native-oh-library/react-native-sensors</t>
   </si>
 </sst>
 </file>
@@ -2131,23 +2140,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.9423076923077" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7307692307692" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.23076923076923" style="1"/>
-    <col min="5" max="5" width="51.9230769230769" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3365384615385" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.23076923076923" style="1"/>
+    <col min="1" max="1" width="13.9416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7333333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.23333333333333" style="1"/>
+    <col min="5" max="5" width="51.925" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.23333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.75" spans="1:6">
+    <row r="1" ht="41.25" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.75" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="17.75" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="17.75" spans="1:6">
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="17.75" spans="1:6">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="17.75" spans="1:6">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="17.75" spans="1:6">
+    <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2287,7 +2296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="17.75" spans="1:6">
+    <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="17.75" spans="1:6">
+    <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="17.75" spans="1:6">
+    <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2347,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="17.75" spans="1:6">
+    <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="17.75" spans="1:6">
+    <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="17.75" spans="1:6">
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="17.75" spans="1:6">
+    <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2427,7 +2436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="17.75" spans="1:6">
+    <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2447,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="17.75" spans="1:6">
+    <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="17.75" spans="1:6">
+    <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="17.75" spans="1:6">
+    <row r="18" ht="14.25" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2507,7 +2516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="17.75" spans="1:6">
+    <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2527,7 +2536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="17.75" spans="1:6">
+    <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="17.75" spans="1:6">
+    <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2567,7 +2576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="17.75" spans="1:6">
+    <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="17.75" spans="1:6">
+    <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2607,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="17.75" spans="1:6">
+    <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="17.75" spans="1:6">
+    <row r="25" ht="14.25" spans="1:6">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="17.75" spans="1:6">
+    <row r="26" ht="14.25" spans="1:6">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="17.75" spans="1:6">
+    <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="17.75" spans="1:6">
+    <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2707,7 +2716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="17.75" spans="1:6">
+    <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="17.75" spans="1:6">
+    <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="17.75" spans="1:6">
+    <row r="31" ht="14.25" spans="1:6">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="17.75" spans="1:6">
+    <row r="32" ht="14.25" spans="1:6">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="17.75" spans="1:6">
+    <row r="33" ht="14.25" spans="1:6">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="17.75" spans="1:6">
+    <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="17.75" spans="1:6">
+    <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="17.75" spans="1:6">
+    <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="17.75" spans="1:6">
+    <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="17.75" spans="1:6">
+    <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="17.75" spans="1:6">
+    <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2927,7 +2936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="17.75" spans="1:6">
+    <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="17.75" spans="1:6">
+    <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" ht="17.75" spans="1:6">
+    <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2987,7 +2996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="17.75" spans="1:6">
+    <row r="43" ht="14.25" spans="1:6">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" ht="17.75" spans="1:6">
+    <row r="44" ht="14.25" spans="1:6">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="17.75" spans="1:6">
+    <row r="45" ht="14.25" spans="1:6">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" ht="17.75" spans="1:6">
+    <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="17.75" spans="1:6">
+    <row r="47" ht="14.25" spans="1:6">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="17.75" spans="1:6">
+    <row r="48" ht="14.25" spans="1:6">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="17.75" spans="1:6">
+    <row r="49" ht="27.75" spans="1:6">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" ht="17.75" spans="1:6">
+    <row r="50" ht="14.25" spans="1:6">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3147,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" ht="17.75" spans="1:6">
+    <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3167,7 +3176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" ht="17.75" spans="1:6">
+    <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" ht="17.75" spans="1:6">
+    <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3207,7 +3216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" ht="17.75" spans="1:6">
+    <row r="54" ht="14.25" spans="1:6">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" ht="17.75" spans="1:6">
+    <row r="55" ht="14.25" spans="1:6">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3247,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" ht="17.75" spans="1:6">
+    <row r="56" ht="14.25" spans="1:6">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" ht="17.75" spans="1:6">
+    <row r="57" ht="14.25" spans="1:6">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="17.75" spans="1:6">
+    <row r="58" ht="14.25" spans="1:6">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" ht="17.75" spans="1:6">
+    <row r="59" ht="14.25" spans="1:6">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="17.75" spans="1:6">
+    <row r="60" ht="14.25" spans="1:6">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" ht="17.75" spans="1:6">
+    <row r="61" ht="14.25" spans="1:6">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="17.75" spans="1:6">
+    <row r="62" ht="14.25" spans="1:6">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="17.75" spans="1:6">
+    <row r="63" ht="14.25" spans="1:6">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="17.75" spans="1:6">
+    <row r="64" ht="14.25" spans="1:6">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3427,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" ht="17.75" spans="1:6">
+    <row r="65" ht="14.25" spans="1:6">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3447,7 +3456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="17.75" spans="1:6">
+    <row r="66" ht="14.25" spans="1:6">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="17.75" spans="1:6">
+    <row r="67" ht="14.25" spans="1:6">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="17.75" spans="1:6">
+    <row r="68" ht="14.25" spans="1:6">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3505,7 +3514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="17.75" spans="1:6">
+    <row r="69" ht="14.25" spans="1:6">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3525,7 +3534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" ht="17.75" spans="1:6">
+    <row r="70" ht="27.75" spans="1:6">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="34.75" spans="1:6">
+    <row r="71" ht="27.75" spans="1:6">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3565,7 +3574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" ht="34.75" spans="1:6">
+    <row r="72" ht="27.75" spans="1:6">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3585,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" ht="17.75" spans="1:6">
+    <row r="73" ht="14.25" spans="1:6">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3605,7 +3614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" ht="17.75" spans="1:6">
+    <row r="74" ht="14.25" spans="1:6">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="17.75" spans="1:6">
+    <row r="75" ht="14.25" spans="1:6">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="17.75" spans="1:6">
+    <row r="76" ht="14.25" spans="1:6">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3665,7 +3674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" ht="17.75" spans="1:6">
+    <row r="77" ht="14.25" spans="1:6">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" ht="17.75" spans="1:6">
+    <row r="78" ht="14.25" spans="1:6">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" ht="17.75" spans="1:6">
+    <row r="79" ht="14.25" spans="1:6">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3725,7 +3734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" ht="17.75" spans="1:6">
+    <row r="80" ht="14.25" spans="1:6">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3745,7 +3754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" ht="17.75" spans="1:6">
+    <row r="81" ht="14.25" spans="1:6">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3765,7 +3774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" ht="17.75" spans="1:6">
+    <row r="82" ht="14.25" spans="1:6">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" ht="17.75" spans="1:6">
+    <row r="83" ht="14.25" spans="1:6">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" ht="17.75" spans="1:6">
+    <row r="84" ht="14.25" spans="1:6">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" ht="17.75" spans="1:6">
+    <row r="85" ht="14.25" spans="1:6">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" ht="17.75" spans="1:6">
+    <row r="86" ht="14.25" spans="1:6">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" ht="17.75" spans="1:6">
+    <row r="87" ht="14.25" spans="1:6">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" ht="17.75" spans="1:6">
+    <row r="88" ht="14.25" spans="1:6">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3905,7 +3914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="17.75" spans="1:6">
+    <row r="89" ht="14.25" spans="1:6">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3925,7 +3934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" ht="17.75" spans="1:6">
+    <row r="90" ht="14.25" spans="1:6">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3945,7 +3954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" ht="17.75" spans="1:6">
+    <row r="91" ht="14.25" spans="1:6">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3965,7 +3974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" ht="17.75" spans="1:6">
+    <row r="92" ht="27.75" spans="1:6">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" ht="17.75" spans="1:6">
+    <row r="93" ht="14.25" spans="1:6">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" ht="17.75" spans="1:6">
+    <row r="94" ht="27.75" spans="1:6">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" ht="17.75" spans="1:6">
+    <row r="95" ht="14.25" spans="1:6">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4045,7 +4054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" ht="17.75" spans="1:6">
+    <row r="96" ht="14.25" spans="1:6">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" ht="17.75" spans="1:6">
+    <row r="97" ht="14.25" spans="1:6">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4085,7 +4094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" ht="17.75" spans="1:6">
+    <row r="98" ht="14.25" spans="1:6">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" ht="17.75" spans="1:6">
+    <row r="99" ht="14.25" spans="1:6">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" ht="17.75" spans="1:6">
+    <row r="100" ht="14.25" spans="1:6">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" ht="17.75" spans="1:6">
+    <row r="101" ht="14.25" spans="1:6">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" ht="17.75" spans="1:6">
+    <row r="102" ht="14.25" spans="1:6">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" ht="17.75" spans="1:6">
+    <row r="103" ht="14.25" spans="1:6">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" ht="17.75" spans="1:6">
+    <row r="104" ht="14.25" spans="1:6">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" ht="17.75" spans="1:6">
+    <row r="105" ht="14.25" spans="1:6">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" ht="17.75" spans="1:6">
+    <row r="106" ht="14.25" spans="1:6">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4265,7 +4274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" ht="17.75" spans="1:6">
+    <row r="107" ht="14.25" spans="1:6">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" ht="17.75" spans="1:6">
+    <row r="108" spans="1:6">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4305,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" ht="17.75" spans="1:6">
+    <row r="109" ht="14.25" spans="1:6">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" ht="17.75" spans="1:6">
+    <row r="110" ht="14.25" spans="1:6">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" ht="17.75" spans="1:6">
+    <row r="111" ht="14.25" spans="1:6">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4365,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" ht="17.75" spans="1:6">
+    <row r="112" ht="14.25" spans="1:6">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="17.75" spans="1:6">
+    <row r="113" ht="14.25" spans="1:6">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4405,7 +4414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" ht="17.75" spans="1:6">
+    <row r="114" ht="14.25" spans="1:6">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4425,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" ht="17.75" spans="1:6">
+    <row r="115" ht="14.25" spans="1:6">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4445,7 +4454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" ht="17.75" spans="1:6">
+    <row r="116" ht="14.25" spans="1:6">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" ht="17.75" spans="1:6">
+    <row r="117" ht="14.25" spans="1:6">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" ht="17.75" spans="1:6">
+    <row r="118" ht="14.25" spans="1:6">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" ht="17.75" spans="1:6">
+    <row r="119" ht="14.25" spans="1:6">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" ht="17.75" spans="1:6">
+    <row r="120" ht="14.25" spans="1:6">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" ht="17.75" spans="1:6">
+    <row r="121" ht="14.25" spans="1:6">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4565,7 +4574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" ht="17.75" spans="1:6">
+    <row r="122" ht="14.25" spans="1:6">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4582,6 +4591,26 @@
         <v>59</v>
       </c>
       <c r="F122" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:6">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4893,6 +4922,7 @@
     <hyperlink ref="E92" r:id="rId179" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
     <hyperlink ref="F55" r:id="rId3" location="/zh-cn/react-native-crypto-js" display="链接"/>
     <hyperlink ref="F76" r:id="rId3" location="/zh-cn/react-native-MJRefresh" display="链接"/>
+    <hyperlink ref="F123" r:id="rId3" location="/zh-cn/react-native-sensors" display="链接"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25800" windowHeight="12820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="306">
   <si>
     <t>序号</t>
   </si>
@@ -932,13 +932,22 @@
     <t>5.1.5</t>
   </si>
   <si>
-    <t>reatc-native-sensors</t>
+    <t>react-native-sensors</t>
   </si>
   <si>
     <t>7.2.1</t>
   </si>
   <si>
-    <t>@react-native-oh-library/react-native-sensors</t>
+    <t>@react-native-oh-tpl/react-native-sensors</t>
+  </si>
+  <si>
+    <t>react-native-sortable-list</t>
+  </si>
+  <si>
+    <t>0.0.25</t>
+  </si>
+  <si>
+    <t>@react-native-oh-tpl/react-native-sortable-list</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,6 +1622,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2140,23 +2158,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.9416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7333333333333" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.23333333333333" style="1"/>
-    <col min="5" max="5" width="51.925" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.23333333333333" style="1"/>
+    <col min="1" max="1" width="13.9423076923077" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7307692307692" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.23076923076923" style="1"/>
+    <col min="5" max="5" width="51.9230769230769" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3365384615385" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.25" spans="1:6">
+    <row r="1" ht="51.75" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" ht="17.75" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2196,7 +2214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" ht="17.75" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2216,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" ht="17.75" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:6">
+    <row r="5" ht="17.75" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2256,7 +2274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" ht="17.75" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" ht="17.75" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2296,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" ht="17.75" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2316,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:6">
+    <row r="9" ht="17.75" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2336,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
+    <row r="10" ht="17.75" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2356,7 +2374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" ht="17.75" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2376,7 +2394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:6">
+    <row r="12" ht="17.75" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:6">
+    <row r="13" ht="17.75" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2416,7 +2434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" ht="17.75" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2436,7 +2454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:6">
+    <row r="15" ht="17.75" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2456,7 +2474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:6">
+    <row r="16" ht="17.75" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2476,7 +2494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:6">
+    <row r="17" ht="17.75" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2496,7 +2514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:6">
+    <row r="18" ht="17.75" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2516,7 +2534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
+    <row r="19" ht="17.75" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2536,7 +2554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:6">
+    <row r="20" ht="17.75" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2556,7 +2574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:6">
+    <row r="21" ht="17.75" spans="1:6">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2576,7 +2594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:6">
+    <row r="22" ht="17.75" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2596,7 +2614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:6">
+    <row r="23" ht="17.75" spans="1:6">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2616,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:6">
+    <row r="24" ht="17.75" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2636,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:6">
+    <row r="25" ht="17.75" spans="1:6">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2656,7 +2674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:6">
+    <row r="26" ht="17.75" spans="1:6">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2676,7 +2694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:6">
+    <row r="27" ht="17.75" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:6">
+    <row r="28" ht="17.75" spans="1:6">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2716,7 +2734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:6">
+    <row r="29" ht="17.75" spans="1:6">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2736,7 +2754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:6">
+    <row r="30" ht="17.75" spans="1:6">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2756,7 +2774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:6">
+    <row r="31" ht="17.75" spans="1:6">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2776,7 +2794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:6">
+    <row r="32" ht="17.75" spans="1:6">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2796,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:6">
+    <row r="33" ht="17.75" spans="1:6">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2816,7 +2834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:6">
+    <row r="34" ht="17.75" spans="1:6">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2836,7 +2854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:6">
+    <row r="35" ht="17.75" spans="1:6">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2856,7 +2874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:6">
+    <row r="36" ht="17.75" spans="1:6">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:6">
+    <row r="37" ht="17.75" spans="1:6">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2896,7 +2914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:6">
+    <row r="38" ht="17.75" spans="1:6">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2916,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:6">
+    <row r="39" ht="17.75" spans="1:6">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2936,7 +2954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:6">
+    <row r="40" ht="17.75" spans="1:6">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2956,7 +2974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:6">
+    <row r="41" ht="17.75" spans="1:6">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2976,7 +2994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:6">
+    <row r="42" ht="17.75" spans="1:6">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2996,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:6">
+    <row r="43" ht="17.75" spans="1:6">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3016,7 +3034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:6">
+    <row r="44" ht="17.75" spans="1:6">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3036,7 +3054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:6">
+    <row r="45" ht="17.75" spans="1:6">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3056,7 +3074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:6">
+    <row r="46" ht="17.75" spans="1:6">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:6">
+    <row r="47" ht="17.75" spans="1:6">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3096,7 +3114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:6">
+    <row r="48" ht="17.75" spans="1:6">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3116,7 +3134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="27.75" spans="1:6">
+    <row r="49" ht="17.75" spans="1:6">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3136,7 +3154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:6">
+    <row r="50" ht="17.75" spans="1:6">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:6">
+    <row r="51" ht="17.75" spans="1:6">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3176,7 +3194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:6">
+    <row r="52" ht="17.75" spans="1:6">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3196,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:6">
+    <row r="53" ht="17.75" spans="1:6">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3216,7 +3234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:6">
+    <row r="54" ht="17.75" spans="1:6">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:6">
+    <row r="55" ht="17.75" spans="1:6">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3256,7 +3274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:6">
+    <row r="56" ht="17.75" spans="1:6">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3276,7 +3294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:6">
+    <row r="57" ht="17.75" spans="1:6">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:6">
+    <row r="58" ht="17.75" spans="1:6">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3316,7 +3334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:6">
+    <row r="59" ht="17.75" spans="1:6">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3336,7 +3354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:6">
+    <row r="60" ht="17.75" spans="1:6">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3356,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:6">
+    <row r="61" ht="17.75" spans="1:6">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3376,7 +3394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:6">
+    <row r="62" ht="17.75" spans="1:6">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3396,7 +3414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:6">
+    <row r="63" ht="17.75" spans="1:6">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3416,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:6">
+    <row r="64" ht="17.75" spans="1:6">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3436,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:6">
+    <row r="65" ht="17.75" spans="1:6">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3456,7 +3474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:6">
+    <row r="66" ht="17.75" spans="1:6">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3476,7 +3494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:6">
+    <row r="67" ht="17.75" spans="1:6">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3496,7 +3514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:6">
+    <row r="68" ht="17.75" spans="1:6">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:6">
+    <row r="69" ht="17.75" spans="1:6">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3534,7 +3552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" ht="27.75" spans="1:6">
+    <row r="70" ht="17.75" spans="1:6">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3554,7 +3572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="27.75" spans="1:6">
+    <row r="71" ht="34.75" spans="1:6">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3574,7 +3592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" ht="27.75" spans="1:6">
+    <row r="72" ht="34.75" spans="1:6">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3594,7 +3612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:6">
+    <row r="73" ht="17.75" spans="1:6">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3614,7 +3632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:6">
+    <row r="74" ht="17.75" spans="1:6">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:6">
+    <row r="75" ht="17.75" spans="1:6">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3654,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:6">
+    <row r="76" ht="17.75" spans="1:6">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:6">
+    <row r="77" ht="17.75" spans="1:6">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3694,7 +3712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:6">
+    <row r="78" ht="17.75" spans="1:6">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3714,7 +3732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:6">
+    <row r="79" ht="17.75" spans="1:6">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3734,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:6">
+    <row r="80" ht="17.75" spans="1:6">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:6">
+    <row r="81" ht="17.75" spans="1:6">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3774,7 +3792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:6">
+    <row r="82" ht="17.75" spans="1:6">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:6">
+    <row r="83" ht="17.75" spans="1:6">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3814,7 +3832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:6">
+    <row r="84" ht="17.75" spans="1:6">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3834,7 +3852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:6">
+    <row r="85" ht="17.75" spans="1:6">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3854,7 +3872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:6">
+    <row r="86" ht="17.75" spans="1:6">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:6">
+    <row r="87" ht="17.75" spans="1:6">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3894,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:6">
+    <row r="88" ht="17.75" spans="1:6">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3914,7 +3932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:6">
+    <row r="89" ht="17.75" spans="1:6">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3934,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:6">
+    <row r="90" ht="17.75" spans="1:6">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:6">
+    <row r="91" ht="17.75" spans="1:6">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3974,7 +3992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" ht="27.75" spans="1:6">
+    <row r="92" ht="17.75" spans="1:6">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:6">
+    <row r="93" ht="17.75" spans="1:6">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4014,7 +4032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" ht="27.75" spans="1:6">
+    <row r="94" ht="17.75" spans="1:6">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4034,7 +4052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:6">
+    <row r="95" ht="17.75" spans="1:6">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4054,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:6">
+    <row r="96" ht="17.75" spans="1:6">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4074,7 +4092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:6">
+    <row r="97" ht="17.75" spans="1:6">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4094,7 +4112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:6">
+    <row r="98" ht="17.75" spans="1:6">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4114,7 +4132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:6">
+    <row r="99" ht="17.75" spans="1:6">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4134,7 +4152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:6">
+    <row r="100" ht="17.75" spans="1:6">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4154,7 +4172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:6">
+    <row r="101" ht="17.75" spans="1:6">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4174,7 +4192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:6">
+    <row r="102" ht="17.75" spans="1:6">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4194,7 +4212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:6">
+    <row r="103" ht="17.75" spans="1:6">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:6">
+    <row r="104" ht="17.75" spans="1:6">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:6">
+    <row r="105" ht="17.75" spans="1:6">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4254,7 +4272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:6">
+    <row r="106" ht="17.75" spans="1:6">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4274,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:6">
+    <row r="107" ht="17.75" spans="1:6">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4294,7 +4312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" ht="17.75" spans="1:6">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4314,7 +4332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:6">
+    <row r="109" ht="17.75" spans="1:6">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4334,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:6">
+    <row r="110" ht="17.75" spans="1:6">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4354,7 +4372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:6">
+    <row r="111" ht="17.75" spans="1:6">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4374,7 +4392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:6">
+    <row r="112" ht="17.75" spans="1:6">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4394,7 +4412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:6">
+    <row r="113" ht="17.75" spans="1:6">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4414,7 +4432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:6">
+    <row r="114" ht="17.75" spans="1:6">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4434,7 +4452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:6">
+    <row r="115" ht="17.75" spans="1:6">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4454,7 +4472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:6">
+    <row r="116" ht="17.75" spans="1:6">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4474,7 +4492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:6">
+    <row r="117" ht="17.75" spans="1:6">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4494,7 +4512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:6">
+    <row r="118" ht="17.75" spans="1:6">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4514,7 +4532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:6">
+    <row r="119" ht="17.75" spans="1:6">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4534,7 +4552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:6">
+    <row r="120" ht="17.75" spans="1:6">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4554,7 +4572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:6">
+    <row r="121" ht="17.75" spans="1:6">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4574,7 +4592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:6">
+    <row r="122" ht="17.75" spans="1:6">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4594,11 +4612,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:6">
+    <row r="123" ht="17.75" spans="1:6">
       <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -4607,10 +4625,30 @@
       <c r="D123" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="6" t="s">
         <v>302</v>
       </c>
       <c r="F123" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" ht="17.75" spans="1:6">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4755,174 +4793,179 @@
     <hyperlink ref="B113" r:id="rId83" display="recyclerlistview" tooltip="https://github.com/Flipkart/recyclerlistview"/>
     <hyperlink ref="F113" r:id="rId3" location="/zh-cn/recyclerListView" display="链接"/>
     <hyperlink ref="B120" r:id="rId84" display="rn-placeholder" tooltip="https://github.com/mfrachet/rn-placeholder"/>
-    <hyperlink ref="F120" r:id="rId3" location="/zh-cn/rn-placeholder" display="链接"/>
-    <hyperlink ref="B121" r:id="rId85" display="styled-components" tooltip="https://github.com/styled-components/styled-components"/>
-    <hyperlink ref="F121" r:id="rId3" location="/zh-cn/styled-components" display="链接"/>
+    <hyperlink ref="F120" r:id="rId85" display="链接"/>
+    <hyperlink ref="B121" r:id="rId86" display="styled-components" tooltip="https://github.com/styled-components/styled-components"/>
+    <hyperlink ref="F121" r:id="rId87" display="链接"/>
     <hyperlink ref="B122" r:id="rId12" display="styled-system" tooltip="https://github.com/react-native-picker/picker"/>
-    <hyperlink ref="F122" r:id="rId3" location="/zh-cn/styled-system" display="链接"/>
-    <hyperlink ref="B31" r:id="rId86" display="jeanregisser/react-native-slider" tooltip="https://github.com/react-native-oh-library/jeanregisser-react-native-slider"/>
+    <hyperlink ref="F122" r:id="rId88" display="链接"/>
+    <hyperlink ref="B31" r:id="rId89" display="jeanregisser/react-native-slider" tooltip="https://github.com/react-native-oh-library/jeanregisser-react-native-slider"/>
     <hyperlink ref="F31" r:id="rId3" location="/zh-cn/jeanregisser-react-native-slider" display="链接"/>
     <hyperlink ref="B34" r:id="rId53" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
     <hyperlink ref="F34" r:id="rId3" location="/zh-cn/js-beautify" display="链接"/>
-    <hyperlink ref="B50" r:id="rId87" display="react-native-base64" tooltip="https://github.com/eranbo/react-native-base64"/>
+    <hyperlink ref="B50" r:id="rId90" display="react-native-base64" tooltip="https://github.com/eranbo/react-native-base64"/>
     <hyperlink ref="F50" r:id="rId3" location="/zh-cn/react-native-base64" display="链接"/>
-    <hyperlink ref="B53" r:id="rId88" display="react-native-check-box" tooltip="https://github.com/crazycodeboy/react-native-check-box"/>
+    <hyperlink ref="B53" r:id="rId91" display="react-native-check-box" tooltip="https://github.com/crazycodeboy/react-native-check-box"/>
     <hyperlink ref="F53" r:id="rId3" location="/zh-cn/react-native-check-box" display="链接"/>
-    <hyperlink ref="B5" r:id="rId89" display="@react-native-community/blur" tooltip="https://github.com/Kureev/react-native-blur"/>
-    <hyperlink ref="E5" r:id="rId90" display="@react-native-oh-tpl/blur Releases" tooltip="https://github.com/react-native-oh-library/react-native-blur/releases"/>
+    <hyperlink ref="B5" r:id="rId92" display="@react-native-community/blur" tooltip="https://github.com/Kureev/react-native-blur"/>
+    <hyperlink ref="E5" r:id="rId93" display="@react-native-oh-tpl/blur Releases" tooltip="https://github.com/react-native-oh-library/react-native-blur/releases"/>
     <hyperlink ref="F5" r:id="rId3" location="/zh-cn/react-native-community-blur" display="链接"/>
-    <hyperlink ref="B12" r:id="rId91" display="@react-native-community/push-notification-ios" tooltip="https://github.com/react-native-push-notification/ios"/>
-    <hyperlink ref="E12" r:id="rId92" display="@react-native-oh-tpl/push-notification-ios" tooltip="https://github.com/react-native-oh-library/react-native-push-notification-ios/releases"/>
+    <hyperlink ref="B12" r:id="rId94" display="@react-native-community/push-notification-ios" tooltip="https://github.com/react-native-push-notification/ios"/>
+    <hyperlink ref="E12" r:id="rId95" display="@react-native-oh-tpl/push-notification-ios" tooltip="https://github.com/react-native-oh-library/react-native-push-notification-ios/releases"/>
     <hyperlink ref="F12" r:id="rId3" location="/zh-cn/react-native-community-push-notification-ios" display="链接"/>
-    <hyperlink ref="B15" r:id="rId93" display="@react-native-cookies/cookies" tooltip="https://github.com/react-native-cookies/cookies"/>
-    <hyperlink ref="E15" r:id="rId94" display="@react-native-oh-tpl/cookies" tooltip="https://github.com/react-native-oh-library/react-native-cookies/releases"/>
+    <hyperlink ref="B15" r:id="rId96" display="@react-native-cookies/cookies" tooltip="https://github.com/react-native-cookies/cookies"/>
+    <hyperlink ref="E15" r:id="rId97" display="@react-native-oh-tpl/cookies" tooltip="https://github.com/react-native-oh-library/react-native-cookies/releases"/>
     <hyperlink ref="F15" r:id="rId3" location="/zh-cn/react-native-cookies" display="链接"/>
-    <hyperlink ref="B55" r:id="rId95" display="react-native-crypto-js" tooltip="https://github.com/imchintan/react-native-crypto-js"/>
-    <hyperlink ref="B73" r:id="rId96" display="react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps"/>
-    <hyperlink ref="E73" r:id="rId97" display="@react-native-oh-tpl/react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps/releases"/>
+    <hyperlink ref="B55" r:id="rId98" display="react-native-crypto-js" tooltip="https://github.com/imchintan/react-native-crypto-js"/>
+    <hyperlink ref="B73" r:id="rId99" display="react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps"/>
+    <hyperlink ref="E73" r:id="rId100" display="@react-native-oh-tpl/react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps/releases"/>
     <hyperlink ref="F73" r:id="rId3" location="/zh-cn/react-native-maps" display="链接"/>
-    <hyperlink ref="B78" r:id="rId98" display="react-native-pdf" tooltip="https://github.com/wonday/react-native-pdf"/>
-    <hyperlink ref="E78" r:id="rId99" display="@react-native-oh-tpl/react-native-pdf" tooltip="https://github.com/react-native-oh-library/react-native-pdf/releases"/>
+    <hyperlink ref="B78" r:id="rId101" display="react-native-pdf" tooltip="https://github.com/wonday/react-native-pdf"/>
+    <hyperlink ref="E78" r:id="rId102" display="@react-native-oh-tpl/react-native-pdf" tooltip="https://github.com/react-native-oh-library/react-native-pdf/releases"/>
     <hyperlink ref="F78" r:id="rId3" location="/zh-cn/react-native-pdf" display="链接"/>
-    <hyperlink ref="B88" r:id="rId100" display="react-native-redash" tooltip="https://github.com/wcandillon/react-native-redash/"/>
+    <hyperlink ref="B88" r:id="rId103" display="react-native-redash" tooltip="https://github.com/wcandillon/react-native-redash/"/>
     <hyperlink ref="F88" r:id="rId3" location="/zh-cn/react-native-redash" display="链接"/>
-    <hyperlink ref="B95" r:id="rId101" display="react-native-snap-carousel" tooltip="https://github.com/meliorence/react-native-snap-carousel"/>
-    <hyperlink ref="E95" r:id="rId102" display="@react-native-oh-tpl/react-native-snap-carousel" tooltip="https://github.com/react-native-oh-library/react-native-snap-carousel/releases"/>
+    <hyperlink ref="B95" r:id="rId104" display="react-native-snap-carousel" tooltip="https://github.com/meliorence/react-native-snap-carousel"/>
+    <hyperlink ref="E95" r:id="rId105" display="@react-native-oh-tpl/react-native-snap-carousel" tooltip="https://github.com/react-native-oh-library/react-native-snap-carousel/releases"/>
     <hyperlink ref="F95" r:id="rId3" location="/zh-cn/react-native-snap-carousel" display="链接"/>
-    <hyperlink ref="B103" r:id="rId103" display="react-native-transitiongroup" tooltip="https://github.com/madsleejensen/react-native-transitiongroup"/>
-    <hyperlink ref="E103" r:id="rId104" display="@react-native-oh-tpl/react-native-transitiongroup" tooltip="https://github.com/react-native-oh-library/react-native-transitiongroup/releases"/>
+    <hyperlink ref="B103" r:id="rId106" display="react-native-transitiongroup" tooltip="https://github.com/madsleejensen/react-native-transitiongroup"/>
+    <hyperlink ref="E103" r:id="rId107" display="@react-native-oh-tpl/react-native-transitiongroup" tooltip="https://github.com/react-native-oh-library/react-native-transitiongroup/releases"/>
     <hyperlink ref="F103" r:id="rId3" location="/zh-cn/react-native-transitiongroup" display="链接"/>
-    <hyperlink ref="B104" r:id="rId105" display="react-native-translucent-modal" tooltip="https://github.com/23mf/react-native-translucent-modal"/>
-    <hyperlink ref="E104" r:id="rId106" display="@react-native-oh-tpl/react-native-translucent-modal" tooltip="https://github.com/react-native-oh-library/react-native-translucent-modal/releases"/>
+    <hyperlink ref="B104" r:id="rId108" display="react-native-translucent-modal" tooltip="https://github.com/23mf/react-native-translucent-modal"/>
+    <hyperlink ref="E104" r:id="rId109" display="@react-native-oh-tpl/react-native-translucent-modal" tooltip="https://github.com/react-native-oh-library/react-native-translucent-modal/releases"/>
     <hyperlink ref="F104" r:id="rId3" location="/zh-cn/react-native-translucent-modal" display="链接"/>
-    <hyperlink ref="B114" r:id="rId107" display="redux" tooltip="https://github.com/reduxjs/redux"/>
+    <hyperlink ref="B114" r:id="rId110" display="redux" tooltip="https://github.com/reduxjs/redux"/>
     <hyperlink ref="F114" r:id="rId3" location="/zh-cn/redux" display="链接"/>
-    <hyperlink ref="B116" r:id="rId108" display="redux-logger" tooltip="https://github.com/LogRocket/redux-logger"/>
+    <hyperlink ref="B116" r:id="rId111" display="redux-logger" tooltip="https://github.com/LogRocket/redux-logger"/>
     <hyperlink ref="F116" r:id="rId3" location="/zh-cn/redux-logger" display="链接"/>
-    <hyperlink ref="B117" r:id="rId109" display="redux-persist" tooltip="https://github.com/rt2zz/redux-persist"/>
+    <hyperlink ref="B117" r:id="rId112" display="redux-persist" tooltip="https://github.com/rt2zz/redux-persist"/>
     <hyperlink ref="F117" r:id="rId3" location="/zh-cn/redux-persist" display="链接"/>
-    <hyperlink ref="B24" r:id="rId110" display="axios" tooltip="https://github.com/axios/axios"/>
+    <hyperlink ref="B24" r:id="rId113" display="axios" tooltip="https://github.com/axios/axios"/>
     <hyperlink ref="F24" r:id="rId3" location="/zh-cn/axios" display="链接"/>
-    <hyperlink ref="B26" r:id="rId111" display="dayJs" tooltip="https://github.com/iamkun/dayjs?tab=readme-ov-file"/>
+    <hyperlink ref="B26" r:id="rId114" display="dayJs" tooltip="https://github.com/iamkun/dayjs?tab=readme-ov-file"/>
     <hyperlink ref="F26" r:id="rId3" location="/zh-cn/dayjs" display="链接"/>
-    <hyperlink ref="B28" r:id="rId112" display="EventBus" tooltip="https://github.com/krasimir/EventBus"/>
+    <hyperlink ref="B28" r:id="rId115" display="EventBus" tooltip="https://github.com/krasimir/EventBus"/>
     <hyperlink ref="F28" r:id="rId3" location="/zh-cn/EventBus" display="链接"/>
-    <hyperlink ref="B30" r:id="rId113" display="immer" tooltip="https://github.com/immerjs/immer"/>
+    <hyperlink ref="B30" r:id="rId116" display="immer" tooltip="https://github.com/immerjs/immer"/>
     <hyperlink ref="F30" r:id="rId3" location="/zh-cn/immer" display="链接"/>
-    <hyperlink ref="B32" r:id="rId114" display="JsBarCode" tooltip="https://github.com/lindell/JsBarcode"/>
+    <hyperlink ref="B32" r:id="rId117" display="JsBarCode" tooltip="https://github.com/lindell/JsBarcode"/>
     <hyperlink ref="F32" r:id="rId3" location="/zh-cn/jsbarcode" display="链接"/>
-    <hyperlink ref="B39" r:id="rId115" display="Moment" tooltip="https://github.com/moment/moment"/>
+    <hyperlink ref="B39" r:id="rId118" display="Moment" tooltip="https://github.com/moment/moment"/>
     <hyperlink ref="F39" r:id="rId3" location="/zh-cn/moment" display="链接"/>
-    <hyperlink ref="B42" r:id="rId116" display="qrcode-generator" tooltip="https://github.com/kazuhikoarase/qrcode-generator"/>
+    <hyperlink ref="B42" r:id="rId119" display="qrcode-generator" tooltip="https://github.com/kazuhikoarase/qrcode-generator"/>
     <hyperlink ref="F42" r:id="rId3" location="/zh-cn/qrcode-generator" display="链接"/>
-    <hyperlink ref="B43" r:id="rId117" display="react-ahooks" tooltip="https://github.com/alibaba/hooks"/>
+    <hyperlink ref="B43" r:id="rId120" display="react-ahooks" tooltip="https://github.com/alibaba/hooks"/>
     <hyperlink ref="F43" r:id="rId3" location="/zh-cn/react-ahooks" display="链接"/>
-    <hyperlink ref="B45" r:id="rId118" display="react-lifecycles-compat" tooltip="https://github.com/reactjs/react-lifecycles-compat"/>
+    <hyperlink ref="B45" r:id="rId121" display="react-lifecycles-compat" tooltip="https://github.com/reactjs/react-lifecycles-compat"/>
     <hyperlink ref="F45" r:id="rId3" location="/zh-cn/react-lifecycles-compat" display="链接"/>
-    <hyperlink ref="B47" r:id="rId119" display="react-native-animate-number" tooltip="https://github.com/wkh237/react-native-animate-number"/>
+    <hyperlink ref="B47" r:id="rId122" display="react-native-animate-number" tooltip="https://github.com/wkh237/react-native-animate-number"/>
     <hyperlink ref="F47" r:id="rId3" location="/zh-cn/react-native-animate-number" display="链接"/>
-    <hyperlink ref="B51" r:id="rId120" display="react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util"/>
-    <hyperlink ref="E51" r:id="rId121" display="@react-native-oh-tpl/react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util/releases"/>
+    <hyperlink ref="B51" r:id="rId123" display="react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util"/>
+    <hyperlink ref="E51" r:id="rId124" display="@react-native-oh-tpl/react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util/releases"/>
     <hyperlink ref="F51" r:id="rId3" location="/zh-cn/react-native-blob-util" display="链接"/>
-    <hyperlink ref="B52" r:id="rId122" display="react-native-canvas" tooltip="https://github.com/iddan/react-native-canvas"/>
+    <hyperlink ref="B52" r:id="rId125" display="react-native-canvas" tooltip="https://github.com/iddan/react-native-canvas"/>
     <hyperlink ref="F52" r:id="rId3" location="/zh-cn/react-native-canvas" display="链接"/>
-    <hyperlink ref="B54" r:id="rId123" display="react-native-confirmation-code-field" tooltip="https://github.com/retyui/react-native-confirmation-code-field"/>
+    <hyperlink ref="B54" r:id="rId126" display="react-native-confirmation-code-field" tooltip="https://github.com/retyui/react-native-confirmation-code-field"/>
     <hyperlink ref="F54" r:id="rId3" location="/zh-cn/react-native-confirmation-code-field" display="链接"/>
-    <hyperlink ref="B58" r:id="rId124" display="react-native-drawer-layout-polyfill" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
+    <hyperlink ref="B58" r:id="rId127" display="react-native-drawer-layout-polyfill" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
     <hyperlink ref="F58" r:id="rId3" location="/zh-cn/react-native-drawer-layout-polyfill" display="链接"/>
-    <hyperlink ref="B59" r:id="rId125" display="react-native-echarts-pro" tooltip="https://github.com/supervons/react-native-echarts-pro"/>
+    <hyperlink ref="B59" r:id="rId128" display="react-native-echarts-pro" tooltip="https://github.com/supervons/react-native-echarts-pro"/>
     <hyperlink ref="F59" r:id="rId3" location="/zh-cn/react-native-echarts-pro" display="链接"/>
-    <hyperlink ref="B62" r:id="rId126" display="react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image"/>
-    <hyperlink ref="E62" r:id="rId127" display="@react-native-oh-tpl/react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image/releases"/>
+    <hyperlink ref="B62" r:id="rId129" display="react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image"/>
+    <hyperlink ref="E62" r:id="rId130" display="@react-native-oh-tpl/react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image/releases"/>
     <hyperlink ref="F62" r:id="rId3" location="/zh-cn/react-native-fit-Image" display="链接"/>
-    <hyperlink ref="B65" r:id="rId128" display="react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor"/>
-    <hyperlink ref="E65" r:id="rId129" display="@react-native-oh-tpl/react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor/releases"/>
+    <hyperlink ref="B65" r:id="rId131" display="react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor"/>
+    <hyperlink ref="E65" r:id="rId132" display="@react-native-oh-tpl/react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor/releases"/>
     <hyperlink ref="F65" r:id="rId3" location="/zh-cn/react-native-image-editor" display="链接"/>
-    <hyperlink ref="B67" r:id="rId130" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer"/>
-    <hyperlink ref="E67" r:id="rId131" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer/releases"/>
+    <hyperlink ref="B67" r:id="rId133" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer"/>
+    <hyperlink ref="E67" r:id="rId134" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer/releases"/>
     <hyperlink ref="F67" r:id="rId3" location="/zh-cn/react-native-image-viewer" display="链接"/>
-    <hyperlink ref="B69" r:id="rId132" display="react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom"/>
-    <hyperlink ref="E69" r:id="rId133" display="@react-native-oh-tpl/react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom/releases"/>
+    <hyperlink ref="B69" r:id="rId135" display="react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom"/>
+    <hyperlink ref="E69" r:id="rId136" display="@react-native-oh-tpl/react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom/releases"/>
     <hyperlink ref="F69" r:id="rId3" location="/zh-cn/react-native-image-zoom" display="链接"/>
-    <hyperlink ref="B70" r:id="rId134" display="react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer"/>
-    <hyperlink ref="E70" r:id="rId135" display="@react-native-oh-tpl/react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer/releases"/>
+    <hyperlink ref="B70" r:id="rId137" display="react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer"/>
+    <hyperlink ref="E70" r:id="rId138" display="@react-native-oh-tpl/react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer/releases"/>
     <hyperlink ref="F70" r:id="rId3" location="/zh-cn/react-native-intersection-observer" display="链接"/>
-    <hyperlink ref="B68" r:id="rId136" display="react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing"/>
-    <hyperlink ref="E68" r:id="rId137" display="@react-native-oh-tpl/react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing/releases"/>
+    <hyperlink ref="B68" r:id="rId139" display="react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing"/>
+    <hyperlink ref="E68" r:id="rId140" display="@react-native-oh-tpl/react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing/releases"/>
     <hyperlink ref="F68" r:id="rId3" location="/zh-cn/react-native-image-viewing" display="链接"/>
-    <hyperlink ref="B74" r:id="rId138" display="react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig"/>
-    <hyperlink ref="E74" r:id="rId139" display="@react-native-oh-tpl/react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/releases"/>
+    <hyperlink ref="B74" r:id="rId141" display="react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig"/>
+    <hyperlink ref="E74" r:id="rId142" display="@react-native-oh-tpl/react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/releases"/>
     <hyperlink ref="F74" r:id="rId3" location="/zh-cn/react-native-markdown-display" display="链接"/>
-    <hyperlink ref="B75" r:id="rId140" display="react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee"/>
-    <hyperlink ref="E75" r:id="rId141" display="@react-native-oh-tpl/react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee/releases"/>
+    <hyperlink ref="B75" r:id="rId143" display="react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee"/>
+    <hyperlink ref="E75" r:id="rId144" display="@react-native-oh-tpl/react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee/releases"/>
     <hyperlink ref="F75" r:id="rId3" location="/zh-cn/react-native-marquee" display="链接"/>
-    <hyperlink ref="B80" r:id="rId142" display="react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view"/>
-    <hyperlink ref="E80" r:id="rId143" display="@react-native-oh-tpl/react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view/releases"/>
+    <hyperlink ref="B80" r:id="rId145" display="react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view"/>
+    <hyperlink ref="E80" r:id="rId146" display="@react-native-oh-tpl/react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view/releases"/>
     <hyperlink ref="F80" r:id="rId3" location="/zh-cn/react-native-popover-view" display="链接"/>
-    <hyperlink ref="B81" r:id="rId144" display="react-native-popup-menu" tooltip="https://github.com/instea/react-native-popup-menu"/>
+    <hyperlink ref="B81" r:id="rId147" display="react-native-popup-menu" tooltip="https://github.com/instea/react-native-popup-menu"/>
     <hyperlink ref="F81" r:id="rId3" location="/zh-cn/react-native-popup-menu" display="链接"/>
-    <hyperlink ref="B83" r:id="rId145" display="react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull"/>
-    <hyperlink ref="E83" r:id="rId146" display="@react-native-oh-tpl/react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull/releases"/>
+    <hyperlink ref="B83" r:id="rId148" display="react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull"/>
+    <hyperlink ref="E83" r:id="rId149" display="@react-native-oh-tpl/react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull/releases"/>
     <hyperlink ref="F83" r:id="rId3" location="/zh-cn/react-native-pull" display="链接"/>
-    <hyperlink ref="B87" r:id="rId147" display="react-native-reanimated-table" tooltip="https://github.com/dohooo/react-native-reanimated-table"/>
+    <hyperlink ref="B87" r:id="rId150" display="react-native-reanimated-table" tooltip="https://github.com/dohooo/react-native-reanimated-table"/>
     <hyperlink ref="F87" r:id="rId3" location="/zh-cn/react-native-reanimated-table" display="链接"/>
-    <hyperlink ref="B92" r:id="rId148" display="react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view"/>
+    <hyperlink ref="B92" r:id="rId151" display="react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view"/>
     <hyperlink ref="F92" r:id="rId3" location="/zh-cn/react-native-scrollable-tab-view" display="链接"/>
-    <hyperlink ref="B97" r:id="rId149" display="react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader"/>
-    <hyperlink ref="E97" r:id="rId150" display="@react-native-oh-tpl/react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader/releases"/>
+    <hyperlink ref="B97" r:id="rId152" display="react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader"/>
+    <hyperlink ref="E97" r:id="rId153" display="@react-native-oh-tpl/react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader/releases"/>
     <hyperlink ref="F97" r:id="rId3" location="/zh-cn/react-native-stickyheader" display="链接"/>
-    <hyperlink ref="B99" r:id="rId124" display="react-native-swipe-list-view" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
+    <hyperlink ref="B99" r:id="rId127" display="react-native-swipe-list-view" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
     <hyperlink ref="F99" r:id="rId3" location="/zh-cn/react-native-swipe-list-view" display="链接"/>
-    <hyperlink ref="B100" r:id="rId151" display="react-native-swiper" tooltip="https://github.com/leecade/react-native-swiper"/>
+    <hyperlink ref="B100" r:id="rId154" display="react-native-swiper" tooltip="https://github.com/leecade/react-native-swiper"/>
     <hyperlink ref="F100" r:id="rId3" location="/zh-cn/react-native-swiper" display="链接"/>
-    <hyperlink ref="B109" r:id="rId152" display="react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core"/>
-    <hyperlink ref="E109" r:id="rId153" display="@react-native-oh-tpl/react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core/releases"/>
+    <hyperlink ref="B109" r:id="rId155" display="react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core"/>
+    <hyperlink ref="E109" r:id="rId156" display="@react-native-oh-tpl/react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core/releases"/>
     <hyperlink ref="F109" r:id="rId3" location="/zh-cn/react-native-worklets-core" display="链接"/>
-    <hyperlink ref="B112" r:id="rId154" display="react-use" tooltip="https://github.com/zenghongtu/react-use"/>
+    <hyperlink ref="B112" r:id="rId157" display="react-use" tooltip="https://github.com/zenghongtu/react-use"/>
     <hyperlink ref="F112" r:id="rId3" location="/zh-cn/react-use" display="链接"/>
-    <hyperlink ref="B119" r:id="rId155" display="redux-toolkit" tooltip="https://github.com/reduxjs/redux-toolkit"/>
-    <hyperlink ref="F119" r:id="rId3" location="/zh-cn/redux-toolkit" display="链接"/>
-    <hyperlink ref="B102" r:id="rId156" display="react-native-text-size" tooltip="https://github.com/aMarCruz/react-native-text-size"/>
-    <hyperlink ref="E102" r:id="rId157" display="@react-native-oh-tpl/react-native-text-size" tooltip="https://github.com/react-native-oh-library/react-native-text-size/releases"/>
+    <hyperlink ref="B119" r:id="rId158" display="redux-toolkit" tooltip="https://github.com/reduxjs/redux-toolkit"/>
+    <hyperlink ref="F119" r:id="rId159" display="链接"/>
+    <hyperlink ref="B102" r:id="rId160" display="react-native-text-size" tooltip="https://github.com/aMarCruz/react-native-text-size"/>
+    <hyperlink ref="E102" r:id="rId161" display="@react-native-oh-tpl/react-native-text-size" tooltip="https://github.com/react-native-oh-library/react-native-text-size/releases"/>
     <hyperlink ref="F102" r:id="rId3" location="/zh-cn/react-native-text-size" display="链接"/>
-    <hyperlink ref="B111" r:id="rId158" display="react-router-dom" tooltip="https://github.com/remix-run/react-router"/>
+    <hyperlink ref="B111" r:id="rId162" display="react-router-dom" tooltip="https://github.com/remix-run/react-router"/>
     <hyperlink ref="F111" r:id="rId3" location="/zh-cn/react-router-dom" display="链接"/>
-    <hyperlink ref="B115" r:id="rId159" display="redux-actions" tooltip="https://github.com/redux-utilities/redux-actions"/>
+    <hyperlink ref="B115" r:id="rId163" display="redux-actions" tooltip="https://github.com/redux-utilities/redux-actions"/>
     <hyperlink ref="F115" r:id="rId3" location="/zh-cn/redux-actions" display="链接"/>
-    <hyperlink ref="B118" r:id="rId160" display="redux-thunk" tooltip="https://github.com/reduxjs/redux-thunk"/>
+    <hyperlink ref="B118" r:id="rId164" display="redux-thunk" tooltip="https://github.com/reduxjs/redux-thunk"/>
     <hyperlink ref="F118" r:id="rId3" location="/zh-cn/redux-thunk" display="链接"/>
-    <hyperlink ref="B48" r:id="rId161" display="react-native-aria" tooltip="https://github.com/gluestack/react-native-aria/"/>
+    <hyperlink ref="B48" r:id="rId165" display="react-native-aria" tooltip="https://github.com/gluestack/react-native-aria/"/>
     <hyperlink ref="F48" r:id="rId3" location="/zh-cn/react-native-aria" display="链接"/>
-    <hyperlink ref="B82" r:id="rId162" display="react-native-progress" tooltip="https://github.com/oblador/react-native-progress"/>
-    <hyperlink ref="E82" r:id="rId163" display="@react-native-oh-tpl/react-native-progress" tooltip="https://github.com/react-native-oh-library/react-native-progress/releases"/>
+    <hyperlink ref="B82" r:id="rId166" display="react-native-progress" tooltip="https://github.com/oblador/react-native-progress"/>
+    <hyperlink ref="E82" r:id="rId167" display="@react-native-oh-tpl/react-native-progress" tooltip="https://github.com/react-native-oh-library/react-native-progress/releases"/>
     <hyperlink ref="F82" r:id="rId3" location="/zh-cn/react-native-progress" display="链接"/>
-    <hyperlink ref="B63" r:id="rId164" display="react-native-fs" tooltip="https://github.com/itinance/react-native-fs"/>
-    <hyperlink ref="E63" r:id="rId165" display="@react-native-oh-tpl/react-native-fs" tooltip="https://github.com/react-native-oh-library/react-native-fs/releases"/>
+    <hyperlink ref="B63" r:id="rId168" display="react-native-fs" tooltip="https://github.com/itinance/react-native-fs"/>
+    <hyperlink ref="E63" r:id="rId169" display="@react-native-oh-tpl/react-native-fs" tooltip="https://github.com/react-native-oh-library/react-native-fs/releases"/>
     <hyperlink ref="F63" r:id="rId3" location="/zh-cn/react-native-fs" display="链接"/>
-    <hyperlink ref="B71" r:id="rId166" display="react-native-keyboard-aware-scroll-view" tooltip="https://github.com/APSL/react-native-keyboard-aware-scroll-view"/>
-    <hyperlink ref="E71" r:id="rId167" display="@react-native-oh-tpl/react-native-keyboard-aware-scroll-view" tooltip="https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases"/>
+    <hyperlink ref="B71" r:id="rId170" display="react-native-keyboard-aware-scroll-view" tooltip="https://github.com/APSL/react-native-keyboard-aware-scroll-view"/>
+    <hyperlink ref="E71" r:id="rId171" display="@react-native-oh-tpl/react-native-keyboard-aware-scroll-view" tooltip="https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases"/>
     <hyperlink ref="F71" r:id="rId3" location="/zh-cn/react-native-keyboard-aware-scroll-view" display="链接"/>
-    <hyperlink ref="B79" r:id="rId168" display="react-native-permissions" tooltip="https://github.com/zoontek/react-native-permissions"/>
-    <hyperlink ref="E79" r:id="rId169" display="@react-native-oh-tpl/react-native-permissions" tooltip="https://github.com/react-native-oh-library/react-native-permissions/releases"/>
+    <hyperlink ref="B79" r:id="rId172" display="react-native-permissions" tooltip="https://github.com/zoontek/react-native-permissions"/>
+    <hyperlink ref="E79" r:id="rId173" display="@react-native-oh-tpl/react-native-permissions" tooltip="https://github.com/react-native-oh-library/react-native-permissions/releases"/>
     <hyperlink ref="F79" r:id="rId3" location="/zh-cn/react-native-permissions" display="链接"/>
-    <hyperlink ref="B57" r:id="rId170" display="react-native-drag-sort" tooltip="https://github.com/mochixuan/react-native-drag-sort"/>
+    <hyperlink ref="B57" r:id="rId174" display="react-native-drag-sort" tooltip="https://github.com/mochixuan/react-native-drag-sort"/>
     <hyperlink ref="F57" r:id="rId3" location="/zh-cn/react-native-drag-sort" display="链接"/>
-    <hyperlink ref="B96" r:id="rId171" display="react-native-sound" tooltip="https://github.com/zmxv/react-native-sound"/>
-    <hyperlink ref="E96" r:id="rId172" display="@react-native-oh-tpl/react-native-sound" tooltip="https://github.com/react-native-oh-library/react-native-sound/releases"/>
+    <hyperlink ref="B96" r:id="rId175" display="react-native-sound" tooltip="https://github.com/zmxv/react-native-sound"/>
+    <hyperlink ref="E96" r:id="rId176" display="@react-native-oh-tpl/react-native-sound" tooltip="https://github.com/react-native-oh-library/react-native-sound/releases"/>
     <hyperlink ref="F96" r:id="rId3" location="/zh-cn/react-native-sound" display="链接"/>
-    <hyperlink ref="B86" r:id="rId173" display="react-native-reanimated-carousel" tooltip="https://github.com/dohooo/react-native-reanimated-carousel"/>
+    <hyperlink ref="B86" r:id="rId177" display="react-native-reanimated-carousel" tooltip="https://github.com/dohooo/react-native-reanimated-carousel"/>
     <hyperlink ref="F86" r:id="rId3" location="/zh-cn/react-native-reanimated-carousel" display="链接"/>
-    <hyperlink ref="B14" r:id="rId174" display="@react-native-community/toolbar-android" tooltip="https://github.com/react-native-toolbar-android/toolbar-android"/>
-    <hyperlink ref="E14" r:id="rId175" display="@react-native-oh-tpl/toolbar-android" tooltip="https://github.com/react-native-oh-library/toolbar-android/releases"/>
+    <hyperlink ref="B14" r:id="rId178" display="@react-native-community/toolbar-android" tooltip="https://github.com/react-native-toolbar-android/toolbar-android"/>
+    <hyperlink ref="E14" r:id="rId179" display="@react-native-oh-tpl/toolbar-android" tooltip="https://github.com/react-native-oh-library/toolbar-android/releases"/>
     <hyperlink ref="F14" r:id="rId3" location="/zh-cn/react-native-toolbar-android" display="链接"/>
-    <hyperlink ref="B110" r:id="rId176" display="react-redux" tooltip="https://github.com/reduxjs/react-redux"/>
+    <hyperlink ref="B110" r:id="rId180" display="react-redux" tooltip="https://github.com/reduxjs/react-redux"/>
     <hyperlink ref="F110" r:id="rId3" location="/zh-cn/react-redux" display="链接"/>
-    <hyperlink ref="B76" r:id="rId177" display="react-native-MJRefresh" tooltip="https://github.com/react-native-studio/react-native-MJRefresh"/>
-    <hyperlink ref="E76" r:id="rId178" display="@react-native-oh-tpl/react-native-mjrefresh" tooltip="https://github.com/react-native-oh-library/react-native-MJRefresh/releases"/>
-    <hyperlink ref="E92" r:id="rId179" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
+    <hyperlink ref="B76" r:id="rId181" display="react-native-MJRefresh" tooltip="https://github.com/react-native-studio/react-native-MJRefresh"/>
+    <hyperlink ref="E76" r:id="rId182" display="@react-native-oh-tpl/react-native-mjrefresh" tooltip="https://github.com/react-native-oh-library/react-native-MJRefresh/releases"/>
+    <hyperlink ref="E92" r:id="rId183" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
     <hyperlink ref="F55" r:id="rId3" location="/zh-cn/react-native-crypto-js" display="链接"/>
     <hyperlink ref="F76" r:id="rId3" location="/zh-cn/react-native-MJRefresh" display="链接"/>
-    <hyperlink ref="F123" r:id="rId3" location="/zh-cn/react-native-sensors" display="链接"/>
+    <hyperlink ref="F123" r:id="rId184" display="链接"/>
+    <hyperlink ref="F124" r:id="rId185" display="链接"/>
+    <hyperlink ref="E124" r:id="rId186" display="@react-native-oh-tpl/react-native-sortable-list"/>
+    <hyperlink ref="B124" r:id="rId187" display="react-native-sortable-list"/>
+    <hyperlink ref="B123" r:id="rId188" display="react-native-sensors"/>
+    <hyperlink ref="E123" r:id="rId189" display="@react-native-oh-tpl/react-native-sensors"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="12820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="309">
   <si>
     <t>序号</t>
   </si>
@@ -948,6 +948,15 @@
   </si>
   <si>
     <t>@react-native-oh-tpl/react-native-sortable-list</t>
+  </si>
+  <si>
+    <t>react-native-image-sequence-2</t>
+  </si>
+  <si>
+    <t>0.9.1</t>
+  </si>
+  <si>
+    <t>@react-native-oh-tpl/react-native-image-sequence-2</t>
   </si>
 </sst>
 </file>
@@ -2158,23 +2167,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.9423076923077" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7307692307692" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.23076923076923" style="1"/>
-    <col min="5" max="5" width="51.9230769230769" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3365384615385" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.23076923076923" style="1"/>
+    <col min="1" max="1" width="13.9416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7333333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.23333333333333" style="1"/>
+    <col min="5" max="5" width="51.925" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.23333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.75" spans="1:6">
+    <row r="1" ht="41.25" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.75" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2214,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="17.75" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2234,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="17.75" spans="1:6">
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="17.75" spans="1:6">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="17.75" spans="1:6">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="17.75" spans="1:6">
+    <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="17.75" spans="1:6">
+    <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="17.75" spans="1:6">
+    <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="17.75" spans="1:6">
+    <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="17.75" spans="1:6">
+    <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="17.75" spans="1:6">
+    <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="17.75" spans="1:6">
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="17.75" spans="1:6">
+    <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="17.75" spans="1:6">
+    <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="17.75" spans="1:6">
+    <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="17.75" spans="1:6">
+    <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="17.75" spans="1:6">
+    <row r="18" ht="14.25" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="17.75" spans="1:6">
+    <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2554,7 +2563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="17.75" spans="1:6">
+    <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="17.75" spans="1:6">
+    <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2594,7 +2603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="17.75" spans="1:6">
+    <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="17.75" spans="1:6">
+    <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2634,7 +2643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="17.75" spans="1:6">
+    <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2654,7 +2663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="17.75" spans="1:6">
+    <row r="25" ht="14.25" spans="1:6">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2674,7 +2683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="17.75" spans="1:6">
+    <row r="26" ht="14.25" spans="1:6">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2694,7 +2703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="17.75" spans="1:6">
+    <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2714,7 +2723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="17.75" spans="1:6">
+    <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2734,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="17.75" spans="1:6">
+    <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2754,7 +2763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="17.75" spans="1:6">
+    <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="17.75" spans="1:6">
+    <row r="31" ht="14.25" spans="1:6">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2794,7 +2803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="17.75" spans="1:6">
+    <row r="32" ht="14.25" spans="1:6">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="17.75" spans="1:6">
+    <row r="33" ht="14.25" spans="1:6">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2834,7 +2843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="17.75" spans="1:6">
+    <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2854,7 +2863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="17.75" spans="1:6">
+    <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="17.75" spans="1:6">
+    <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2894,7 +2903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="17.75" spans="1:6">
+    <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="17.75" spans="1:6">
+    <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2934,7 +2943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="17.75" spans="1:6">
+    <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="17.75" spans="1:6">
+    <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="17.75" spans="1:6">
+    <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2994,7 +3003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" ht="17.75" spans="1:6">
+    <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="17.75" spans="1:6">
+    <row r="43" ht="14.25" spans="1:6">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3034,7 +3043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" ht="17.75" spans="1:6">
+    <row r="44" ht="14.25" spans="1:6">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="17.75" spans="1:6">
+    <row r="45" ht="14.25" spans="1:6">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3074,7 +3083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" ht="17.75" spans="1:6">
+    <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="17.75" spans="1:6">
+    <row r="47" ht="14.25" spans="1:6">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3114,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="17.75" spans="1:6">
+    <row r="48" ht="14.25" spans="1:6">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="17.75" spans="1:6">
+    <row r="49" ht="27.75" spans="1:6">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" ht="17.75" spans="1:6">
+    <row r="50" ht="14.25" spans="1:6">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" ht="17.75" spans="1:6">
+    <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3194,7 +3203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" ht="17.75" spans="1:6">
+    <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3214,7 +3223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" ht="17.75" spans="1:6">
+    <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" ht="17.75" spans="1:6">
+    <row r="54" ht="14.25" spans="1:6">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" ht="17.75" spans="1:6">
+    <row r="55" ht="14.25" spans="1:6">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3274,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" ht="17.75" spans="1:6">
+    <row r="56" ht="14.25" spans="1:6">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3294,7 +3303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" ht="17.75" spans="1:6">
+    <row r="57" ht="14.25" spans="1:6">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" ht="17.75" spans="1:6">
+    <row r="58" ht="14.25" spans="1:6">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" ht="17.75" spans="1:6">
+    <row r="59" ht="14.25" spans="1:6">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3354,7 +3363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="17.75" spans="1:6">
+    <row r="60" ht="14.25" spans="1:6">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3374,7 +3383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" ht="17.75" spans="1:6">
+    <row r="61" ht="14.25" spans="1:6">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="17.75" spans="1:6">
+    <row r="62" ht="14.25" spans="1:6">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="17.75" spans="1:6">
+    <row r="63" ht="14.25" spans="1:6">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="17.75" spans="1:6">
+    <row r="64" ht="14.25" spans="1:6">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" ht="17.75" spans="1:6">
+    <row r="65" ht="14.25" spans="1:6">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3474,7 +3483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="17.75" spans="1:6">
+    <row r="66" ht="14.25" spans="1:6">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="17.75" spans="1:6">
+    <row r="67" ht="14.25" spans="1:6">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3514,7 +3523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="17.75" spans="1:6">
+    <row r="68" ht="14.25" spans="1:6">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3532,7 +3541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="17.75" spans="1:6">
+    <row r="69" ht="14.25" spans="1:6">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3552,7 +3561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" ht="17.75" spans="1:6">
+    <row r="70" ht="27.75" spans="1:6">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3572,7 +3581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="34.75" spans="1:6">
+    <row r="71" ht="27.75" spans="1:6">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" ht="34.75" spans="1:6">
+    <row r="72" ht="27.75" spans="1:6">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3612,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" ht="17.75" spans="1:6">
+    <row r="73" ht="14.25" spans="1:6">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" ht="17.75" spans="1:6">
+    <row r="74" ht="14.25" spans="1:6">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="17.75" spans="1:6">
+    <row r="75" ht="14.25" spans="1:6">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="17.75" spans="1:6">
+    <row r="76" ht="14.25" spans="1:6">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3692,7 +3701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" ht="17.75" spans="1:6">
+    <row r="77" ht="14.25" spans="1:6">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3712,7 +3721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" ht="17.75" spans="1:6">
+    <row r="78" ht="14.25" spans="1:6">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3732,7 +3741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" ht="17.75" spans="1:6">
+    <row r="79" ht="14.25" spans="1:6">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" ht="17.75" spans="1:6">
+    <row r="80" ht="14.25" spans="1:6">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3772,7 +3781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" ht="17.75" spans="1:6">
+    <row r="81" ht="14.25" spans="1:6">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3792,7 +3801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" ht="17.75" spans="1:6">
+    <row r="82" ht="14.25" spans="1:6">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" ht="17.75" spans="1:6">
+    <row r="83" ht="14.25" spans="1:6">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3832,7 +3841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" ht="17.75" spans="1:6">
+    <row r="84" ht="14.25" spans="1:6">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3852,7 +3861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" ht="17.75" spans="1:6">
+    <row r="85" ht="14.25" spans="1:6">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3872,7 +3881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" ht="17.75" spans="1:6">
+    <row r="86" ht="14.25" spans="1:6">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3892,7 +3901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" ht="17.75" spans="1:6">
+    <row r="87" ht="14.25" spans="1:6">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3912,7 +3921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" ht="17.75" spans="1:6">
+    <row r="88" ht="14.25" spans="1:6">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3932,7 +3941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="17.75" spans="1:6">
+    <row r="89" ht="14.25" spans="1:6">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3952,7 +3961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" ht="17.75" spans="1:6">
+    <row r="90" ht="14.25" spans="1:6">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3972,7 +3981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" ht="17.75" spans="1:6">
+    <row r="91" ht="14.25" spans="1:6">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" ht="17.75" spans="1:6">
+    <row r="92" ht="27.75" spans="1:6">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4012,7 +4021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" ht="17.75" spans="1:6">
+    <row r="93" ht="14.25" spans="1:6">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" ht="17.75" spans="1:6">
+    <row r="94" ht="27.75" spans="1:6">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4052,7 +4061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" ht="17.75" spans="1:6">
+    <row r="95" ht="14.25" spans="1:6">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" ht="17.75" spans="1:6">
+    <row r="96" ht="14.25" spans="1:6">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4092,7 +4101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" ht="17.75" spans="1:6">
+    <row r="97" ht="14.25" spans="1:6">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" ht="17.75" spans="1:6">
+    <row r="98" ht="14.25" spans="1:6">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4132,7 +4141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" ht="17.75" spans="1:6">
+    <row r="99" ht="14.25" spans="1:6">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" ht="17.75" spans="1:6">
+    <row r="100" ht="14.25" spans="1:6">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4172,7 +4181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" ht="17.75" spans="1:6">
+    <row r="101" ht="14.25" spans="1:6">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4192,7 +4201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" ht="17.75" spans="1:6">
+    <row r="102" ht="14.25" spans="1:6">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" ht="17.75" spans="1:6">
+    <row r="103" ht="14.25" spans="1:6">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4232,7 +4241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" ht="17.75" spans="1:6">
+    <row r="104" ht="14.25" spans="1:6">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" ht="17.75" spans="1:6">
+    <row r="105" ht="14.25" spans="1:6">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4272,7 +4281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" ht="17.75" spans="1:6">
+    <row r="106" ht="14.25" spans="1:6">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" ht="17.75" spans="1:6">
+    <row r="107" ht="14.25" spans="1:6">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4312,7 +4321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" ht="17.75" spans="1:6">
+    <row r="108" ht="14.25" spans="1:6">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" ht="17.75" spans="1:6">
+    <row r="109" ht="14.25" spans="1:6">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" ht="17.75" spans="1:6">
+    <row r="110" ht="14.25" spans="1:6">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" ht="17.75" spans="1:6">
+    <row r="111" ht="14.25" spans="1:6">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4392,7 +4401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" ht="17.75" spans="1:6">
+    <row r="112" ht="14.25" spans="1:6">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="17.75" spans="1:6">
+    <row r="113" ht="14.25" spans="1:6">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4432,7 +4441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" ht="17.75" spans="1:6">
+    <row r="114" ht="14.25" spans="1:6">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4452,7 +4461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" ht="17.75" spans="1:6">
+    <row r="115" ht="14.25" spans="1:6">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" ht="17.75" spans="1:6">
+    <row r="116" ht="14.25" spans="1:6">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" ht="17.75" spans="1:6">
+    <row r="117" ht="14.25" spans="1:6">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" ht="17.75" spans="1:6">
+    <row r="118" ht="14.25" spans="1:6">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4532,7 +4541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" ht="17.75" spans="1:6">
+    <row r="119" ht="14.25" spans="1:6">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" ht="17.75" spans="1:6">
+    <row r="120" ht="14.25" spans="1:6">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4572,7 +4581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" ht="17.75" spans="1:6">
+    <row r="121" ht="14.25" spans="1:6">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" ht="17.75" spans="1:6">
+    <row r="122" ht="14.25" spans="1:6">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" ht="17.75" spans="1:6">
+    <row r="123" ht="14.25" spans="1:6">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4632,7 +4641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" ht="17.75" spans="1:6">
+    <row r="124" ht="14.25" spans="1:6">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4649,6 +4658,26 @@
         <v>305</v>
       </c>
       <c r="F124" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4966,6 +4995,9 @@
     <hyperlink ref="B124" r:id="rId187" display="react-native-sortable-list"/>
     <hyperlink ref="B123" r:id="rId188" display="react-native-sensors"/>
     <hyperlink ref="E123" r:id="rId189" display="@react-native-oh-tpl/react-native-sensors"/>
+    <hyperlink ref="B125" r:id="rId190" display="react-native-image-sequence-2"/>
+    <hyperlink ref="E125" r:id="rId191" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
+    <hyperlink ref="F125" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="21000" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="313">
   <si>
     <t>序号</t>
   </si>
@@ -950,6 +950,12 @@
     <t>@react-native-oh-tpl/react-native-sortable-list</t>
   </si>
   <si>
+    <t>react-native-easy-toast</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
     <t>react-native-image-sequence-2</t>
   </si>
   <si>
@@ -957,6 +963,12 @@
   </si>
   <si>
     <t>@react-native-oh-tpl/react-native-image-sequence-2</t>
+  </si>
+  <si>
+    <t>react-native-feather</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
   </si>
 </sst>
 </file>
@@ -2167,10 +2179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4672,12 +4684,52 @@
         <v>307</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="E126" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4995,8 +5047,12 @@
     <hyperlink ref="B124" r:id="rId187" display="react-native-sortable-list"/>
     <hyperlink ref="B123" r:id="rId188" display="react-native-sensors"/>
     <hyperlink ref="E123" r:id="rId189" display="@react-native-oh-tpl/react-native-sensors"/>
-    <hyperlink ref="B125" r:id="rId190" display="react-native-image-sequence-2"/>
-    <hyperlink ref="E125" r:id="rId191" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
+    <hyperlink ref="B126" r:id="rId190" display="react-native-image-sequence-2"/>
+    <hyperlink ref="E126" r:id="rId191" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
+    <hyperlink ref="F126" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
+    <hyperlink ref="B127" r:id="rId192" display="react-native-feather"/>
+    <hyperlink ref="F127" r:id="rId3" location="/zh-cn/react-native-feather" display="链接"/>
+    <hyperlink ref="B125" r:id="rId193" display="react-native-easy-toast"/>
     <hyperlink ref="F125" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11175"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="317">
   <si>
     <t>序号</t>
   </si>
@@ -969,6 +969,18 @@
   </si>
   <si>
     <t>1.1.2</t>
+  </si>
+  <si>
+    <t>@react-navigation/native-stack</t>
+  </si>
+  <si>
+    <t>6.9.26</t>
+  </si>
+  <si>
+    <t>−</t>
+  </si>
+  <si>
+    <t>@react-native-oh-tpl/native-stack</t>
   </si>
 </sst>
 </file>
@@ -981,7 +993,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1031,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1505,128 +1523,128 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1648,10 +1666,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2179,10 +2200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4633,7 +4654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:6">
+    <row r="123" spans="1:6">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4653,7 +4674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:6">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4669,7 +4690,7 @@
       <c r="E124" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4677,7 +4698,7 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -4689,7 +4710,7 @@
       <c r="E125" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4697,7 +4718,7 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -4706,10 +4727,10 @@
       <c r="D126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4717,7 +4738,7 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -4730,6 +4751,26 @@
         <v>59</v>
       </c>
       <c r="F127" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="1:6">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5054,6 +5095,9 @@
     <hyperlink ref="F127" r:id="rId3" location="/zh-cn/react-native-feather" display="链接"/>
     <hyperlink ref="B125" r:id="rId193" display="react-native-easy-toast"/>
     <hyperlink ref="F125" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
+    <hyperlink ref="B128" r:id="rId194" display="@react-navigation/native-stack"/>
+    <hyperlink ref="E128" r:id="rId195" display="@react-native-oh-tpl/native-stack"/>
+    <hyperlink ref="F128" r:id="rId3" location="/zh-cn/react-navigation-native-stack.md" display="链接"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="337">
   <si>
     <t>序号</t>
   </si>
@@ -981,6 +981,66 @@
   </si>
   <si>
     <t>@react-native-oh-tpl/native-stack</t>
+  </si>
+  <si>
+    <t>react-native-waterfall-flow</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>react-native-vconsole</t>
+  </si>
+  <si>
+    <t>0.1.11</t>
+  </si>
+  <si>
+    <t>better-banner</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>react-native-ezswiper</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>react-native-image-header-scroll-view</t>
+  </si>
+  <si>
+    <t>0.10.3</t>
+  </si>
+  <si>
+    <t>react-native-linear-gradient-text</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>react-native-marquee-ab</t>
+  </si>
+  <si>
+    <t>2.0.0-rc.1</t>
+  </si>
+  <si>
+    <t>react-native-reconnecting-websocket</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>react-native-json-tree</t>
+  </si>
+  <si>
+    <t>react-native-image-gallery</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>@react-native-oh-tpl/react-native-image-gallery</t>
   </si>
 </sst>
 </file>
@@ -2200,10 +2260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2236,7 +2296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4654,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" ht="14.25" spans="1:6">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4674,7 +4734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" ht="14.25" spans="1:6">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4773,6 +4833,209 @@
       <c r="F128" s="8" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="129" ht="14.25" spans="1:6">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="1:6">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="1:6">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="1:6">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="1:6">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="1:6">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" spans="1:6">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" spans="1:6">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="1:6">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:6">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="2:2">
+      <c r="B139" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A2:F122">
@@ -4918,186 +5181,207 @@
     <hyperlink ref="F120" r:id="rId85" display="链接"/>
     <hyperlink ref="B121" r:id="rId86" display="styled-components" tooltip="https://github.com/styled-components/styled-components"/>
     <hyperlink ref="F121" r:id="rId87" display="链接"/>
-    <hyperlink ref="B122" r:id="rId12" display="styled-system" tooltip="https://github.com/react-native-picker/picker"/>
-    <hyperlink ref="F122" r:id="rId88" display="链接"/>
-    <hyperlink ref="B31" r:id="rId89" display="jeanregisser/react-native-slider" tooltip="https://github.com/react-native-oh-library/jeanregisser-react-native-slider"/>
+    <hyperlink ref="B122" r:id="rId88" display="styled-system" tooltip="https://github.com/react-native-picker/picker"/>
+    <hyperlink ref="F122" r:id="rId89" display="链接"/>
+    <hyperlink ref="B31" r:id="rId90" display="jeanregisser/react-native-slider" tooltip="https://github.com/react-native-oh-library/jeanregisser-react-native-slider"/>
     <hyperlink ref="F31" r:id="rId3" location="/zh-cn/jeanregisser-react-native-slider" display="链接"/>
     <hyperlink ref="B34" r:id="rId53" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
     <hyperlink ref="F34" r:id="rId3" location="/zh-cn/js-beautify" display="链接"/>
-    <hyperlink ref="B50" r:id="rId90" display="react-native-base64" tooltip="https://github.com/eranbo/react-native-base64"/>
+    <hyperlink ref="B50" r:id="rId91" display="react-native-base64" tooltip="https://github.com/eranbo/react-native-base64"/>
     <hyperlink ref="F50" r:id="rId3" location="/zh-cn/react-native-base64" display="链接"/>
-    <hyperlink ref="B53" r:id="rId91" display="react-native-check-box" tooltip="https://github.com/crazycodeboy/react-native-check-box"/>
+    <hyperlink ref="B53" r:id="rId92" display="react-native-check-box" tooltip="https://github.com/crazycodeboy/react-native-check-box"/>
     <hyperlink ref="F53" r:id="rId3" location="/zh-cn/react-native-check-box" display="链接"/>
-    <hyperlink ref="B5" r:id="rId92" display="@react-native-community/blur" tooltip="https://github.com/Kureev/react-native-blur"/>
-    <hyperlink ref="E5" r:id="rId93" display="@react-native-oh-tpl/blur Releases" tooltip="https://github.com/react-native-oh-library/react-native-blur/releases"/>
+    <hyperlink ref="B5" r:id="rId93" display="@react-native-community/blur" tooltip="https://github.com/Kureev/react-native-blur"/>
+    <hyperlink ref="E5" r:id="rId94" display="@react-native-oh-tpl/blur Releases" tooltip="https://github.com/react-native-oh-library/react-native-blur/releases"/>
     <hyperlink ref="F5" r:id="rId3" location="/zh-cn/react-native-community-blur" display="链接"/>
-    <hyperlink ref="B12" r:id="rId94" display="@react-native-community/push-notification-ios" tooltip="https://github.com/react-native-push-notification/ios"/>
-    <hyperlink ref="E12" r:id="rId95" display="@react-native-oh-tpl/push-notification-ios" tooltip="https://github.com/react-native-oh-library/react-native-push-notification-ios/releases"/>
+    <hyperlink ref="B12" r:id="rId95" display="@react-native-community/push-notification-ios" tooltip="https://github.com/react-native-push-notification/ios"/>
+    <hyperlink ref="E12" r:id="rId96" display="@react-native-oh-tpl/push-notification-ios" tooltip="https://github.com/react-native-oh-library/react-native-push-notification-ios/releases"/>
     <hyperlink ref="F12" r:id="rId3" location="/zh-cn/react-native-community-push-notification-ios" display="链接"/>
-    <hyperlink ref="B15" r:id="rId96" display="@react-native-cookies/cookies" tooltip="https://github.com/react-native-cookies/cookies"/>
-    <hyperlink ref="E15" r:id="rId97" display="@react-native-oh-tpl/cookies" tooltip="https://github.com/react-native-oh-library/react-native-cookies/releases"/>
+    <hyperlink ref="B15" r:id="rId97" display="@react-native-cookies/cookies" tooltip="https://github.com/react-native-cookies/cookies"/>
+    <hyperlink ref="E15" r:id="rId98" display="@react-native-oh-tpl/cookies" tooltip="https://github.com/react-native-oh-library/react-native-cookies/releases"/>
     <hyperlink ref="F15" r:id="rId3" location="/zh-cn/react-native-cookies" display="链接"/>
-    <hyperlink ref="B55" r:id="rId98" display="react-native-crypto-js" tooltip="https://github.com/imchintan/react-native-crypto-js"/>
-    <hyperlink ref="B73" r:id="rId99" display="react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps"/>
-    <hyperlink ref="E73" r:id="rId100" display="@react-native-oh-tpl/react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps/releases"/>
+    <hyperlink ref="B55" r:id="rId99" display="react-native-crypto-js" tooltip="https://github.com/imchintan/react-native-crypto-js"/>
+    <hyperlink ref="B73" r:id="rId100" display="react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps"/>
+    <hyperlink ref="E73" r:id="rId101" display="@react-native-oh-tpl/react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps/releases"/>
     <hyperlink ref="F73" r:id="rId3" location="/zh-cn/react-native-maps" display="链接"/>
-    <hyperlink ref="B78" r:id="rId101" display="react-native-pdf" tooltip="https://github.com/wonday/react-native-pdf"/>
-    <hyperlink ref="E78" r:id="rId102" display="@react-native-oh-tpl/react-native-pdf" tooltip="https://github.com/react-native-oh-library/react-native-pdf/releases"/>
+    <hyperlink ref="B78" r:id="rId102" display="react-native-pdf" tooltip="https://github.com/wonday/react-native-pdf"/>
+    <hyperlink ref="E78" r:id="rId103" display="@react-native-oh-tpl/react-native-pdf" tooltip="https://github.com/react-native-oh-library/react-native-pdf/releases"/>
     <hyperlink ref="F78" r:id="rId3" location="/zh-cn/react-native-pdf" display="链接"/>
-    <hyperlink ref="B88" r:id="rId103" display="react-native-redash" tooltip="https://github.com/wcandillon/react-native-redash/"/>
+    <hyperlink ref="B88" r:id="rId104" display="react-native-redash" tooltip="https://github.com/wcandillon/react-native-redash/"/>
     <hyperlink ref="F88" r:id="rId3" location="/zh-cn/react-native-redash" display="链接"/>
-    <hyperlink ref="B95" r:id="rId104" display="react-native-snap-carousel" tooltip="https://github.com/meliorence/react-native-snap-carousel"/>
-    <hyperlink ref="E95" r:id="rId105" display="@react-native-oh-tpl/react-native-snap-carousel" tooltip="https://github.com/react-native-oh-library/react-native-snap-carousel/releases"/>
+    <hyperlink ref="B95" r:id="rId105" display="react-native-snap-carousel" tooltip="https://github.com/meliorence/react-native-snap-carousel"/>
+    <hyperlink ref="E95" r:id="rId106" display="@react-native-oh-tpl/react-native-snap-carousel" tooltip="https://github.com/react-native-oh-library/react-native-snap-carousel/releases"/>
     <hyperlink ref="F95" r:id="rId3" location="/zh-cn/react-native-snap-carousel" display="链接"/>
-    <hyperlink ref="B103" r:id="rId106" display="react-native-transitiongroup" tooltip="https://github.com/madsleejensen/react-native-transitiongroup"/>
-    <hyperlink ref="E103" r:id="rId107" display="@react-native-oh-tpl/react-native-transitiongroup" tooltip="https://github.com/react-native-oh-library/react-native-transitiongroup/releases"/>
+    <hyperlink ref="B103" r:id="rId107" display="react-native-transitiongroup" tooltip="https://github.com/madsleejensen/react-native-transitiongroup"/>
+    <hyperlink ref="E103" r:id="rId108" display="@react-native-oh-tpl/react-native-transitiongroup" tooltip="https://github.com/react-native-oh-library/react-native-transitiongroup/releases"/>
     <hyperlink ref="F103" r:id="rId3" location="/zh-cn/react-native-transitiongroup" display="链接"/>
-    <hyperlink ref="B104" r:id="rId108" display="react-native-translucent-modal" tooltip="https://github.com/23mf/react-native-translucent-modal"/>
-    <hyperlink ref="E104" r:id="rId109" display="@react-native-oh-tpl/react-native-translucent-modal" tooltip="https://github.com/react-native-oh-library/react-native-translucent-modal/releases"/>
+    <hyperlink ref="B104" r:id="rId109" display="react-native-translucent-modal" tooltip="https://github.com/23mf/react-native-translucent-modal"/>
+    <hyperlink ref="E104" r:id="rId110" display="@react-native-oh-tpl/react-native-translucent-modal" tooltip="https://github.com/react-native-oh-library/react-native-translucent-modal/releases"/>
     <hyperlink ref="F104" r:id="rId3" location="/zh-cn/react-native-translucent-modal" display="链接"/>
-    <hyperlink ref="B114" r:id="rId110" display="redux" tooltip="https://github.com/reduxjs/redux"/>
+    <hyperlink ref="B114" r:id="rId111" display="redux" tooltip="https://github.com/reduxjs/redux"/>
     <hyperlink ref="F114" r:id="rId3" location="/zh-cn/redux" display="链接"/>
-    <hyperlink ref="B116" r:id="rId111" display="redux-logger" tooltip="https://github.com/LogRocket/redux-logger"/>
+    <hyperlink ref="B116" r:id="rId112" display="redux-logger" tooltip="https://github.com/LogRocket/redux-logger"/>
     <hyperlink ref="F116" r:id="rId3" location="/zh-cn/redux-logger" display="链接"/>
-    <hyperlink ref="B117" r:id="rId112" display="redux-persist" tooltip="https://github.com/rt2zz/redux-persist"/>
+    <hyperlink ref="B117" r:id="rId113" display="redux-persist" tooltip="https://github.com/rt2zz/redux-persist"/>
     <hyperlink ref="F117" r:id="rId3" location="/zh-cn/redux-persist" display="链接"/>
-    <hyperlink ref="B24" r:id="rId113" display="axios" tooltip="https://github.com/axios/axios"/>
+    <hyperlink ref="B24" r:id="rId114" display="axios" tooltip="https://github.com/axios/axios"/>
     <hyperlink ref="F24" r:id="rId3" location="/zh-cn/axios" display="链接"/>
-    <hyperlink ref="B26" r:id="rId114" display="dayJs" tooltip="https://github.com/iamkun/dayjs?tab=readme-ov-file"/>
+    <hyperlink ref="B26" r:id="rId115" display="dayJs" tooltip="https://github.com/iamkun/dayjs?tab=readme-ov-file"/>
     <hyperlink ref="F26" r:id="rId3" location="/zh-cn/dayjs" display="链接"/>
-    <hyperlink ref="B28" r:id="rId115" display="EventBus" tooltip="https://github.com/krasimir/EventBus"/>
+    <hyperlink ref="B28" r:id="rId116" display="EventBus" tooltip="https://github.com/krasimir/EventBus"/>
     <hyperlink ref="F28" r:id="rId3" location="/zh-cn/EventBus" display="链接"/>
-    <hyperlink ref="B30" r:id="rId116" display="immer" tooltip="https://github.com/immerjs/immer"/>
+    <hyperlink ref="B30" r:id="rId117" display="immer" tooltip="https://github.com/immerjs/immer"/>
     <hyperlink ref="F30" r:id="rId3" location="/zh-cn/immer" display="链接"/>
-    <hyperlink ref="B32" r:id="rId117" display="JsBarCode" tooltip="https://github.com/lindell/JsBarcode"/>
+    <hyperlink ref="B32" r:id="rId118" display="JsBarCode" tooltip="https://github.com/lindell/JsBarcode"/>
     <hyperlink ref="F32" r:id="rId3" location="/zh-cn/jsbarcode" display="链接"/>
-    <hyperlink ref="B39" r:id="rId118" display="Moment" tooltip="https://github.com/moment/moment"/>
+    <hyperlink ref="B39" r:id="rId119" display="Moment" tooltip="https://github.com/moment/moment"/>
     <hyperlink ref="F39" r:id="rId3" location="/zh-cn/moment" display="链接"/>
-    <hyperlink ref="B42" r:id="rId119" display="qrcode-generator" tooltip="https://github.com/kazuhikoarase/qrcode-generator"/>
+    <hyperlink ref="B42" r:id="rId120" display="qrcode-generator" tooltip="https://github.com/kazuhikoarase/qrcode-generator"/>
     <hyperlink ref="F42" r:id="rId3" location="/zh-cn/qrcode-generator" display="链接"/>
-    <hyperlink ref="B43" r:id="rId120" display="react-ahooks" tooltip="https://github.com/alibaba/hooks"/>
+    <hyperlink ref="B43" r:id="rId121" display="react-ahooks" tooltip="https://github.com/alibaba/hooks"/>
     <hyperlink ref="F43" r:id="rId3" location="/zh-cn/react-ahooks" display="链接"/>
-    <hyperlink ref="B45" r:id="rId121" display="react-lifecycles-compat" tooltip="https://github.com/reactjs/react-lifecycles-compat"/>
+    <hyperlink ref="B45" r:id="rId122" display="react-lifecycles-compat" tooltip="https://github.com/reactjs/react-lifecycles-compat"/>
     <hyperlink ref="F45" r:id="rId3" location="/zh-cn/react-lifecycles-compat" display="链接"/>
-    <hyperlink ref="B47" r:id="rId122" display="react-native-animate-number" tooltip="https://github.com/wkh237/react-native-animate-number"/>
+    <hyperlink ref="B47" r:id="rId123" display="react-native-animate-number" tooltip="https://github.com/wkh237/react-native-animate-number"/>
     <hyperlink ref="F47" r:id="rId3" location="/zh-cn/react-native-animate-number" display="链接"/>
-    <hyperlink ref="B51" r:id="rId123" display="react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util"/>
-    <hyperlink ref="E51" r:id="rId124" display="@react-native-oh-tpl/react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util/releases"/>
+    <hyperlink ref="B51" r:id="rId124" display="react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util"/>
+    <hyperlink ref="E51" r:id="rId125" display="@react-native-oh-tpl/react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util/releases"/>
     <hyperlink ref="F51" r:id="rId3" location="/zh-cn/react-native-blob-util" display="链接"/>
-    <hyperlink ref="B52" r:id="rId125" display="react-native-canvas" tooltip="https://github.com/iddan/react-native-canvas"/>
+    <hyperlink ref="B52" r:id="rId126" display="react-native-canvas" tooltip="https://github.com/iddan/react-native-canvas"/>
     <hyperlink ref="F52" r:id="rId3" location="/zh-cn/react-native-canvas" display="链接"/>
-    <hyperlink ref="B54" r:id="rId126" display="react-native-confirmation-code-field" tooltip="https://github.com/retyui/react-native-confirmation-code-field"/>
+    <hyperlink ref="B54" r:id="rId127" display="react-native-confirmation-code-field" tooltip="https://github.com/retyui/react-native-confirmation-code-field"/>
     <hyperlink ref="F54" r:id="rId3" location="/zh-cn/react-native-confirmation-code-field" display="链接"/>
-    <hyperlink ref="B58" r:id="rId127" display="react-native-drawer-layout-polyfill" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
+    <hyperlink ref="B58" r:id="rId128" display="react-native-drawer-layout-polyfill" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
     <hyperlink ref="F58" r:id="rId3" location="/zh-cn/react-native-drawer-layout-polyfill" display="链接"/>
-    <hyperlink ref="B59" r:id="rId128" display="react-native-echarts-pro" tooltip="https://github.com/supervons/react-native-echarts-pro"/>
+    <hyperlink ref="B59" r:id="rId129" display="react-native-echarts-pro" tooltip="https://github.com/supervons/react-native-echarts-pro"/>
     <hyperlink ref="F59" r:id="rId3" location="/zh-cn/react-native-echarts-pro" display="链接"/>
-    <hyperlink ref="B62" r:id="rId129" display="react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image"/>
-    <hyperlink ref="E62" r:id="rId130" display="@react-native-oh-tpl/react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image/releases"/>
+    <hyperlink ref="B62" r:id="rId130" display="react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image"/>
+    <hyperlink ref="E62" r:id="rId131" display="@react-native-oh-tpl/react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image/releases"/>
     <hyperlink ref="F62" r:id="rId3" location="/zh-cn/react-native-fit-Image" display="链接"/>
-    <hyperlink ref="B65" r:id="rId131" display="react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor"/>
-    <hyperlink ref="E65" r:id="rId132" display="@react-native-oh-tpl/react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor/releases"/>
+    <hyperlink ref="B65" r:id="rId132" display="react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor"/>
+    <hyperlink ref="E65" r:id="rId133" display="@react-native-oh-tpl/react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor/releases"/>
     <hyperlink ref="F65" r:id="rId3" location="/zh-cn/react-native-image-editor" display="链接"/>
-    <hyperlink ref="B67" r:id="rId133" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer"/>
-    <hyperlink ref="E67" r:id="rId134" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer/releases"/>
+    <hyperlink ref="B67" r:id="rId134" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer"/>
+    <hyperlink ref="E67" r:id="rId135" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer/releases"/>
     <hyperlink ref="F67" r:id="rId3" location="/zh-cn/react-native-image-viewer" display="链接"/>
-    <hyperlink ref="B69" r:id="rId135" display="react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom"/>
-    <hyperlink ref="E69" r:id="rId136" display="@react-native-oh-tpl/react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom/releases"/>
+    <hyperlink ref="B69" r:id="rId136" display="react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom"/>
+    <hyperlink ref="E69" r:id="rId137" display="@react-native-oh-tpl/react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom/releases"/>
     <hyperlink ref="F69" r:id="rId3" location="/zh-cn/react-native-image-zoom" display="链接"/>
-    <hyperlink ref="B70" r:id="rId137" display="react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer"/>
-    <hyperlink ref="E70" r:id="rId138" display="@react-native-oh-tpl/react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer/releases"/>
+    <hyperlink ref="B70" r:id="rId138" display="react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer"/>
+    <hyperlink ref="E70" r:id="rId139" display="@react-native-oh-tpl/react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer/releases"/>
     <hyperlink ref="F70" r:id="rId3" location="/zh-cn/react-native-intersection-observer" display="链接"/>
-    <hyperlink ref="B68" r:id="rId139" display="react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing"/>
-    <hyperlink ref="E68" r:id="rId140" display="@react-native-oh-tpl/react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing/releases"/>
+    <hyperlink ref="B68" r:id="rId140" display="react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing"/>
+    <hyperlink ref="E68" r:id="rId141" display="@react-native-oh-tpl/react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing/releases"/>
     <hyperlink ref="F68" r:id="rId3" location="/zh-cn/react-native-image-viewing" display="链接"/>
-    <hyperlink ref="B74" r:id="rId141" display="react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig"/>
-    <hyperlink ref="E74" r:id="rId142" display="@react-native-oh-tpl/react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/releases"/>
+    <hyperlink ref="B74" r:id="rId142" display="react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig"/>
+    <hyperlink ref="E74" r:id="rId143" display="@react-native-oh-tpl/react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/releases"/>
     <hyperlink ref="F74" r:id="rId3" location="/zh-cn/react-native-markdown-display" display="链接"/>
-    <hyperlink ref="B75" r:id="rId143" display="react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee"/>
-    <hyperlink ref="E75" r:id="rId144" display="@react-native-oh-tpl/react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee/releases"/>
+    <hyperlink ref="B75" r:id="rId144" display="react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee"/>
+    <hyperlink ref="E75" r:id="rId145" display="@react-native-oh-tpl/react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee/releases"/>
     <hyperlink ref="F75" r:id="rId3" location="/zh-cn/react-native-marquee" display="链接"/>
-    <hyperlink ref="B80" r:id="rId145" display="react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view"/>
-    <hyperlink ref="E80" r:id="rId146" display="@react-native-oh-tpl/react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view/releases"/>
+    <hyperlink ref="B80" r:id="rId146" display="react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view"/>
+    <hyperlink ref="E80" r:id="rId147" display="@react-native-oh-tpl/react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view/releases"/>
     <hyperlink ref="F80" r:id="rId3" location="/zh-cn/react-native-popover-view" display="链接"/>
-    <hyperlink ref="B81" r:id="rId147" display="react-native-popup-menu" tooltip="https://github.com/instea/react-native-popup-menu"/>
+    <hyperlink ref="B81" r:id="rId148" display="react-native-popup-menu" tooltip="https://github.com/instea/react-native-popup-menu"/>
     <hyperlink ref="F81" r:id="rId3" location="/zh-cn/react-native-popup-menu" display="链接"/>
-    <hyperlink ref="B83" r:id="rId148" display="react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull"/>
-    <hyperlink ref="E83" r:id="rId149" display="@react-native-oh-tpl/react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull/releases"/>
+    <hyperlink ref="B83" r:id="rId149" display="react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull"/>
+    <hyperlink ref="E83" r:id="rId150" display="@react-native-oh-tpl/react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull/releases"/>
     <hyperlink ref="F83" r:id="rId3" location="/zh-cn/react-native-pull" display="链接"/>
-    <hyperlink ref="B87" r:id="rId150" display="react-native-reanimated-table" tooltip="https://github.com/dohooo/react-native-reanimated-table"/>
+    <hyperlink ref="B87" r:id="rId151" display="react-native-reanimated-table" tooltip="https://github.com/dohooo/react-native-reanimated-table"/>
     <hyperlink ref="F87" r:id="rId3" location="/zh-cn/react-native-reanimated-table" display="链接"/>
-    <hyperlink ref="B92" r:id="rId151" display="react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view"/>
+    <hyperlink ref="B92" r:id="rId152" display="react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view"/>
     <hyperlink ref="F92" r:id="rId3" location="/zh-cn/react-native-scrollable-tab-view" display="链接"/>
-    <hyperlink ref="B97" r:id="rId152" display="react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader"/>
-    <hyperlink ref="E97" r:id="rId153" display="@react-native-oh-tpl/react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader/releases"/>
+    <hyperlink ref="B97" r:id="rId153" display="react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader"/>
+    <hyperlink ref="E97" r:id="rId154" display="@react-native-oh-tpl/react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader/releases"/>
     <hyperlink ref="F97" r:id="rId3" location="/zh-cn/react-native-stickyheader" display="链接"/>
-    <hyperlink ref="B99" r:id="rId127" display="react-native-swipe-list-view" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
+    <hyperlink ref="B99" r:id="rId128" display="react-native-swipe-list-view" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
     <hyperlink ref="F99" r:id="rId3" location="/zh-cn/react-native-swipe-list-view" display="链接"/>
-    <hyperlink ref="B100" r:id="rId154" display="react-native-swiper" tooltip="https://github.com/leecade/react-native-swiper"/>
+    <hyperlink ref="B100" r:id="rId155" display="react-native-swiper" tooltip="https://github.com/leecade/react-native-swiper"/>
     <hyperlink ref="F100" r:id="rId3" location="/zh-cn/react-native-swiper" display="链接"/>
-    <hyperlink ref="B109" r:id="rId155" display="react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core"/>
-    <hyperlink ref="E109" r:id="rId156" display="@react-native-oh-tpl/react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core/releases"/>
+    <hyperlink ref="B109" r:id="rId156" display="react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core"/>
+    <hyperlink ref="E109" r:id="rId157" display="@react-native-oh-tpl/react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core/releases"/>
     <hyperlink ref="F109" r:id="rId3" location="/zh-cn/react-native-worklets-core" display="链接"/>
-    <hyperlink ref="B112" r:id="rId157" display="react-use" tooltip="https://github.com/zenghongtu/react-use"/>
+    <hyperlink ref="B112" r:id="rId158" display="react-use" tooltip="https://github.com/zenghongtu/react-use"/>
     <hyperlink ref="F112" r:id="rId3" location="/zh-cn/react-use" display="链接"/>
-    <hyperlink ref="B119" r:id="rId158" display="redux-toolkit" tooltip="https://github.com/reduxjs/redux-toolkit"/>
-    <hyperlink ref="F119" r:id="rId159" display="链接"/>
-    <hyperlink ref="B102" r:id="rId160" display="react-native-text-size" tooltip="https://github.com/aMarCruz/react-native-text-size"/>
-    <hyperlink ref="E102" r:id="rId161" display="@react-native-oh-tpl/react-native-text-size" tooltip="https://github.com/react-native-oh-library/react-native-text-size/releases"/>
+    <hyperlink ref="B119" r:id="rId159" display="redux-toolkit" tooltip="https://github.com/reduxjs/redux-toolkit"/>
+    <hyperlink ref="F119" r:id="rId160" display="链接"/>
+    <hyperlink ref="B102" r:id="rId161" display="react-native-text-size" tooltip="https://github.com/aMarCruz/react-native-text-size"/>
+    <hyperlink ref="E102" r:id="rId162" display="@react-native-oh-tpl/react-native-text-size" tooltip="https://github.com/react-native-oh-library/react-native-text-size/releases"/>
     <hyperlink ref="F102" r:id="rId3" location="/zh-cn/react-native-text-size" display="链接"/>
-    <hyperlink ref="B111" r:id="rId162" display="react-router-dom" tooltip="https://github.com/remix-run/react-router"/>
+    <hyperlink ref="B111" r:id="rId163" display="react-router-dom" tooltip="https://github.com/remix-run/react-router"/>
     <hyperlink ref="F111" r:id="rId3" location="/zh-cn/react-router-dom" display="链接"/>
-    <hyperlink ref="B115" r:id="rId163" display="redux-actions" tooltip="https://github.com/redux-utilities/redux-actions"/>
+    <hyperlink ref="B115" r:id="rId164" display="redux-actions" tooltip="https://github.com/redux-utilities/redux-actions"/>
     <hyperlink ref="F115" r:id="rId3" location="/zh-cn/redux-actions" display="链接"/>
-    <hyperlink ref="B118" r:id="rId164" display="redux-thunk" tooltip="https://github.com/reduxjs/redux-thunk"/>
+    <hyperlink ref="B118" r:id="rId165" display="redux-thunk" tooltip="https://github.com/reduxjs/redux-thunk"/>
     <hyperlink ref="F118" r:id="rId3" location="/zh-cn/redux-thunk" display="链接"/>
-    <hyperlink ref="B48" r:id="rId165" display="react-native-aria" tooltip="https://github.com/gluestack/react-native-aria/"/>
+    <hyperlink ref="B48" r:id="rId166" display="react-native-aria" tooltip="https://github.com/gluestack/react-native-aria/"/>
     <hyperlink ref="F48" r:id="rId3" location="/zh-cn/react-native-aria" display="链接"/>
-    <hyperlink ref="B82" r:id="rId166" display="react-native-progress" tooltip="https://github.com/oblador/react-native-progress"/>
-    <hyperlink ref="E82" r:id="rId167" display="@react-native-oh-tpl/react-native-progress" tooltip="https://github.com/react-native-oh-library/react-native-progress/releases"/>
+    <hyperlink ref="B82" r:id="rId167" display="react-native-progress" tooltip="https://github.com/oblador/react-native-progress"/>
+    <hyperlink ref="E82" r:id="rId168" display="@react-native-oh-tpl/react-native-progress" tooltip="https://github.com/react-native-oh-library/react-native-progress/releases"/>
     <hyperlink ref="F82" r:id="rId3" location="/zh-cn/react-native-progress" display="链接"/>
-    <hyperlink ref="B63" r:id="rId168" display="react-native-fs" tooltip="https://github.com/itinance/react-native-fs"/>
-    <hyperlink ref="E63" r:id="rId169" display="@react-native-oh-tpl/react-native-fs" tooltip="https://github.com/react-native-oh-library/react-native-fs/releases"/>
+    <hyperlink ref="B63" r:id="rId169" display="react-native-fs" tooltip="https://github.com/itinance/react-native-fs"/>
+    <hyperlink ref="E63" r:id="rId170" display="@react-native-oh-tpl/react-native-fs" tooltip="https://github.com/react-native-oh-library/react-native-fs/releases"/>
     <hyperlink ref="F63" r:id="rId3" location="/zh-cn/react-native-fs" display="链接"/>
-    <hyperlink ref="B71" r:id="rId170" display="react-native-keyboard-aware-scroll-view" tooltip="https://github.com/APSL/react-native-keyboard-aware-scroll-view"/>
-    <hyperlink ref="E71" r:id="rId171" display="@react-native-oh-tpl/react-native-keyboard-aware-scroll-view" tooltip="https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases"/>
+    <hyperlink ref="B71" r:id="rId171" display="react-native-keyboard-aware-scroll-view" tooltip="https://github.com/APSL/react-native-keyboard-aware-scroll-view"/>
+    <hyperlink ref="E71" r:id="rId172" display="@react-native-oh-tpl/react-native-keyboard-aware-scroll-view" tooltip="https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases"/>
     <hyperlink ref="F71" r:id="rId3" location="/zh-cn/react-native-keyboard-aware-scroll-view" display="链接"/>
-    <hyperlink ref="B79" r:id="rId172" display="react-native-permissions" tooltip="https://github.com/zoontek/react-native-permissions"/>
-    <hyperlink ref="E79" r:id="rId173" display="@react-native-oh-tpl/react-native-permissions" tooltip="https://github.com/react-native-oh-library/react-native-permissions/releases"/>
+    <hyperlink ref="B79" r:id="rId173" display="react-native-permissions" tooltip="https://github.com/zoontek/react-native-permissions"/>
+    <hyperlink ref="E79" r:id="rId174" display="@react-native-oh-tpl/react-native-permissions" tooltip="https://github.com/react-native-oh-library/react-native-permissions/releases"/>
     <hyperlink ref="F79" r:id="rId3" location="/zh-cn/react-native-permissions" display="链接"/>
-    <hyperlink ref="B57" r:id="rId174" display="react-native-drag-sort" tooltip="https://github.com/mochixuan/react-native-drag-sort"/>
+    <hyperlink ref="B57" r:id="rId175" display="react-native-drag-sort" tooltip="https://github.com/mochixuan/react-native-drag-sort"/>
     <hyperlink ref="F57" r:id="rId3" location="/zh-cn/react-native-drag-sort" display="链接"/>
-    <hyperlink ref="B96" r:id="rId175" display="react-native-sound" tooltip="https://github.com/zmxv/react-native-sound"/>
-    <hyperlink ref="E96" r:id="rId176" display="@react-native-oh-tpl/react-native-sound" tooltip="https://github.com/react-native-oh-library/react-native-sound/releases"/>
+    <hyperlink ref="B96" r:id="rId176" display="react-native-sound" tooltip="https://github.com/zmxv/react-native-sound"/>
+    <hyperlink ref="E96" r:id="rId177" display="@react-native-oh-tpl/react-native-sound" tooltip="https://github.com/react-native-oh-library/react-native-sound/releases"/>
     <hyperlink ref="F96" r:id="rId3" location="/zh-cn/react-native-sound" display="链接"/>
-    <hyperlink ref="B86" r:id="rId177" display="react-native-reanimated-carousel" tooltip="https://github.com/dohooo/react-native-reanimated-carousel"/>
+    <hyperlink ref="B86" r:id="rId178" display="react-native-reanimated-carousel" tooltip="https://github.com/dohooo/react-native-reanimated-carousel"/>
     <hyperlink ref="F86" r:id="rId3" location="/zh-cn/react-native-reanimated-carousel" display="链接"/>
-    <hyperlink ref="B14" r:id="rId178" display="@react-native-community/toolbar-android" tooltip="https://github.com/react-native-toolbar-android/toolbar-android"/>
-    <hyperlink ref="E14" r:id="rId179" display="@react-native-oh-tpl/toolbar-android" tooltip="https://github.com/react-native-oh-library/toolbar-android/releases"/>
+    <hyperlink ref="B14" r:id="rId179" display="@react-native-community/toolbar-android" tooltip="https://github.com/react-native-toolbar-android/toolbar-android"/>
+    <hyperlink ref="E14" r:id="rId180" display="@react-native-oh-tpl/toolbar-android" tooltip="https://github.com/react-native-oh-library/toolbar-android/releases"/>
     <hyperlink ref="F14" r:id="rId3" location="/zh-cn/react-native-toolbar-android" display="链接"/>
-    <hyperlink ref="B110" r:id="rId180" display="react-redux" tooltip="https://github.com/reduxjs/react-redux"/>
+    <hyperlink ref="B110" r:id="rId181" display="react-redux" tooltip="https://github.com/reduxjs/react-redux"/>
     <hyperlink ref="F110" r:id="rId3" location="/zh-cn/react-redux" display="链接"/>
-    <hyperlink ref="B76" r:id="rId181" display="react-native-MJRefresh" tooltip="https://github.com/react-native-studio/react-native-MJRefresh"/>
-    <hyperlink ref="E76" r:id="rId182" display="@react-native-oh-tpl/react-native-mjrefresh" tooltip="https://github.com/react-native-oh-library/react-native-MJRefresh/releases"/>
-    <hyperlink ref="E92" r:id="rId183" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
+    <hyperlink ref="B76" r:id="rId182" display="react-native-MJRefresh" tooltip="https://github.com/react-native-studio/react-native-MJRefresh"/>
+    <hyperlink ref="E76" r:id="rId183" display="@react-native-oh-tpl/react-native-mjrefresh" tooltip="https://github.com/react-native-oh-library/react-native-MJRefresh/releases"/>
+    <hyperlink ref="E92" r:id="rId184" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
     <hyperlink ref="F55" r:id="rId3" location="/zh-cn/react-native-crypto-js" display="链接"/>
     <hyperlink ref="F76" r:id="rId3" location="/zh-cn/react-native-MJRefresh" display="链接"/>
-    <hyperlink ref="F123" r:id="rId184" display="链接"/>
-    <hyperlink ref="F124" r:id="rId185" display="链接"/>
-    <hyperlink ref="E124" r:id="rId186" display="@react-native-oh-tpl/react-native-sortable-list"/>
-    <hyperlink ref="B124" r:id="rId187" display="react-native-sortable-list"/>
-    <hyperlink ref="B123" r:id="rId188" display="react-native-sensors"/>
-    <hyperlink ref="E123" r:id="rId189" display="@react-native-oh-tpl/react-native-sensors"/>
-    <hyperlink ref="B126" r:id="rId190" display="react-native-image-sequence-2"/>
-    <hyperlink ref="E126" r:id="rId191" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
+    <hyperlink ref="F123" r:id="rId185" display="链接"/>
+    <hyperlink ref="F124" r:id="rId186" display="链接"/>
+    <hyperlink ref="E124" r:id="rId187" display="@react-native-oh-tpl/react-native-sortable-list"/>
+    <hyperlink ref="B124" r:id="rId188" display="react-native-sortable-list"/>
+    <hyperlink ref="B123" r:id="rId189" display="react-native-sensors"/>
+    <hyperlink ref="E123" r:id="rId190" display="@react-native-oh-tpl/react-native-sensors"/>
+    <hyperlink ref="B126" r:id="rId191" display="react-native-image-sequence-2"/>
+    <hyperlink ref="E126" r:id="rId192" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
     <hyperlink ref="F126" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
-    <hyperlink ref="B127" r:id="rId192" display="react-native-feather"/>
+    <hyperlink ref="B127" r:id="rId193" display="react-native-feather"/>
     <hyperlink ref="F127" r:id="rId3" location="/zh-cn/react-native-feather" display="链接"/>
-    <hyperlink ref="B125" r:id="rId193" display="react-native-easy-toast"/>
+    <hyperlink ref="B125" r:id="rId194" display="react-native-easy-toast"/>
     <hyperlink ref="F125" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
-    <hyperlink ref="B128" r:id="rId194" display="@react-navigation/native-stack"/>
-    <hyperlink ref="E128" r:id="rId195" display="@react-native-oh-tpl/native-stack"/>
+    <hyperlink ref="B128" r:id="rId195" display="@react-navigation/native-stack"/>
+    <hyperlink ref="E128" r:id="rId196" display="@react-native-oh-tpl/native-stack"/>
     <hyperlink ref="F128" r:id="rId3" location="/zh-cn/react-navigation-native-stack.md" display="链接"/>
+    <hyperlink ref="B129" r:id="rId197" display="react-native-waterfall-flow"/>
+    <hyperlink ref="F129" r:id="rId198" display="链接"/>
+    <hyperlink ref="B130" r:id="rId199" display="react-native-vconsole"/>
+    <hyperlink ref="F130" r:id="rId200" display="链接"/>
+    <hyperlink ref="B131" r:id="rId201" display="better-banner"/>
+    <hyperlink ref="F131" r:id="rId202" display="链接"/>
+    <hyperlink ref="B132" r:id="rId203" display="react-native-ezswiper"/>
+    <hyperlink ref="F132" r:id="rId204" display="链接"/>
+    <hyperlink ref="B133" r:id="rId205" display="react-native-image-header-scroll-view"/>
+    <hyperlink ref="F133" r:id="rId206" display="链接"/>
+    <hyperlink ref="B134" r:id="rId207" display="react-native-linear-gradient-text"/>
+    <hyperlink ref="F134" r:id="rId208" display="链接"/>
+    <hyperlink ref="B135" r:id="rId209" display="react-native-marquee-ab"/>
+    <hyperlink ref="F135" r:id="rId210" display="链接"/>
+    <hyperlink ref="B136" r:id="rId211" display="react-native-reconnecting-websocket"/>
+    <hyperlink ref="F136" r:id="rId212" display="链接"/>
+    <hyperlink ref="B137" r:id="rId213" display="react-native-json-tree"/>
+    <hyperlink ref="F137" r:id="rId214" display="链接"/>
+    <hyperlink ref="B138" r:id="rId215" display="react-native-image-gallery"/>
+    <hyperlink ref="F138" r:id="rId216" display="链接"/>
+    <hyperlink ref="E138" r:id="rId217" display="@react-native-oh-tpl/react-native-image-gallery"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -2262,8 +2262,8 @@
   <sheetPr/>
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="E125" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="E126" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       <c r="E128" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4850,7 +4850,7 @@
       <c r="E129" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5044,344 +5044,344 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="@react-native-async-storage/async-storage" tooltip="https://github.com/react-native-async-storage/async-storage"/>
     <hyperlink ref="E2" r:id="rId2" display="@react-native-oh-tpl/async-storage" tooltip="https://github.com/react-native-oh-library/async-storage/releases"/>
-    <hyperlink ref="F2" r:id="rId3" location="/zh-cn/react-native-async-storage-async-storage" display="链接"/>
+    <hyperlink ref="F2" r:id="rId3" display="链接"/>
     <hyperlink ref="B4" r:id="rId4" display="@react-native-clipboard/clipboard" tooltip="https://github.com/react-native-clipboard/clipboard"/>
     <hyperlink ref="E4" r:id="rId5" display="@react-native-oh-tpl/clipboard" tooltip="https://github.com/react-native-oh-library/clipboard/releases"/>
-    <hyperlink ref="F4" r:id="rId3" location="/zh-cn/react-native-clipboard-clipboard" display="链接"/>
-    <hyperlink ref="B7" r:id="rId6" display="@react-native-community/datetimepicker" tooltip="https://github.com/react-native-datetimepicker/datetimepicker"/>
-    <hyperlink ref="E7" r:id="rId7" display="@react-native-oh-tpl/datetimepicker" tooltip="https://github.com/react-native-oh-library/datetimepicker/releases"/>
-    <hyperlink ref="F7" r:id="rId3" location="/zh-cn/react-native-community-datetimepicker" display="链接"/>
-    <hyperlink ref="B23" r:id="rId8" display="@shopify/flash-list" tooltip="https://github.com/Shopify/flash-list"/>
-    <hyperlink ref="E23" r:id="rId9" display="@react-native-oh-tpl/flash-list" tooltip="https://github.com/react-native-oh-library/flash-list/releases"/>
-    <hyperlink ref="F23" r:id="rId3" location="/zh-cn/shopify-flash-list" display="链接"/>
-    <hyperlink ref="B36" r:id="rId10" display="lottie-react-native" tooltip="https://github.com/lottie-react-native/lottie-react-native"/>
-    <hyperlink ref="E36" r:id="rId11" display="@react-native-oh-tpl/lottie-react-native" tooltip="https://github.com/react-native-oh-library/lottie-react-native/releases"/>
-    <hyperlink ref="F36" r:id="rId3" location="/zh-cn/lottie-react-native" display="链接"/>
-    <hyperlink ref="B17" r:id="rId12" display="@react-native-picker/picker" tooltip="https://github.com/react-native-picker/picker"/>
-    <hyperlink ref="E17" r:id="rId13" display="@react-native-oh-tpl/picker" tooltip="https://github.com/react-native-oh-library/picker/releases"/>
-    <hyperlink ref="F17" r:id="rId3" location="/zh-cn/react-native-picker-picker" display="链接"/>
-    <hyperlink ref="B10" r:id="rId14" display="@react-native-community/progress-bar-android" tooltip="https://github.com/react-native-progress-view/progress-bar-android"/>
-    <hyperlink ref="E10" r:id="rId15" display="@react-native-oh-tpl/progress-bar-android" tooltip="https://github.com/react-native-oh-library/progress-bar-android/releases"/>
-    <hyperlink ref="F10" r:id="rId3" location="/zh-cn/react-native-community-progress-bar-android" display="链接"/>
-    <hyperlink ref="B6" r:id="rId16" display="@react-native-community/checkbox" tooltip="https://github.com/react-native-checkbox/react-native-checkbox"/>
-    <hyperlink ref="E6" r:id="rId17" display="@react-native-oh-tpl/react-native-checkbox" tooltip="https://github.com/react-native-oh-library/react-native-checkbox/releases"/>
-    <hyperlink ref="F6" r:id="rId3" location="/zh-cn/react-native-community-checkbox" display="链接"/>
-    <hyperlink ref="B60" r:id="rId18" display="react-native-exception-handler" tooltip="https://github.com/a7ul/react-native-exception-handler"/>
-    <hyperlink ref="E60" r:id="rId19" display="@react-native-oh-tpl/react-native-exception-handler" tooltip="https://github.com/react-native-oh-library/react-native-exception-handler/releases"/>
-    <hyperlink ref="F60" r:id="rId3" location="/zh-cn/react-native-exception-handler" display="链接"/>
-    <hyperlink ref="B61" r:id="rId20" display="react-native-fast-image" tooltip="https://github.com/DylanVann/react-native-fast-image"/>
-    <hyperlink ref="E61" r:id="rId21" display="@react-native-oh-tpl/react-native-fast-image" tooltip="https://github.com/react-native-oh-library/react-native-fast-image/releases"/>
-    <hyperlink ref="F61" r:id="rId3" location="/zh-cn/react-native-fast-image" display="链接"/>
-    <hyperlink ref="B64" r:id="rId22" display="react-native-gesture-handler" tooltip="https://github.com/software-mansion/react-native-gesture-handler"/>
-    <hyperlink ref="E64" r:id="rId23" display="@react-native-oh-tpl/react-native-gesture-handler" tooltip="https://github.com/react-native-oh-library/react-native-gesture-handler/releases"/>
-    <hyperlink ref="F64" r:id="rId3" location="/zh-cn/react-native-gesture-handler" display="链接"/>
-    <hyperlink ref="B66" r:id="rId24" display="react-native-image-picker" tooltip="https://github.com/react-native-image-picker/react-native-image-picker"/>
-    <hyperlink ref="E66" r:id="rId25" display="@react-native-oh-tpl/react-native-image-picker" tooltip="https://github.com/react-native-oh-library/react-native-image-picker/releases"/>
-    <hyperlink ref="F66" r:id="rId3" location="/zh-cn/react-native-image-picker" display="链接"/>
-    <hyperlink ref="B72" r:id="rId26" display="react-native-linear-gradient" tooltip="https://github.com/react-native-linear-gradient/react-native-linear-gradient"/>
-    <hyperlink ref="E72" r:id="rId27" display="@react-native-oh-tpl/react-native-linear-gradient" tooltip="https://github.com/react-native-oh-library/react-native-linear-gradient/releases"/>
-    <hyperlink ref="F72" r:id="rId3" location="/zh-cn/react-native-linear-gradient" display="链接"/>
-    <hyperlink ref="B16" r:id="rId28" display="@react-native-masked-view/masked-view" tooltip="https://github.com/react-native-masked-view/masked-view"/>
-    <hyperlink ref="E16" r:id="rId29" display="@react-native-oh-tpl/masked-view" tooltip="https://github.com/react-native-oh-library/masked-view/releases"/>
-    <hyperlink ref="F16" r:id="rId3" location="/zh-cn/react-native-masked-view-masked-view" display="链接"/>
-    <hyperlink ref="B9" r:id="rId30" display="@react-native-community/netinfo" tooltip="https://github.com/react-native-netinfo/react-native-netinfo"/>
-    <hyperlink ref="E9" r:id="rId31" display="@react-native-oh-tpl/netinfo" tooltip="https://github.com/react-native-oh-library/react-native-netinfo/releases"/>
-    <hyperlink ref="F9" r:id="rId3" location="/zh-cn/react-native-community-netinfo" display="链接"/>
-    <hyperlink ref="B77" r:id="rId32" display="react-native-pager-view" tooltip="https://github.com/callstack/react-native-pager-view"/>
-    <hyperlink ref="E77" r:id="rId33" display="@react-native-oh-tpl/react-native-pager-view" tooltip="https://github.com/react-native-oh-library/react-native-pager-view/releases"/>
-    <hyperlink ref="F77" r:id="rId3" location="/zh-cn/react-native-pager-view" display="链接"/>
-    <hyperlink ref="B90" r:id="rId34" display="react-native-safe-area-context" tooltip="https://github.com/th3rdwave/react-native-safe-area-context"/>
-    <hyperlink ref="E90" r:id="rId35" display="@react-native-oh-tpl/react-native-safe-area-context" tooltip="https://github.com/react-native-oh-library/react-native-safe-area-context/releases"/>
-    <hyperlink ref="F90" r:id="rId3" location="/zh-cn/react-native-safe-area-context" display="链接"/>
-    <hyperlink ref="B91" r:id="rId36" display="react-native-screens" tooltip="https://github.com/software-mansion/react-native-screens"/>
-    <hyperlink ref="F91" r:id="rId3" location="/zh-cn/react-native-screens" display="链接"/>
-    <hyperlink ref="B13" r:id="rId37" display="@react-native-community/slider" tooltip="https://github.com/callstack/react-native-slider"/>
-    <hyperlink ref="E13" r:id="rId38" display="@react-native-oh-tpl/slider" tooltip="https://github.com/react-native-oh-library/react-native-slider/releases"/>
-    <hyperlink ref="F13" r:id="rId3" location="/zh-cn/react-native-community-slider" display="链接"/>
-    <hyperlink ref="B94" r:id="rId39" display="react-native-SmartRefreshLayout" tooltip="https://github.com/react-native-studio/react-native-SmartRefreshLayout"/>
-    <hyperlink ref="E94" r:id="rId40" display="@react-native-oh-tpl/react-native-SmartRefreshLayout" tooltip="https://github.com/react-native-oh-library/react-native-SmartRefreshLayout/releases"/>
-    <hyperlink ref="F94" r:id="rId3" location="/zh-cn/react-native-SmartRefreshLayout" display="链接"/>
-    <hyperlink ref="B98" r:id="rId41" display="react-native-svg" tooltip="https://github.com/software-mansion/react-native-svg"/>
-    <hyperlink ref="E98" r:id="rId42" display="@react-native-oh-tpl/react-native-svg" tooltip="https://github.com/react-native-oh-library/react-native-svg/releases"/>
-    <hyperlink ref="F98" r:id="rId3" location="/zh-cn/react-native-svg" display="链接"/>
-    <hyperlink ref="B101" r:id="rId43" display="react-native-tab-view" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/react-native-tab-view"/>
-    <hyperlink ref="E101" r:id="rId44" display="@react-native-oh-tpl/react-native-tab-view" tooltip="https://github.com/react-native-oh-library/react-navigation/releases"/>
-    <hyperlink ref="F101" r:id="rId3" location="/zh-cn/react-native-tab-view" display="链接"/>
-    <hyperlink ref="B106" r:id="rId45" display="react-native-video" tooltip="https://github.com/react-native-video/react-native-video"/>
-    <hyperlink ref="E106" r:id="rId46" display="@react-native-oh-tpl/react-native-video" tooltip="https://github.com/react-native-oh-library/react-native-video"/>
-    <hyperlink ref="F106" r:id="rId3" location="/zh-cn/react-native-video" display="链接"/>
-    <hyperlink ref="B108" r:id="rId47" display="react-native-webview" tooltip="https://github.com/react-native-webview/react-native-webview"/>
-    <hyperlink ref="E108" r:id="rId48" display="@react-native-oh-tpl/react-native-webview" tooltip="https://github.com/react-native-oh-library/react-native-webview/releases"/>
-    <hyperlink ref="F108" r:id="rId3" location="/zh-cn/react-native-webview" display="链接"/>
-    <hyperlink ref="B20" r:id="rId49" display="@react-navigation/elements" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/elements"/>
-    <hyperlink ref="E20" r:id="rId44" display="@react-native-oh-tpl/elements" tooltip="https://github.com/react-native-oh-library/react-navigation/releases"/>
-    <hyperlink ref="F20" r:id="rId3" location="/zh-cn/react-navigation-elements" display="链接"/>
-    <hyperlink ref="B25" r:id="rId50" display="crypto-js" tooltip="https://github.com/brix/crypto-js/tree/4.2.0"/>
-    <hyperlink ref="F25" r:id="rId3" location="/zh-cn/crypto-js" display="链接"/>
-    <hyperlink ref="B27" r:id="rId51" display="deepmerge" tooltip="https://github.com/TehShrike/deepmerge"/>
-    <hyperlink ref="F27" r:id="rId3" location="/zh-cn/deepmerge" display="链接"/>
-    <hyperlink ref="B29" r:id="rId52" display="htmlparser2" tooltip="https://github.com/fb55/htmlparser2"/>
-    <hyperlink ref="F29" r:id="rId3" location="/zh-cn/htmlparser2" display="链接"/>
-    <hyperlink ref="B33" r:id="rId53" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
-    <hyperlink ref="F33" r:id="rId3" location="/zh-cn/js-beautify" display="链接"/>
-    <hyperlink ref="B35" r:id="rId54" display="lodash" tooltip="https://github.com/lodash/lodash/tree/4.17.21"/>
-    <hyperlink ref="F35" r:id="rId3" location="/zh-cn/lodash" display="链接"/>
-    <hyperlink ref="B38" r:id="rId55" display="mobx-react" tooltip="https://github.com/mobxjs/mobx/tree/mobx-react@7.6.0"/>
-    <hyperlink ref="F38" r:id="rId3" location="/zh-cn/mobx-react" display="链接"/>
-    <hyperlink ref="B37" r:id="rId56" display="mobx" tooltip="https://github.com/mobxjs/mobx/tree/mobx@6.10.0"/>
-    <hyperlink ref="F37" r:id="rId3" location="/zh-cn/mobx" display="链接"/>
-    <hyperlink ref="B40" r:id="rId57" display="parse5" tooltip="https://github.com/inikulin/parse5"/>
-    <hyperlink ref="F40" r:id="rId3" location="/zh-cn/parse5" display="链接"/>
-    <hyperlink ref="B41" r:id="rId58" display="prop-types" tooltip="https://github.com/facebook/prop-types/tree/v15.8.1"/>
-    <hyperlink ref="F41" r:id="rId3" location="/zh-cn/prop-types" display="链接"/>
-    <hyperlink ref="B44" r:id="rId59" display="react-i18next" tooltip="https://github.com/i18next/react-i18next"/>
-    <hyperlink ref="F44" r:id="rId3" location="/zh-cn/react-i18next" display="链接"/>
-    <hyperlink ref="B46" r:id="rId60" display="react-native-action-button" tooltip="https://github.com/mastermoo/react-native-action-button"/>
-    <hyperlink ref="F46" r:id="rId3" location="/zh-cn/react-native-action-button" display="链接"/>
-    <hyperlink ref="B49" r:id="rId61" display="react-native-autoheight-webview" tooltip="https://github.com/react-native-oh-library/react-native-autoheight-webview"/>
-    <hyperlink ref="E49" r:id="rId62" display="@react-native-oh-tpl/react-native-autoheight-webview" tooltip="https://github.com/react-native-oh-library/react-native-autoheight-webview/releases"/>
-    <hyperlink ref="F49" r:id="rId3" location="/zh-cn/react-native-autoheight-webview" display="链接"/>
-    <hyperlink ref="B3" r:id="rId63" display="@react-native-camera-roll/camera-roll" tooltip="https://github.com/react-native-oh-library/react-native-cameraroll"/>
-    <hyperlink ref="E3" r:id="rId64" display="@react-native-oh-tpl/camera-roll" tooltip="https://github.com/react-native-oh-library/react-native-cameraroll/releases"/>
-    <hyperlink ref="F3" r:id="rId3" location="/zh-cn/react-native-cameraroll" display="链接"/>
-    <hyperlink ref="B11" r:id="rId65" display="@react-native-community/progress-view" tooltip="https://github.com/react-native-progress-view/progress-view"/>
-    <hyperlink ref="E11" r:id="rId66" display="@react-native-oh-tpl/progress-view" tooltip="https://github.com/react-native-oh-library/progress-view/releases"/>
-    <hyperlink ref="F11" r:id="rId3" location="/zh-cn/react-native-community-progress-view" display="链接"/>
-    <hyperlink ref="B18" r:id="rId67" display="@react-native-segmented-control/segmented-control" tooltip="https://github.com/react-native-segmented-control/segmented-control"/>
-    <hyperlink ref="F18" r:id="rId3" location="/zh-cn/react-native-community-segmented-control" display="链接"/>
-    <hyperlink ref="B56" r:id="rId68" display="react-native-dotenv" tooltip="https://github.com/goatandsheep/react-native-dotenv"/>
-    <hyperlink ref="F56" r:id="rId3" location="/zh-cn/react-native-dotenv" display="链接"/>
-    <hyperlink ref="B8" r:id="rId69" display="@react-native-community/geolocation" tooltip="https://github.com/michalchudziak/react-native-geolocation"/>
-    <hyperlink ref="E8" r:id="rId70" display="@react-native-oh-tpl/react-native-geolocation" tooltip="https://github.com/react-native-oh-library/react-native-geolocation/releases"/>
-    <hyperlink ref="F8" r:id="rId3" location="/zh-cn/react-native-geolocation" display="链接"/>
-    <hyperlink ref="B84" r:id="rId71" display="react-native-qrcode-svg" tooltip="https://github.com/awesomejerry/react-native-qrcode-svg"/>
-    <hyperlink ref="E84" r:id="rId72" display="@react-native-oh-tpl/react-native-qrcode-svg" tooltip="https://github.com/react-native-oh-library/react-native-qrcode-svg/releases"/>
-    <hyperlink ref="F84" r:id="rId3" location="/zh-cn/react-native-qrcode-svg" display="链接"/>
-    <hyperlink ref="B85" r:id="rId73" display="react-native-reanimated" tooltip="https://github.com/software-mansion/react-native-reanimated"/>
-    <hyperlink ref="E85" r:id="rId74" display="@react-native-oh-tpl/react-native-reanimated" tooltip="https://github.com/react-native-oh-library/react-native-reanimated/releases"/>
-    <hyperlink ref="F85" r:id="rId3" location="/zh-cn/react-native-reanimated" display="链接"/>
-    <hyperlink ref="B89" r:id="rId75" display="react-native-render-html" tooltip="https://github.com/meliorence/react-native-render-html"/>
-    <hyperlink ref="F89" r:id="rId3" location="/zh-cn/react-native-render-html" display="链接"/>
-    <hyperlink ref="B93" r:id="rId76" display="react-native-section-list-get-item-layout" tooltip="https://github.com/jsoendermann/rn-section-list-get-item-layout"/>
-    <hyperlink ref="F93" r:id="rId3" location="/zh-cn/react-native-section-list-get-item-layout" display="链接"/>
-    <hyperlink ref="B105" r:id="rId77" display="react-native-vector-icons" tooltip="https://github.com/oblador/react-native-vector-icons"/>
-    <hyperlink ref="F105" r:id="rId3" location="/zh-cn/react-native-vector-icons" display="链接"/>
-    <hyperlink ref="B107" r:id="rId78" display="react-native-view-shot" tooltip="https://github.com/gre/react-native-view-shot"/>
-    <hyperlink ref="E107" r:id="rId79" display="@react-native-oh-tpl/react-native-view-shot" tooltip="https://github.com/react-native-oh-library/react-native-view-shot/releases"/>
-    <hyperlink ref="F107" r:id="rId3" location="/zh-cn/react-native-view-shot" display="链接"/>
-    <hyperlink ref="B19" r:id="rId80" display="@react-navigation/bottom-tabs" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/bottom-tabs"/>
-    <hyperlink ref="F19" r:id="rId3" location="/zh-cn/react-navigation-bottom-tabs" display="链接"/>
-    <hyperlink ref="B21" r:id="rId81" display="@react-navigation/native" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/native"/>
-    <hyperlink ref="F21" r:id="rId3" location="/zh-cn/react-navigation-native" display="链接"/>
-    <hyperlink ref="B22" r:id="rId82" display="@react-navigation/stack" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/stack"/>
-    <hyperlink ref="F22" r:id="rId3" location="/zh-cn/react-navigation-stack" display="链接"/>
-    <hyperlink ref="B113" r:id="rId83" display="recyclerlistview" tooltip="https://github.com/Flipkart/recyclerlistview"/>
-    <hyperlink ref="F113" r:id="rId3" location="/zh-cn/recyclerListView" display="链接"/>
-    <hyperlink ref="B120" r:id="rId84" display="rn-placeholder" tooltip="https://github.com/mfrachet/rn-placeholder"/>
-    <hyperlink ref="F120" r:id="rId85" display="链接"/>
-    <hyperlink ref="B121" r:id="rId86" display="styled-components" tooltip="https://github.com/styled-components/styled-components"/>
-    <hyperlink ref="F121" r:id="rId87" display="链接"/>
-    <hyperlink ref="B122" r:id="rId88" display="styled-system" tooltip="https://github.com/react-native-picker/picker"/>
-    <hyperlink ref="F122" r:id="rId89" display="链接"/>
-    <hyperlink ref="B31" r:id="rId90" display="jeanregisser/react-native-slider" tooltip="https://github.com/react-native-oh-library/jeanregisser-react-native-slider"/>
-    <hyperlink ref="F31" r:id="rId3" location="/zh-cn/jeanregisser-react-native-slider" display="链接"/>
-    <hyperlink ref="B34" r:id="rId53" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
-    <hyperlink ref="F34" r:id="rId3" location="/zh-cn/js-beautify" display="链接"/>
-    <hyperlink ref="B50" r:id="rId91" display="react-native-base64" tooltip="https://github.com/eranbo/react-native-base64"/>
-    <hyperlink ref="F50" r:id="rId3" location="/zh-cn/react-native-base64" display="链接"/>
-    <hyperlink ref="B53" r:id="rId92" display="react-native-check-box" tooltip="https://github.com/crazycodeboy/react-native-check-box"/>
-    <hyperlink ref="F53" r:id="rId3" location="/zh-cn/react-native-check-box" display="链接"/>
-    <hyperlink ref="B5" r:id="rId93" display="@react-native-community/blur" tooltip="https://github.com/Kureev/react-native-blur"/>
-    <hyperlink ref="E5" r:id="rId94" display="@react-native-oh-tpl/blur Releases" tooltip="https://github.com/react-native-oh-library/react-native-blur/releases"/>
-    <hyperlink ref="F5" r:id="rId3" location="/zh-cn/react-native-community-blur" display="链接"/>
-    <hyperlink ref="B12" r:id="rId95" display="@react-native-community/push-notification-ios" tooltip="https://github.com/react-native-push-notification/ios"/>
-    <hyperlink ref="E12" r:id="rId96" display="@react-native-oh-tpl/push-notification-ios" tooltip="https://github.com/react-native-oh-library/react-native-push-notification-ios/releases"/>
-    <hyperlink ref="F12" r:id="rId3" location="/zh-cn/react-native-community-push-notification-ios" display="链接"/>
-    <hyperlink ref="B15" r:id="rId97" display="@react-native-cookies/cookies" tooltip="https://github.com/react-native-cookies/cookies"/>
-    <hyperlink ref="E15" r:id="rId98" display="@react-native-oh-tpl/cookies" tooltip="https://github.com/react-native-oh-library/react-native-cookies/releases"/>
-    <hyperlink ref="F15" r:id="rId3" location="/zh-cn/react-native-cookies" display="链接"/>
-    <hyperlink ref="B55" r:id="rId99" display="react-native-crypto-js" tooltip="https://github.com/imchintan/react-native-crypto-js"/>
-    <hyperlink ref="B73" r:id="rId100" display="react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps"/>
-    <hyperlink ref="E73" r:id="rId101" display="@react-native-oh-tpl/react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps/releases"/>
-    <hyperlink ref="F73" r:id="rId3" location="/zh-cn/react-native-maps" display="链接"/>
-    <hyperlink ref="B78" r:id="rId102" display="react-native-pdf" tooltip="https://github.com/wonday/react-native-pdf"/>
-    <hyperlink ref="E78" r:id="rId103" display="@react-native-oh-tpl/react-native-pdf" tooltip="https://github.com/react-native-oh-library/react-native-pdf/releases"/>
-    <hyperlink ref="F78" r:id="rId3" location="/zh-cn/react-native-pdf" display="链接"/>
-    <hyperlink ref="B88" r:id="rId104" display="react-native-redash" tooltip="https://github.com/wcandillon/react-native-redash/"/>
-    <hyperlink ref="F88" r:id="rId3" location="/zh-cn/react-native-redash" display="链接"/>
-    <hyperlink ref="B95" r:id="rId105" display="react-native-snap-carousel" tooltip="https://github.com/meliorence/react-native-snap-carousel"/>
-    <hyperlink ref="E95" r:id="rId106" display="@react-native-oh-tpl/react-native-snap-carousel" tooltip="https://github.com/react-native-oh-library/react-native-snap-carousel/releases"/>
-    <hyperlink ref="F95" r:id="rId3" location="/zh-cn/react-native-snap-carousel" display="链接"/>
-    <hyperlink ref="B103" r:id="rId107" display="react-native-transitiongroup" tooltip="https://github.com/madsleejensen/react-native-transitiongroup"/>
-    <hyperlink ref="E103" r:id="rId108" display="@react-native-oh-tpl/react-native-transitiongroup" tooltip="https://github.com/react-native-oh-library/react-native-transitiongroup/releases"/>
-    <hyperlink ref="F103" r:id="rId3" location="/zh-cn/react-native-transitiongroup" display="链接"/>
-    <hyperlink ref="B104" r:id="rId109" display="react-native-translucent-modal" tooltip="https://github.com/23mf/react-native-translucent-modal"/>
-    <hyperlink ref="E104" r:id="rId110" display="@react-native-oh-tpl/react-native-translucent-modal" tooltip="https://github.com/react-native-oh-library/react-native-translucent-modal/releases"/>
-    <hyperlink ref="F104" r:id="rId3" location="/zh-cn/react-native-translucent-modal" display="链接"/>
-    <hyperlink ref="B114" r:id="rId111" display="redux" tooltip="https://github.com/reduxjs/redux"/>
-    <hyperlink ref="F114" r:id="rId3" location="/zh-cn/redux" display="链接"/>
-    <hyperlink ref="B116" r:id="rId112" display="redux-logger" tooltip="https://github.com/LogRocket/redux-logger"/>
-    <hyperlink ref="F116" r:id="rId3" location="/zh-cn/redux-logger" display="链接"/>
-    <hyperlink ref="B117" r:id="rId113" display="redux-persist" tooltip="https://github.com/rt2zz/redux-persist"/>
-    <hyperlink ref="F117" r:id="rId3" location="/zh-cn/redux-persist" display="链接"/>
-    <hyperlink ref="B24" r:id="rId114" display="axios" tooltip="https://github.com/axios/axios"/>
-    <hyperlink ref="F24" r:id="rId3" location="/zh-cn/axios" display="链接"/>
-    <hyperlink ref="B26" r:id="rId115" display="dayJs" tooltip="https://github.com/iamkun/dayjs?tab=readme-ov-file"/>
-    <hyperlink ref="F26" r:id="rId3" location="/zh-cn/dayjs" display="链接"/>
-    <hyperlink ref="B28" r:id="rId116" display="EventBus" tooltip="https://github.com/krasimir/EventBus"/>
-    <hyperlink ref="F28" r:id="rId3" location="/zh-cn/EventBus" display="链接"/>
-    <hyperlink ref="B30" r:id="rId117" display="immer" tooltip="https://github.com/immerjs/immer"/>
-    <hyperlink ref="F30" r:id="rId3" location="/zh-cn/immer" display="链接"/>
-    <hyperlink ref="B32" r:id="rId118" display="JsBarCode" tooltip="https://github.com/lindell/JsBarcode"/>
-    <hyperlink ref="F32" r:id="rId3" location="/zh-cn/jsbarcode" display="链接"/>
-    <hyperlink ref="B39" r:id="rId119" display="Moment" tooltip="https://github.com/moment/moment"/>
-    <hyperlink ref="F39" r:id="rId3" location="/zh-cn/moment" display="链接"/>
-    <hyperlink ref="B42" r:id="rId120" display="qrcode-generator" tooltip="https://github.com/kazuhikoarase/qrcode-generator"/>
-    <hyperlink ref="F42" r:id="rId3" location="/zh-cn/qrcode-generator" display="链接"/>
-    <hyperlink ref="B43" r:id="rId121" display="react-ahooks" tooltip="https://github.com/alibaba/hooks"/>
-    <hyperlink ref="F43" r:id="rId3" location="/zh-cn/react-ahooks" display="链接"/>
-    <hyperlink ref="B45" r:id="rId122" display="react-lifecycles-compat" tooltip="https://github.com/reactjs/react-lifecycles-compat"/>
-    <hyperlink ref="F45" r:id="rId3" location="/zh-cn/react-lifecycles-compat" display="链接"/>
-    <hyperlink ref="B47" r:id="rId123" display="react-native-animate-number" tooltip="https://github.com/wkh237/react-native-animate-number"/>
-    <hyperlink ref="F47" r:id="rId3" location="/zh-cn/react-native-animate-number" display="链接"/>
-    <hyperlink ref="B51" r:id="rId124" display="react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util"/>
-    <hyperlink ref="E51" r:id="rId125" display="@react-native-oh-tpl/react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util/releases"/>
-    <hyperlink ref="F51" r:id="rId3" location="/zh-cn/react-native-blob-util" display="链接"/>
-    <hyperlink ref="B52" r:id="rId126" display="react-native-canvas" tooltip="https://github.com/iddan/react-native-canvas"/>
-    <hyperlink ref="F52" r:id="rId3" location="/zh-cn/react-native-canvas" display="链接"/>
-    <hyperlink ref="B54" r:id="rId127" display="react-native-confirmation-code-field" tooltip="https://github.com/retyui/react-native-confirmation-code-field"/>
-    <hyperlink ref="F54" r:id="rId3" location="/zh-cn/react-native-confirmation-code-field" display="链接"/>
-    <hyperlink ref="B58" r:id="rId128" display="react-native-drawer-layout-polyfill" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
-    <hyperlink ref="F58" r:id="rId3" location="/zh-cn/react-native-drawer-layout-polyfill" display="链接"/>
-    <hyperlink ref="B59" r:id="rId129" display="react-native-echarts-pro" tooltip="https://github.com/supervons/react-native-echarts-pro"/>
-    <hyperlink ref="F59" r:id="rId3" location="/zh-cn/react-native-echarts-pro" display="链接"/>
-    <hyperlink ref="B62" r:id="rId130" display="react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image"/>
-    <hyperlink ref="E62" r:id="rId131" display="@react-native-oh-tpl/react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image/releases"/>
-    <hyperlink ref="F62" r:id="rId3" location="/zh-cn/react-native-fit-Image" display="链接"/>
-    <hyperlink ref="B65" r:id="rId132" display="react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor"/>
-    <hyperlink ref="E65" r:id="rId133" display="@react-native-oh-tpl/react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor/releases"/>
-    <hyperlink ref="F65" r:id="rId3" location="/zh-cn/react-native-image-editor" display="链接"/>
-    <hyperlink ref="B67" r:id="rId134" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer"/>
-    <hyperlink ref="E67" r:id="rId135" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer/releases"/>
-    <hyperlink ref="F67" r:id="rId3" location="/zh-cn/react-native-image-viewer" display="链接"/>
-    <hyperlink ref="B69" r:id="rId136" display="react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom"/>
-    <hyperlink ref="E69" r:id="rId137" display="@react-native-oh-tpl/react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom/releases"/>
-    <hyperlink ref="F69" r:id="rId3" location="/zh-cn/react-native-image-zoom" display="链接"/>
-    <hyperlink ref="B70" r:id="rId138" display="react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer"/>
-    <hyperlink ref="E70" r:id="rId139" display="@react-native-oh-tpl/react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer/releases"/>
-    <hyperlink ref="F70" r:id="rId3" location="/zh-cn/react-native-intersection-observer" display="链接"/>
-    <hyperlink ref="B68" r:id="rId140" display="react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing"/>
-    <hyperlink ref="E68" r:id="rId141" display="@react-native-oh-tpl/react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing/releases"/>
-    <hyperlink ref="F68" r:id="rId3" location="/zh-cn/react-native-image-viewing" display="链接"/>
-    <hyperlink ref="B74" r:id="rId142" display="react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig"/>
-    <hyperlink ref="E74" r:id="rId143" display="@react-native-oh-tpl/react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/releases"/>
-    <hyperlink ref="F74" r:id="rId3" location="/zh-cn/react-native-markdown-display" display="链接"/>
-    <hyperlink ref="B75" r:id="rId144" display="react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee"/>
-    <hyperlink ref="E75" r:id="rId145" display="@react-native-oh-tpl/react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee/releases"/>
-    <hyperlink ref="F75" r:id="rId3" location="/zh-cn/react-native-marquee" display="链接"/>
-    <hyperlink ref="B80" r:id="rId146" display="react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view"/>
-    <hyperlink ref="E80" r:id="rId147" display="@react-native-oh-tpl/react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view/releases"/>
-    <hyperlink ref="F80" r:id="rId3" location="/zh-cn/react-native-popover-view" display="链接"/>
-    <hyperlink ref="B81" r:id="rId148" display="react-native-popup-menu" tooltip="https://github.com/instea/react-native-popup-menu"/>
-    <hyperlink ref="F81" r:id="rId3" location="/zh-cn/react-native-popup-menu" display="链接"/>
-    <hyperlink ref="B83" r:id="rId149" display="react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull"/>
-    <hyperlink ref="E83" r:id="rId150" display="@react-native-oh-tpl/react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull/releases"/>
-    <hyperlink ref="F83" r:id="rId3" location="/zh-cn/react-native-pull" display="链接"/>
-    <hyperlink ref="B87" r:id="rId151" display="react-native-reanimated-table" tooltip="https://github.com/dohooo/react-native-reanimated-table"/>
-    <hyperlink ref="F87" r:id="rId3" location="/zh-cn/react-native-reanimated-table" display="链接"/>
-    <hyperlink ref="B92" r:id="rId152" display="react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view"/>
-    <hyperlink ref="F92" r:id="rId3" location="/zh-cn/react-native-scrollable-tab-view" display="链接"/>
-    <hyperlink ref="B97" r:id="rId153" display="react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader"/>
-    <hyperlink ref="E97" r:id="rId154" display="@react-native-oh-tpl/react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader/releases"/>
-    <hyperlink ref="F97" r:id="rId3" location="/zh-cn/react-native-stickyheader" display="链接"/>
-    <hyperlink ref="B99" r:id="rId128" display="react-native-swipe-list-view" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
-    <hyperlink ref="F99" r:id="rId3" location="/zh-cn/react-native-swipe-list-view" display="链接"/>
-    <hyperlink ref="B100" r:id="rId155" display="react-native-swiper" tooltip="https://github.com/leecade/react-native-swiper"/>
-    <hyperlink ref="F100" r:id="rId3" location="/zh-cn/react-native-swiper" display="链接"/>
-    <hyperlink ref="B109" r:id="rId156" display="react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core"/>
-    <hyperlink ref="E109" r:id="rId157" display="@react-native-oh-tpl/react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core/releases"/>
-    <hyperlink ref="F109" r:id="rId3" location="/zh-cn/react-native-worklets-core" display="链接"/>
-    <hyperlink ref="B112" r:id="rId158" display="react-use" tooltip="https://github.com/zenghongtu/react-use"/>
-    <hyperlink ref="F112" r:id="rId3" location="/zh-cn/react-use" display="链接"/>
-    <hyperlink ref="B119" r:id="rId159" display="redux-toolkit" tooltip="https://github.com/reduxjs/redux-toolkit"/>
-    <hyperlink ref="F119" r:id="rId160" display="链接"/>
-    <hyperlink ref="B102" r:id="rId161" display="react-native-text-size" tooltip="https://github.com/aMarCruz/react-native-text-size"/>
-    <hyperlink ref="E102" r:id="rId162" display="@react-native-oh-tpl/react-native-text-size" tooltip="https://github.com/react-native-oh-library/react-native-text-size/releases"/>
-    <hyperlink ref="F102" r:id="rId3" location="/zh-cn/react-native-text-size" display="链接"/>
-    <hyperlink ref="B111" r:id="rId163" display="react-router-dom" tooltip="https://github.com/remix-run/react-router"/>
-    <hyperlink ref="F111" r:id="rId3" location="/zh-cn/react-router-dom" display="链接"/>
-    <hyperlink ref="B115" r:id="rId164" display="redux-actions" tooltip="https://github.com/redux-utilities/redux-actions"/>
-    <hyperlink ref="F115" r:id="rId3" location="/zh-cn/redux-actions" display="链接"/>
-    <hyperlink ref="B118" r:id="rId165" display="redux-thunk" tooltip="https://github.com/reduxjs/redux-thunk"/>
-    <hyperlink ref="F118" r:id="rId3" location="/zh-cn/redux-thunk" display="链接"/>
-    <hyperlink ref="B48" r:id="rId166" display="react-native-aria" tooltip="https://github.com/gluestack/react-native-aria/"/>
-    <hyperlink ref="F48" r:id="rId3" location="/zh-cn/react-native-aria" display="链接"/>
-    <hyperlink ref="B82" r:id="rId167" display="react-native-progress" tooltip="https://github.com/oblador/react-native-progress"/>
-    <hyperlink ref="E82" r:id="rId168" display="@react-native-oh-tpl/react-native-progress" tooltip="https://github.com/react-native-oh-library/react-native-progress/releases"/>
-    <hyperlink ref="F82" r:id="rId3" location="/zh-cn/react-native-progress" display="链接"/>
-    <hyperlink ref="B63" r:id="rId169" display="react-native-fs" tooltip="https://github.com/itinance/react-native-fs"/>
-    <hyperlink ref="E63" r:id="rId170" display="@react-native-oh-tpl/react-native-fs" tooltip="https://github.com/react-native-oh-library/react-native-fs/releases"/>
-    <hyperlink ref="F63" r:id="rId3" location="/zh-cn/react-native-fs" display="链接"/>
-    <hyperlink ref="B71" r:id="rId171" display="react-native-keyboard-aware-scroll-view" tooltip="https://github.com/APSL/react-native-keyboard-aware-scroll-view"/>
-    <hyperlink ref="E71" r:id="rId172" display="@react-native-oh-tpl/react-native-keyboard-aware-scroll-view" tooltip="https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases"/>
-    <hyperlink ref="F71" r:id="rId3" location="/zh-cn/react-native-keyboard-aware-scroll-view" display="链接"/>
-    <hyperlink ref="B79" r:id="rId173" display="react-native-permissions" tooltip="https://github.com/zoontek/react-native-permissions"/>
-    <hyperlink ref="E79" r:id="rId174" display="@react-native-oh-tpl/react-native-permissions" tooltip="https://github.com/react-native-oh-library/react-native-permissions/releases"/>
-    <hyperlink ref="F79" r:id="rId3" location="/zh-cn/react-native-permissions" display="链接"/>
-    <hyperlink ref="B57" r:id="rId175" display="react-native-drag-sort" tooltip="https://github.com/mochixuan/react-native-drag-sort"/>
-    <hyperlink ref="F57" r:id="rId3" location="/zh-cn/react-native-drag-sort" display="链接"/>
-    <hyperlink ref="B96" r:id="rId176" display="react-native-sound" tooltip="https://github.com/zmxv/react-native-sound"/>
-    <hyperlink ref="E96" r:id="rId177" display="@react-native-oh-tpl/react-native-sound" tooltip="https://github.com/react-native-oh-library/react-native-sound/releases"/>
-    <hyperlink ref="F96" r:id="rId3" location="/zh-cn/react-native-sound" display="链接"/>
-    <hyperlink ref="B86" r:id="rId178" display="react-native-reanimated-carousel" tooltip="https://github.com/dohooo/react-native-reanimated-carousel"/>
-    <hyperlink ref="F86" r:id="rId3" location="/zh-cn/react-native-reanimated-carousel" display="链接"/>
-    <hyperlink ref="B14" r:id="rId179" display="@react-native-community/toolbar-android" tooltip="https://github.com/react-native-toolbar-android/toolbar-android"/>
-    <hyperlink ref="E14" r:id="rId180" display="@react-native-oh-tpl/toolbar-android" tooltip="https://github.com/react-native-oh-library/toolbar-android/releases"/>
-    <hyperlink ref="F14" r:id="rId3" location="/zh-cn/react-native-toolbar-android" display="链接"/>
-    <hyperlink ref="B110" r:id="rId181" display="react-redux" tooltip="https://github.com/reduxjs/react-redux"/>
-    <hyperlink ref="F110" r:id="rId3" location="/zh-cn/react-redux" display="链接"/>
-    <hyperlink ref="B76" r:id="rId182" display="react-native-MJRefresh" tooltip="https://github.com/react-native-studio/react-native-MJRefresh"/>
-    <hyperlink ref="E76" r:id="rId183" display="@react-native-oh-tpl/react-native-mjrefresh" tooltip="https://github.com/react-native-oh-library/react-native-MJRefresh/releases"/>
-    <hyperlink ref="E92" r:id="rId184" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
-    <hyperlink ref="F55" r:id="rId3" location="/zh-cn/react-native-crypto-js" display="链接"/>
-    <hyperlink ref="F76" r:id="rId3" location="/zh-cn/react-native-MJRefresh" display="链接"/>
-    <hyperlink ref="F123" r:id="rId185" display="链接"/>
-    <hyperlink ref="F124" r:id="rId186" display="链接"/>
-    <hyperlink ref="E124" r:id="rId187" display="@react-native-oh-tpl/react-native-sortable-list"/>
-    <hyperlink ref="B124" r:id="rId188" display="react-native-sortable-list"/>
-    <hyperlink ref="B123" r:id="rId189" display="react-native-sensors"/>
-    <hyperlink ref="E123" r:id="rId190" display="@react-native-oh-tpl/react-native-sensors"/>
-    <hyperlink ref="B126" r:id="rId191" display="react-native-image-sequence-2"/>
-    <hyperlink ref="E126" r:id="rId192" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
-    <hyperlink ref="F126" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
-    <hyperlink ref="B127" r:id="rId193" display="react-native-feather"/>
-    <hyperlink ref="F127" r:id="rId3" location="/zh-cn/react-native-feather" display="链接"/>
-    <hyperlink ref="B125" r:id="rId194" display="react-native-easy-toast"/>
-    <hyperlink ref="F125" r:id="rId3" location="/zh-cn/react-native-sequence-2" display="链接"/>
-    <hyperlink ref="B128" r:id="rId195" display="@react-navigation/native-stack"/>
-    <hyperlink ref="E128" r:id="rId196" display="@react-native-oh-tpl/native-stack"/>
-    <hyperlink ref="F128" r:id="rId3" location="/zh-cn/react-navigation-native-stack.md" display="链接"/>
-    <hyperlink ref="B129" r:id="rId197" display="react-native-waterfall-flow"/>
-    <hyperlink ref="F129" r:id="rId198" display="链接"/>
-    <hyperlink ref="B130" r:id="rId199" display="react-native-vconsole"/>
-    <hyperlink ref="F130" r:id="rId200" display="链接"/>
-    <hyperlink ref="B131" r:id="rId201" display="better-banner"/>
-    <hyperlink ref="F131" r:id="rId202" display="链接"/>
-    <hyperlink ref="B132" r:id="rId203" display="react-native-ezswiper"/>
-    <hyperlink ref="F132" r:id="rId204" display="链接"/>
-    <hyperlink ref="B133" r:id="rId205" display="react-native-image-header-scroll-view"/>
-    <hyperlink ref="F133" r:id="rId206" display="链接"/>
-    <hyperlink ref="B134" r:id="rId207" display="react-native-linear-gradient-text"/>
-    <hyperlink ref="F134" r:id="rId208" display="链接"/>
-    <hyperlink ref="B135" r:id="rId209" display="react-native-marquee-ab"/>
-    <hyperlink ref="F135" r:id="rId210" display="链接"/>
-    <hyperlink ref="B136" r:id="rId211" display="react-native-reconnecting-websocket"/>
-    <hyperlink ref="F136" r:id="rId212" display="链接"/>
-    <hyperlink ref="B137" r:id="rId213" display="react-native-json-tree"/>
-    <hyperlink ref="F137" r:id="rId214" display="链接"/>
-    <hyperlink ref="B138" r:id="rId215" display="react-native-image-gallery"/>
-    <hyperlink ref="F138" r:id="rId216" display="链接"/>
-    <hyperlink ref="E138" r:id="rId217" display="@react-native-oh-tpl/react-native-image-gallery"/>
+    <hyperlink ref="F4" r:id="rId6" display="链接"/>
+    <hyperlink ref="B7" r:id="rId7" display="@react-native-community/datetimepicker" tooltip="https://github.com/react-native-datetimepicker/datetimepicker"/>
+    <hyperlink ref="E7" r:id="rId8" display="@react-native-oh-tpl/datetimepicker" tooltip="https://github.com/react-native-oh-library/datetimepicker/releases"/>
+    <hyperlink ref="F7" r:id="rId9" display="链接"/>
+    <hyperlink ref="B23" r:id="rId10" display="@shopify/flash-list" tooltip="https://github.com/Shopify/flash-list"/>
+    <hyperlink ref="E23" r:id="rId11" display="@react-native-oh-tpl/flash-list" tooltip="https://github.com/react-native-oh-library/flash-list/releases"/>
+    <hyperlink ref="F23" r:id="rId12" display="链接"/>
+    <hyperlink ref="B36" r:id="rId13" display="lottie-react-native" tooltip="https://github.com/lottie-react-native/lottie-react-native"/>
+    <hyperlink ref="E36" r:id="rId14" display="@react-native-oh-tpl/lottie-react-native" tooltip="https://github.com/react-native-oh-library/lottie-react-native/releases"/>
+    <hyperlink ref="F36" r:id="rId15" display="链接"/>
+    <hyperlink ref="B17" r:id="rId16" display="@react-native-picker/picker" tooltip="https://github.com/react-native-picker/picker"/>
+    <hyperlink ref="E17" r:id="rId17" display="@react-native-oh-tpl/picker" tooltip="https://github.com/react-native-oh-library/picker/releases"/>
+    <hyperlink ref="F17" r:id="rId18" display="链接"/>
+    <hyperlink ref="B10" r:id="rId19" display="@react-native-community/progress-bar-android" tooltip="https://github.com/react-native-progress-view/progress-bar-android"/>
+    <hyperlink ref="E10" r:id="rId20" display="@react-native-oh-tpl/progress-bar-android" tooltip="https://github.com/react-native-oh-library/progress-bar-android/releases"/>
+    <hyperlink ref="F10" r:id="rId21" display="链接"/>
+    <hyperlink ref="B6" r:id="rId22" display="@react-native-community/checkbox" tooltip="https://github.com/react-native-checkbox/react-native-checkbox"/>
+    <hyperlink ref="E6" r:id="rId23" display="@react-native-oh-tpl/react-native-checkbox" tooltip="https://github.com/react-native-oh-library/react-native-checkbox/releases"/>
+    <hyperlink ref="F6" r:id="rId24" display="链接"/>
+    <hyperlink ref="B60" r:id="rId25" display="react-native-exception-handler" tooltip="https://github.com/a7ul/react-native-exception-handler"/>
+    <hyperlink ref="E60" r:id="rId26" display="@react-native-oh-tpl/react-native-exception-handler" tooltip="https://github.com/react-native-oh-library/react-native-exception-handler/releases"/>
+    <hyperlink ref="F60" r:id="rId27" display="链接"/>
+    <hyperlink ref="B61" r:id="rId28" display="react-native-fast-image" tooltip="https://github.com/DylanVann/react-native-fast-image"/>
+    <hyperlink ref="E61" r:id="rId29" display="@react-native-oh-tpl/react-native-fast-image" tooltip="https://github.com/react-native-oh-library/react-native-fast-image/releases"/>
+    <hyperlink ref="F61" r:id="rId30" display="链接"/>
+    <hyperlink ref="B64" r:id="rId31" display="react-native-gesture-handler" tooltip="https://github.com/software-mansion/react-native-gesture-handler"/>
+    <hyperlink ref="E64" r:id="rId32" display="@react-native-oh-tpl/react-native-gesture-handler" tooltip="https://github.com/react-native-oh-library/react-native-gesture-handler/releases"/>
+    <hyperlink ref="F64" r:id="rId33" display="链接"/>
+    <hyperlink ref="B66" r:id="rId34" display="react-native-image-picker" tooltip="https://github.com/react-native-image-picker/react-native-image-picker"/>
+    <hyperlink ref="E66" r:id="rId35" display="@react-native-oh-tpl/react-native-image-picker" tooltip="https://github.com/react-native-oh-library/react-native-image-picker/releases"/>
+    <hyperlink ref="F66" r:id="rId36" display="链接"/>
+    <hyperlink ref="B72" r:id="rId37" display="react-native-linear-gradient" tooltip="https://github.com/react-native-linear-gradient/react-native-linear-gradient"/>
+    <hyperlink ref="E72" r:id="rId38" display="@react-native-oh-tpl/react-native-linear-gradient" tooltip="https://github.com/react-native-oh-library/react-native-linear-gradient/releases"/>
+    <hyperlink ref="F72" r:id="rId39" display="链接"/>
+    <hyperlink ref="B16" r:id="rId40" display="@react-native-masked-view/masked-view" tooltip="https://github.com/react-native-masked-view/masked-view"/>
+    <hyperlink ref="E16" r:id="rId41" display="@react-native-oh-tpl/masked-view" tooltip="https://github.com/react-native-oh-library/masked-view/releases"/>
+    <hyperlink ref="F16" r:id="rId42" display="链接"/>
+    <hyperlink ref="B9" r:id="rId43" display="@react-native-community/netinfo" tooltip="https://github.com/react-native-netinfo/react-native-netinfo"/>
+    <hyperlink ref="E9" r:id="rId44" display="@react-native-oh-tpl/netinfo" tooltip="https://github.com/react-native-oh-library/react-native-netinfo/releases"/>
+    <hyperlink ref="F9" r:id="rId45" display="链接"/>
+    <hyperlink ref="B77" r:id="rId46" display="react-native-pager-view" tooltip="https://github.com/callstack/react-native-pager-view"/>
+    <hyperlink ref="E77" r:id="rId47" display="@react-native-oh-tpl/react-native-pager-view" tooltip="https://github.com/react-native-oh-library/react-native-pager-view/releases"/>
+    <hyperlink ref="F77" r:id="rId48" display="链接"/>
+    <hyperlink ref="B90" r:id="rId49" display="react-native-safe-area-context" tooltip="https://github.com/th3rdwave/react-native-safe-area-context"/>
+    <hyperlink ref="E90" r:id="rId50" display="@react-native-oh-tpl/react-native-safe-area-context" tooltip="https://github.com/react-native-oh-library/react-native-safe-area-context/releases"/>
+    <hyperlink ref="F90" r:id="rId51" display="链接"/>
+    <hyperlink ref="B91" r:id="rId52" display="react-native-screens" tooltip="https://github.com/software-mansion/react-native-screens"/>
+    <hyperlink ref="F91" r:id="rId53" display="链接"/>
+    <hyperlink ref="B13" r:id="rId54" display="@react-native-community/slider" tooltip="https://github.com/callstack/react-native-slider"/>
+    <hyperlink ref="E13" r:id="rId55" display="@react-native-oh-tpl/slider" tooltip="https://github.com/react-native-oh-library/react-native-slider/releases"/>
+    <hyperlink ref="F13" r:id="rId56" display="链接"/>
+    <hyperlink ref="B94" r:id="rId57" display="react-native-SmartRefreshLayout" tooltip="https://github.com/react-native-studio/react-native-SmartRefreshLayout"/>
+    <hyperlink ref="E94" r:id="rId58" display="@react-native-oh-tpl/react-native-SmartRefreshLayout" tooltip="https://github.com/react-native-oh-library/react-native-SmartRefreshLayout/releases"/>
+    <hyperlink ref="F94" r:id="rId59" display="链接"/>
+    <hyperlink ref="B98" r:id="rId60" display="react-native-svg" tooltip="https://github.com/software-mansion/react-native-svg"/>
+    <hyperlink ref="E98" r:id="rId61" display="@react-native-oh-tpl/react-native-svg" tooltip="https://github.com/react-native-oh-library/react-native-svg/releases"/>
+    <hyperlink ref="F98" r:id="rId62" display="链接"/>
+    <hyperlink ref="B101" r:id="rId63" display="react-native-tab-view" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/react-native-tab-view"/>
+    <hyperlink ref="E101" r:id="rId64" display="@react-native-oh-tpl/react-native-tab-view" tooltip="https://github.com/react-native-oh-library/react-navigation/releases"/>
+    <hyperlink ref="F101" r:id="rId65" display="链接"/>
+    <hyperlink ref="B106" r:id="rId66" display="react-native-video" tooltip="https://github.com/react-native-video/react-native-video"/>
+    <hyperlink ref="E106" r:id="rId67" display="@react-native-oh-tpl/react-native-video" tooltip="https://github.com/react-native-oh-library/react-native-video"/>
+    <hyperlink ref="F106" r:id="rId68" display="链接"/>
+    <hyperlink ref="B108" r:id="rId69" display="react-native-webview" tooltip="https://github.com/react-native-webview/react-native-webview"/>
+    <hyperlink ref="E108" r:id="rId70" display="@react-native-oh-tpl/react-native-webview" tooltip="https://github.com/react-native-oh-library/react-native-webview/releases"/>
+    <hyperlink ref="F108" r:id="rId71" display="链接"/>
+    <hyperlink ref="B20" r:id="rId72" display="@react-navigation/elements" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/elements"/>
+    <hyperlink ref="E20" r:id="rId64" display="@react-native-oh-tpl/elements" tooltip="https://github.com/react-native-oh-library/react-navigation/releases"/>
+    <hyperlink ref="F20" r:id="rId73" display="链接"/>
+    <hyperlink ref="B25" r:id="rId74" display="crypto-js" tooltip="https://github.com/brix/crypto-js/tree/4.2.0"/>
+    <hyperlink ref="F25" r:id="rId75" display="链接"/>
+    <hyperlink ref="B27" r:id="rId76" display="deepmerge" tooltip="https://github.com/TehShrike/deepmerge"/>
+    <hyperlink ref="F27" r:id="rId77" display="链接"/>
+    <hyperlink ref="B29" r:id="rId78" display="htmlparser2" tooltip="https://github.com/fb55/htmlparser2"/>
+    <hyperlink ref="F29" r:id="rId79" display="链接"/>
+    <hyperlink ref="B33" r:id="rId80" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
+    <hyperlink ref="F33" r:id="rId81" display="链接"/>
+    <hyperlink ref="B35" r:id="rId82" display="lodash" tooltip="https://github.com/lodash/lodash/tree/4.17.21"/>
+    <hyperlink ref="F35" r:id="rId83" display="链接"/>
+    <hyperlink ref="B38" r:id="rId84" display="mobx-react" tooltip="https://github.com/mobxjs/mobx/tree/mobx-react@7.6.0"/>
+    <hyperlink ref="F38" r:id="rId85" display="链接"/>
+    <hyperlink ref="B37" r:id="rId86" display="mobx" tooltip="https://github.com/mobxjs/mobx/tree/mobx@6.10.0"/>
+    <hyperlink ref="F37" r:id="rId87" display="链接"/>
+    <hyperlink ref="B40" r:id="rId88" display="parse5" tooltip="https://github.com/inikulin/parse5"/>
+    <hyperlink ref="F40" r:id="rId89" display="链接"/>
+    <hyperlink ref="B41" r:id="rId90" display="prop-types" tooltip="https://github.com/facebook/prop-types/tree/v15.8.1"/>
+    <hyperlink ref="F41" r:id="rId91" display="链接"/>
+    <hyperlink ref="B44" r:id="rId92" display="react-i18next" tooltip="https://github.com/i18next/react-i18next"/>
+    <hyperlink ref="F44" r:id="rId93" display="链接"/>
+    <hyperlink ref="B46" r:id="rId94" display="react-native-action-button" tooltip="https://github.com/mastermoo/react-native-action-button"/>
+    <hyperlink ref="F46" r:id="rId95" display="链接"/>
+    <hyperlink ref="B49" r:id="rId96" display="react-native-autoheight-webview" tooltip="https://github.com/react-native-oh-library/react-native-autoheight-webview"/>
+    <hyperlink ref="E49" r:id="rId97" display="@react-native-oh-tpl/react-native-autoheight-webview" tooltip="https://github.com/react-native-oh-library/react-native-autoheight-webview/releases"/>
+    <hyperlink ref="F49" r:id="rId98" display="链接"/>
+    <hyperlink ref="B3" r:id="rId99" display="@react-native-camera-roll/camera-roll" tooltip="https://github.com/react-native-oh-library/react-native-cameraroll"/>
+    <hyperlink ref="E3" r:id="rId100" display="@react-native-oh-tpl/camera-roll" tooltip="https://github.com/react-native-oh-library/react-native-cameraroll/releases"/>
+    <hyperlink ref="F3" r:id="rId101" display="链接"/>
+    <hyperlink ref="B11" r:id="rId102" display="@react-native-community/progress-view" tooltip="https://github.com/react-native-progress-view/progress-view"/>
+    <hyperlink ref="E11" r:id="rId103" display="@react-native-oh-tpl/progress-view" tooltip="https://github.com/react-native-oh-library/progress-view/releases"/>
+    <hyperlink ref="F11" r:id="rId104" display="链接"/>
+    <hyperlink ref="B18" r:id="rId105" display="@react-native-segmented-control/segmented-control" tooltip="https://github.com/react-native-segmented-control/segmented-control"/>
+    <hyperlink ref="F18" r:id="rId106" display="链接"/>
+    <hyperlink ref="B56" r:id="rId107" display="react-native-dotenv" tooltip="https://github.com/goatandsheep/react-native-dotenv"/>
+    <hyperlink ref="F56" r:id="rId108" display="链接"/>
+    <hyperlink ref="B8" r:id="rId109" display="@react-native-community/geolocation" tooltip="https://github.com/michalchudziak/react-native-geolocation"/>
+    <hyperlink ref="E8" r:id="rId110" display="@react-native-oh-tpl/react-native-geolocation" tooltip="https://github.com/react-native-oh-library/react-native-geolocation/releases"/>
+    <hyperlink ref="F8" r:id="rId111" display="链接"/>
+    <hyperlink ref="B84" r:id="rId112" display="react-native-qrcode-svg" tooltip="https://github.com/awesomejerry/react-native-qrcode-svg"/>
+    <hyperlink ref="E84" r:id="rId113" display="@react-native-oh-tpl/react-native-qrcode-svg" tooltip="https://github.com/react-native-oh-library/react-native-qrcode-svg/releases"/>
+    <hyperlink ref="F84" r:id="rId114" display="链接"/>
+    <hyperlink ref="B85" r:id="rId115" display="react-native-reanimated" tooltip="https://github.com/software-mansion/react-native-reanimated"/>
+    <hyperlink ref="E85" r:id="rId116" display="@react-native-oh-tpl/react-native-reanimated" tooltip="https://github.com/react-native-oh-library/react-native-reanimated/releases"/>
+    <hyperlink ref="F85" r:id="rId117" display="链接"/>
+    <hyperlink ref="B89" r:id="rId118" display="react-native-render-html" tooltip="https://github.com/meliorence/react-native-render-html"/>
+    <hyperlink ref="F89" r:id="rId119" display="链接"/>
+    <hyperlink ref="B93" r:id="rId120" display="react-native-section-list-get-item-layout" tooltip="https://github.com/jsoendermann/rn-section-list-get-item-layout"/>
+    <hyperlink ref="F93" r:id="rId121" display="链接"/>
+    <hyperlink ref="B105" r:id="rId122" display="react-native-vector-icons" tooltip="https://github.com/oblador/react-native-vector-icons"/>
+    <hyperlink ref="F105" r:id="rId123" display="链接"/>
+    <hyperlink ref="B107" r:id="rId124" display="react-native-view-shot" tooltip="https://github.com/gre/react-native-view-shot"/>
+    <hyperlink ref="E107" r:id="rId125" display="@react-native-oh-tpl/react-native-view-shot" tooltip="https://github.com/react-native-oh-library/react-native-view-shot/releases"/>
+    <hyperlink ref="F107" r:id="rId126" display="链接"/>
+    <hyperlink ref="B19" r:id="rId127" display="@react-navigation/bottom-tabs" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/bottom-tabs"/>
+    <hyperlink ref="F19" r:id="rId128" display="链接"/>
+    <hyperlink ref="B21" r:id="rId129" display="@react-navigation/native" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/native"/>
+    <hyperlink ref="F21" r:id="rId130" display="链接"/>
+    <hyperlink ref="B22" r:id="rId131" display="@react-navigation/stack" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/stack"/>
+    <hyperlink ref="F22" r:id="rId132" display="链接"/>
+    <hyperlink ref="B113" r:id="rId133" display="recyclerlistview" tooltip="https://github.com/Flipkart/recyclerlistview"/>
+    <hyperlink ref="F113" r:id="rId134" display="链接"/>
+    <hyperlink ref="B120" r:id="rId135" display="rn-placeholder" tooltip="https://github.com/mfrachet/rn-placeholder"/>
+    <hyperlink ref="F120" r:id="rId136" display="链接"/>
+    <hyperlink ref="B121" r:id="rId137" display="styled-components" tooltip="https://github.com/styled-components/styled-components"/>
+    <hyperlink ref="F121" r:id="rId138" display="链接"/>
+    <hyperlink ref="B122" r:id="rId139" display="styled-system" tooltip="https://github.com/react-native-picker/picker"/>
+    <hyperlink ref="F122" r:id="rId140" display="链接"/>
+    <hyperlink ref="B31" r:id="rId141" display="jeanregisser/react-native-slider" tooltip="https://github.com/react-native-oh-library/jeanregisser-react-native-slider"/>
+    <hyperlink ref="F31" r:id="rId142" display="链接"/>
+    <hyperlink ref="B34" r:id="rId80" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
+    <hyperlink ref="F34" r:id="rId81" display="链接"/>
+    <hyperlink ref="B50" r:id="rId143" display="react-native-base64" tooltip="https://github.com/eranbo/react-native-base64"/>
+    <hyperlink ref="F50" r:id="rId144" display="链接"/>
+    <hyperlink ref="B53" r:id="rId145" display="react-native-check-box" tooltip="https://github.com/crazycodeboy/react-native-check-box"/>
+    <hyperlink ref="F53" r:id="rId146" display="链接"/>
+    <hyperlink ref="B5" r:id="rId147" display="@react-native-community/blur" tooltip="https://github.com/Kureev/react-native-blur"/>
+    <hyperlink ref="E5" r:id="rId148" display="@react-native-oh-tpl/blur Releases" tooltip="https://github.com/react-native-oh-library/react-native-blur/releases"/>
+    <hyperlink ref="F5" r:id="rId149" display="链接"/>
+    <hyperlink ref="B12" r:id="rId150" display="@react-native-community/push-notification-ios" tooltip="https://github.com/react-native-push-notification/ios"/>
+    <hyperlink ref="E12" r:id="rId151" display="@react-native-oh-tpl/push-notification-ios" tooltip="https://github.com/react-native-oh-library/react-native-push-notification-ios/releases"/>
+    <hyperlink ref="F12" r:id="rId152" display="链接"/>
+    <hyperlink ref="B15" r:id="rId153" display="@react-native-cookies/cookies" tooltip="https://github.com/react-native-cookies/cookies"/>
+    <hyperlink ref="E15" r:id="rId154" display="@react-native-oh-tpl/cookies" tooltip="https://github.com/react-native-oh-library/react-native-cookies/releases"/>
+    <hyperlink ref="F15" r:id="rId155" display="链接"/>
+    <hyperlink ref="B55" r:id="rId156" display="react-native-crypto-js" tooltip="https://github.com/imchintan/react-native-crypto-js"/>
+    <hyperlink ref="B73" r:id="rId157" display="react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps"/>
+    <hyperlink ref="E73" r:id="rId158" display="@react-native-oh-tpl/react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps/releases"/>
+    <hyperlink ref="F73" r:id="rId159" display="链接"/>
+    <hyperlink ref="B78" r:id="rId160" display="react-native-pdf" tooltip="https://github.com/wonday/react-native-pdf"/>
+    <hyperlink ref="E78" r:id="rId161" display="@react-native-oh-tpl/react-native-pdf" tooltip="https://github.com/react-native-oh-library/react-native-pdf/releases"/>
+    <hyperlink ref="F78" r:id="rId162" display="链接"/>
+    <hyperlink ref="B88" r:id="rId163" display="react-native-redash" tooltip="https://github.com/wcandillon/react-native-redash/"/>
+    <hyperlink ref="F88" r:id="rId164" display="链接"/>
+    <hyperlink ref="B95" r:id="rId165" display="react-native-snap-carousel" tooltip="https://github.com/meliorence/react-native-snap-carousel"/>
+    <hyperlink ref="E95" r:id="rId166" display="@react-native-oh-tpl/react-native-snap-carousel" tooltip="https://github.com/react-native-oh-library/react-native-snap-carousel/releases"/>
+    <hyperlink ref="F95" r:id="rId167" display="链接"/>
+    <hyperlink ref="B103" r:id="rId168" display="react-native-transitiongroup" tooltip="https://github.com/madsleejensen/react-native-transitiongroup"/>
+    <hyperlink ref="E103" r:id="rId169" display="@react-native-oh-tpl/react-native-transitiongroup" tooltip="https://github.com/react-native-oh-library/react-native-transitiongroup/releases"/>
+    <hyperlink ref="F103" r:id="rId170" display="链接"/>
+    <hyperlink ref="B104" r:id="rId171" display="react-native-translucent-modal" tooltip="https://github.com/23mf/react-native-translucent-modal"/>
+    <hyperlink ref="E104" r:id="rId172" display="@react-native-oh-tpl/react-native-translucent-modal" tooltip="https://github.com/react-native-oh-library/react-native-translucent-modal/releases"/>
+    <hyperlink ref="F104" r:id="rId173" display="链接"/>
+    <hyperlink ref="B114" r:id="rId174" display="redux" tooltip="https://github.com/reduxjs/redux"/>
+    <hyperlink ref="F114" r:id="rId175" display="链接"/>
+    <hyperlink ref="B116" r:id="rId176" display="redux-logger" tooltip="https://github.com/LogRocket/redux-logger"/>
+    <hyperlink ref="F116" r:id="rId177" display="链接"/>
+    <hyperlink ref="B117" r:id="rId178" display="redux-persist" tooltip="https://github.com/rt2zz/redux-persist"/>
+    <hyperlink ref="F117" r:id="rId179" display="链接"/>
+    <hyperlink ref="B24" r:id="rId180" display="axios" tooltip="https://github.com/axios/axios"/>
+    <hyperlink ref="F24" r:id="rId181" display="链接"/>
+    <hyperlink ref="B26" r:id="rId182" display="dayJs" tooltip="https://github.com/iamkun/dayjs?tab=readme-ov-file"/>
+    <hyperlink ref="F26" r:id="rId183" display="链接"/>
+    <hyperlink ref="B28" r:id="rId184" display="EventBus" tooltip="https://github.com/krasimir/EventBus"/>
+    <hyperlink ref="F28" r:id="rId185" display="链接"/>
+    <hyperlink ref="B30" r:id="rId186" display="immer" tooltip="https://github.com/immerjs/immer"/>
+    <hyperlink ref="F30" r:id="rId187" display="链接"/>
+    <hyperlink ref="B32" r:id="rId188" display="JsBarCode" tooltip="https://github.com/lindell/JsBarcode"/>
+    <hyperlink ref="F32" r:id="rId189" display="链接"/>
+    <hyperlink ref="B39" r:id="rId190" display="Moment" tooltip="https://github.com/moment/moment"/>
+    <hyperlink ref="F39" r:id="rId191" display="链接"/>
+    <hyperlink ref="B42" r:id="rId192" display="qrcode-generator" tooltip="https://github.com/kazuhikoarase/qrcode-generator"/>
+    <hyperlink ref="F42" r:id="rId193" display="链接"/>
+    <hyperlink ref="B43" r:id="rId194" display="react-ahooks" tooltip="https://github.com/alibaba/hooks"/>
+    <hyperlink ref="F43" r:id="rId195" display="链接"/>
+    <hyperlink ref="B45" r:id="rId196" display="react-lifecycles-compat" tooltip="https://github.com/reactjs/react-lifecycles-compat"/>
+    <hyperlink ref="F45" r:id="rId197" display="链接"/>
+    <hyperlink ref="B47" r:id="rId198" display="react-native-animate-number" tooltip="https://github.com/wkh237/react-native-animate-number"/>
+    <hyperlink ref="F47" r:id="rId199" display="链接"/>
+    <hyperlink ref="B51" r:id="rId200" display="react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util"/>
+    <hyperlink ref="E51" r:id="rId201" display="@react-native-oh-tpl/react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util/releases"/>
+    <hyperlink ref="F51" r:id="rId202" display="链接"/>
+    <hyperlink ref="B52" r:id="rId203" display="react-native-canvas" tooltip="https://github.com/iddan/react-native-canvas"/>
+    <hyperlink ref="F52" r:id="rId204" display="链接"/>
+    <hyperlink ref="B54" r:id="rId205" display="react-native-confirmation-code-field" tooltip="https://github.com/retyui/react-native-confirmation-code-field"/>
+    <hyperlink ref="F54" r:id="rId206" display="链接"/>
+    <hyperlink ref="B58" r:id="rId207" display="react-native-drawer-layout-polyfill" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
+    <hyperlink ref="F58" r:id="rId208" display="链接"/>
+    <hyperlink ref="B59" r:id="rId209" display="react-native-echarts-pro" tooltip="https://github.com/supervons/react-native-echarts-pro"/>
+    <hyperlink ref="F59" r:id="rId210" display="链接"/>
+    <hyperlink ref="B62" r:id="rId211" display="react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image"/>
+    <hyperlink ref="E62" r:id="rId212" display="@react-native-oh-tpl/react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image/releases"/>
+    <hyperlink ref="F62" r:id="rId213" display="链接"/>
+    <hyperlink ref="B65" r:id="rId214" display="react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor"/>
+    <hyperlink ref="E65" r:id="rId215" display="@react-native-oh-tpl/react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor/releases"/>
+    <hyperlink ref="F65" r:id="rId216" display="链接"/>
+    <hyperlink ref="B67" r:id="rId217" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer"/>
+    <hyperlink ref="E67" r:id="rId218" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer/releases"/>
+    <hyperlink ref="F67" r:id="rId219" display="链接"/>
+    <hyperlink ref="B69" r:id="rId220" display="react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom"/>
+    <hyperlink ref="E69" r:id="rId221" display="@react-native-oh-tpl/react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom/releases"/>
+    <hyperlink ref="F69" r:id="rId222" display="链接"/>
+    <hyperlink ref="B70" r:id="rId223" display="react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer"/>
+    <hyperlink ref="E70" r:id="rId224" display="@react-native-oh-tpl/react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer/releases"/>
+    <hyperlink ref="F70" r:id="rId225" display="链接"/>
+    <hyperlink ref="B68" r:id="rId226" display="react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing"/>
+    <hyperlink ref="E68" r:id="rId227" display="@react-native-oh-tpl/react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing/releases"/>
+    <hyperlink ref="F68" r:id="rId228" display="链接"/>
+    <hyperlink ref="B74" r:id="rId229" display="react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig"/>
+    <hyperlink ref="E74" r:id="rId230" display="@react-native-oh-tpl/react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/releases"/>
+    <hyperlink ref="F74" r:id="rId231" display="链接"/>
+    <hyperlink ref="B75" r:id="rId232" display="react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee"/>
+    <hyperlink ref="E75" r:id="rId233" display="@react-native-oh-tpl/react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee/releases"/>
+    <hyperlink ref="F75" r:id="rId234" display="链接"/>
+    <hyperlink ref="B80" r:id="rId235" display="react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view"/>
+    <hyperlink ref="E80" r:id="rId236" display="@react-native-oh-tpl/react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view/releases"/>
+    <hyperlink ref="F80" r:id="rId237" display="链接"/>
+    <hyperlink ref="B81" r:id="rId238" display="react-native-popup-menu" tooltip="https://github.com/instea/react-native-popup-menu"/>
+    <hyperlink ref="F81" r:id="rId239" display="链接"/>
+    <hyperlink ref="B83" r:id="rId240" display="react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull"/>
+    <hyperlink ref="E83" r:id="rId241" display="@react-native-oh-tpl/react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull/releases"/>
+    <hyperlink ref="F83" r:id="rId242" display="链接"/>
+    <hyperlink ref="B87" r:id="rId243" display="react-native-reanimated-table" tooltip="https://github.com/dohooo/react-native-reanimated-table"/>
+    <hyperlink ref="F87" r:id="rId244" display="链接"/>
+    <hyperlink ref="B92" r:id="rId245" display="react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view"/>
+    <hyperlink ref="F92" r:id="rId246" display="链接"/>
+    <hyperlink ref="B97" r:id="rId247" display="react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader"/>
+    <hyperlink ref="E97" r:id="rId248" display="@react-native-oh-tpl/react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader/releases"/>
+    <hyperlink ref="F97" r:id="rId249" display="链接"/>
+    <hyperlink ref="B99" r:id="rId207" display="react-native-swipe-list-view" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
+    <hyperlink ref="F99" r:id="rId250" display="链接"/>
+    <hyperlink ref="B100" r:id="rId251" display="react-native-swiper" tooltip="https://github.com/leecade/react-native-swiper"/>
+    <hyperlink ref="F100" r:id="rId252" display="链接"/>
+    <hyperlink ref="B109" r:id="rId253" display="react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core"/>
+    <hyperlink ref="E109" r:id="rId254" display="@react-native-oh-tpl/react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core/releases"/>
+    <hyperlink ref="F109" r:id="rId255" display="链接"/>
+    <hyperlink ref="B112" r:id="rId256" display="react-use" tooltip="https://github.com/zenghongtu/react-use"/>
+    <hyperlink ref="F112" r:id="rId257" display="链接"/>
+    <hyperlink ref="B119" r:id="rId258" display="redux-toolkit" tooltip="https://github.com/reduxjs/redux-toolkit"/>
+    <hyperlink ref="F119" r:id="rId259" display="链接"/>
+    <hyperlink ref="B102" r:id="rId260" display="react-native-text-size" tooltip="https://github.com/aMarCruz/react-native-text-size"/>
+    <hyperlink ref="E102" r:id="rId261" display="@react-native-oh-tpl/react-native-text-size" tooltip="https://github.com/react-native-oh-library/react-native-text-size/releases"/>
+    <hyperlink ref="F102" r:id="rId262" display="链接"/>
+    <hyperlink ref="B111" r:id="rId263" display="react-router-dom" tooltip="https://github.com/remix-run/react-router"/>
+    <hyperlink ref="F111" r:id="rId264" display="链接"/>
+    <hyperlink ref="B115" r:id="rId265" display="redux-actions" tooltip="https://github.com/redux-utilities/redux-actions"/>
+    <hyperlink ref="F115" r:id="rId266" display="链接"/>
+    <hyperlink ref="B118" r:id="rId267" display="redux-thunk" tooltip="https://github.com/reduxjs/redux-thunk"/>
+    <hyperlink ref="F118" r:id="rId268" display="链接"/>
+    <hyperlink ref="B48" r:id="rId269" display="react-native-aria" tooltip="https://github.com/gluestack/react-native-aria/"/>
+    <hyperlink ref="F48" r:id="rId270" display="链接"/>
+    <hyperlink ref="B82" r:id="rId271" display="react-native-progress" tooltip="https://github.com/oblador/react-native-progress"/>
+    <hyperlink ref="E82" r:id="rId272" display="@react-native-oh-tpl/react-native-progress" tooltip="https://github.com/react-native-oh-library/react-native-progress/releases"/>
+    <hyperlink ref="F82" r:id="rId273" display="链接"/>
+    <hyperlink ref="B63" r:id="rId274" display="react-native-fs" tooltip="https://github.com/itinance/react-native-fs"/>
+    <hyperlink ref="E63" r:id="rId275" display="@react-native-oh-tpl/react-native-fs" tooltip="https://github.com/react-native-oh-library/react-native-fs/releases"/>
+    <hyperlink ref="F63" r:id="rId276" display="链接"/>
+    <hyperlink ref="B71" r:id="rId277" display="react-native-keyboard-aware-scroll-view" tooltip="https://github.com/APSL/react-native-keyboard-aware-scroll-view"/>
+    <hyperlink ref="E71" r:id="rId278" display="@react-native-oh-tpl/react-native-keyboard-aware-scroll-view" tooltip="https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases"/>
+    <hyperlink ref="F71" r:id="rId279" display="链接"/>
+    <hyperlink ref="B79" r:id="rId280" display="react-native-permissions" tooltip="https://github.com/zoontek/react-native-permissions"/>
+    <hyperlink ref="E79" r:id="rId281" display="@react-native-oh-tpl/react-native-permissions" tooltip="https://github.com/react-native-oh-library/react-native-permissions/releases"/>
+    <hyperlink ref="F79" r:id="rId282" display="链接"/>
+    <hyperlink ref="B57" r:id="rId283" display="react-native-drag-sort" tooltip="https://github.com/mochixuan/react-native-drag-sort"/>
+    <hyperlink ref="F57" r:id="rId284" display="链接"/>
+    <hyperlink ref="B96" r:id="rId285" display="react-native-sound" tooltip="https://github.com/zmxv/react-native-sound"/>
+    <hyperlink ref="E96" r:id="rId286" display="@react-native-oh-tpl/react-native-sound" tooltip="https://github.com/react-native-oh-library/react-native-sound/releases"/>
+    <hyperlink ref="F96" r:id="rId287" display="链接"/>
+    <hyperlink ref="B86" r:id="rId288" display="react-native-reanimated-carousel" tooltip="https://github.com/dohooo/react-native-reanimated-carousel"/>
+    <hyperlink ref="F86" r:id="rId289" display="链接"/>
+    <hyperlink ref="B14" r:id="rId290" display="@react-native-community/toolbar-android" tooltip="https://github.com/react-native-toolbar-android/toolbar-android"/>
+    <hyperlink ref="E14" r:id="rId291" display="@react-native-oh-tpl/toolbar-android" tooltip="https://github.com/react-native-oh-library/toolbar-android/releases"/>
+    <hyperlink ref="F14" r:id="rId292" display="链接"/>
+    <hyperlink ref="B110" r:id="rId293" display="react-redux" tooltip="https://github.com/reduxjs/react-redux"/>
+    <hyperlink ref="F110" r:id="rId294" display="链接"/>
+    <hyperlink ref="B76" r:id="rId295" display="react-native-MJRefresh" tooltip="https://github.com/react-native-studio/react-native-MJRefresh"/>
+    <hyperlink ref="E76" r:id="rId296" display="@react-native-oh-tpl/react-native-mjrefresh" tooltip="https://github.com/react-native-oh-library/react-native-MJRefresh/releases"/>
+    <hyperlink ref="E92" r:id="rId297" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
+    <hyperlink ref="F55" r:id="rId298" display="链接"/>
+    <hyperlink ref="F76" r:id="rId299" display="链接"/>
+    <hyperlink ref="F123" r:id="rId300" display="链接"/>
+    <hyperlink ref="F124" r:id="rId301" display="链接"/>
+    <hyperlink ref="E124" r:id="rId302" display="@react-native-oh-tpl/react-native-sortable-list"/>
+    <hyperlink ref="B124" r:id="rId303" display="react-native-sortable-list"/>
+    <hyperlink ref="B123" r:id="rId304" display="react-native-sensors"/>
+    <hyperlink ref="E123" r:id="rId305" display="@react-native-oh-tpl/react-native-sensors"/>
+    <hyperlink ref="B126" r:id="rId306" display="react-native-image-sequence-2"/>
+    <hyperlink ref="E126" r:id="rId307" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
+    <hyperlink ref="F126" r:id="rId308" display="链接"/>
+    <hyperlink ref="B127" r:id="rId309" display="react-native-feather"/>
+    <hyperlink ref="F127" r:id="rId310" display="链接"/>
+    <hyperlink ref="B125" r:id="rId311" display="react-native-easy-toast"/>
+    <hyperlink ref="F125" r:id="rId312" display="链接"/>
+    <hyperlink ref="B128" r:id="rId313" display="@react-navigation/native-stack"/>
+    <hyperlink ref="E128" r:id="rId314" display="@react-native-oh-tpl/native-stack"/>
+    <hyperlink ref="F128" r:id="rId315" display="链接"/>
+    <hyperlink ref="B129" r:id="rId316" display="react-native-waterfall-flow"/>
+    <hyperlink ref="F129" r:id="rId317" display="链接"/>
+    <hyperlink ref="B130" r:id="rId318" display="react-native-vconsole"/>
+    <hyperlink ref="F130" r:id="rId319" display="链接"/>
+    <hyperlink ref="B131" r:id="rId320" display="better-banner"/>
+    <hyperlink ref="F131" r:id="rId321" display="链接"/>
+    <hyperlink ref="B132" r:id="rId322" display="react-native-ezswiper"/>
+    <hyperlink ref="F132" r:id="rId323" display="链接"/>
+    <hyperlink ref="B133" r:id="rId324" display="react-native-image-header-scroll-view"/>
+    <hyperlink ref="F133" r:id="rId325" display="链接"/>
+    <hyperlink ref="B134" r:id="rId326" display="react-native-linear-gradient-text"/>
+    <hyperlink ref="F134" r:id="rId327" display="链接"/>
+    <hyperlink ref="B135" r:id="rId328" display="react-native-marquee-ab"/>
+    <hyperlink ref="F135" r:id="rId329" display="链接"/>
+    <hyperlink ref="B136" r:id="rId330" display="react-native-reconnecting-websocket"/>
+    <hyperlink ref="F136" r:id="rId331" display="链接"/>
+    <hyperlink ref="B137" r:id="rId332" display="react-native-json-tree"/>
+    <hyperlink ref="F137" r:id="rId333" display="链接"/>
+    <hyperlink ref="B138" r:id="rId334" display="react-native-image-gallery"/>
+    <hyperlink ref="F138" r:id="rId335" display="链接"/>
+    <hyperlink ref="E138" r:id="rId336" display="@react-native-oh-tpl/react-native-image-gallery"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="345">
   <si>
     <t>序号</t>
   </si>
@@ -983,6 +983,15 @@
     <t>@react-native-oh-tpl/native-stack</t>
   </si>
   <si>
+    <t>react-native-clippath</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>@react-native-oh-tpl/react-native-clippath</t>
+  </si>
+  <si>
     <t>react-native-waterfall-flow</t>
   </si>
   <si>
@@ -1041,6 +1050,21 @@
   </si>
   <si>
     <t>@react-native-oh-tpl/react-native-image-gallery</t>
+  </si>
+  <si>
+    <t>react-native-image-crop-picker</t>
+  </si>
+  <si>
+    <t>0.40.3</t>
+  </si>
+  <si>
+    <t>@react-native-oh-tpl/react-native-image-crop-picker</t>
+  </si>
+  <si>
+    <t>react-native-image-image-base64</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1077,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,12 +1115,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1583,128 +1601,128 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1721,18 +1739,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2260,10 +2266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4718,324 +4724,389 @@
       <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E123" s="6" t="s">
+      <c r="D123" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="124" ht="14.25" spans="1:6">
-      <c r="A124" s="1">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E124" s="7" t="s">
+      <c r="D124" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1">
+      <c r="F124" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="1:6">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1">
+      <c r="F125" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" spans="1:6">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
+      <c r="F126" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" spans="1:6">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="128" ht="14.25" spans="1:6">
-      <c r="A128" s="1">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="129" ht="14.25" spans="1:6">
-      <c r="A129" s="1">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="1:6">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E130" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F129" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" spans="1:6">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D130" s="9" t="s">
+      <c r="F130" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="1:6">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E131" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F130" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" spans="1:6">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D131" s="9" t="s">
+      <c r="F131" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="1:6">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E132" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F131" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" spans="1:6">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D132" s="9" t="s">
+      <c r="F132" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="1:6">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E133" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" spans="1:6">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="F133" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="1:6">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E134" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F133" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" spans="1:6">
-      <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="F134" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" spans="1:6">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" ht="27.75" spans="1:6">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="1:6">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:6">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D134" s="9" t="s">
+      <c r="D138" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E138" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F134" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" spans="1:6">
-      <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="F138" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="1:6">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E139" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="1:6">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="1:6">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F135" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" spans="1:6">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D136" s="9" t="s">
+      <c r="E141" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E136" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" spans="1:6">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" spans="1:6">
-      <c r="A138" s="1">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" spans="2:2">
-      <c r="B139" s="9"/>
+      <c r="F141" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="1:6">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:F122">
@@ -5361,27 +5432,35 @@
     <hyperlink ref="B128" r:id="rId313" display="@react-navigation/native-stack"/>
     <hyperlink ref="E128" r:id="rId314" display="@react-native-oh-tpl/native-stack"/>
     <hyperlink ref="F128" r:id="rId315" display="链接"/>
-    <hyperlink ref="B129" r:id="rId316" display="react-native-waterfall-flow"/>
-    <hyperlink ref="F129" r:id="rId317" display="链接"/>
-    <hyperlink ref="B130" r:id="rId318" display="react-native-vconsole"/>
-    <hyperlink ref="F130" r:id="rId319" display="链接"/>
-    <hyperlink ref="B131" r:id="rId320" display="better-banner"/>
-    <hyperlink ref="F131" r:id="rId321" display="链接"/>
-    <hyperlink ref="B132" r:id="rId322" display="react-native-ezswiper"/>
-    <hyperlink ref="F132" r:id="rId323" display="链接"/>
-    <hyperlink ref="B133" r:id="rId324" display="react-native-image-header-scroll-view"/>
-    <hyperlink ref="F133" r:id="rId325" display="链接"/>
-    <hyperlink ref="B134" r:id="rId326" display="react-native-linear-gradient-text"/>
-    <hyperlink ref="F134" r:id="rId327" display="链接"/>
-    <hyperlink ref="B135" r:id="rId328" display="react-native-marquee-ab"/>
-    <hyperlink ref="F135" r:id="rId329" display="链接"/>
-    <hyperlink ref="B136" r:id="rId330" display="react-native-reconnecting-websocket"/>
-    <hyperlink ref="F136" r:id="rId331" display="链接"/>
-    <hyperlink ref="B137" r:id="rId332" display="react-native-json-tree"/>
-    <hyperlink ref="F137" r:id="rId333" display="链接"/>
-    <hyperlink ref="B138" r:id="rId334" display="react-native-image-gallery"/>
-    <hyperlink ref="F138" r:id="rId335" display="链接"/>
-    <hyperlink ref="E138" r:id="rId336" display="@react-native-oh-tpl/react-native-image-gallery"/>
+    <hyperlink ref="B130" r:id="rId316" display="react-native-waterfall-flow"/>
+    <hyperlink ref="F130" r:id="rId317" display="链接"/>
+    <hyperlink ref="B131" r:id="rId318" display="react-native-vconsole"/>
+    <hyperlink ref="F131" r:id="rId319" display="链接"/>
+    <hyperlink ref="B132" r:id="rId320" display="better-banner"/>
+    <hyperlink ref="F132" r:id="rId321" display="链接"/>
+    <hyperlink ref="B133" r:id="rId322" display="react-native-ezswiper"/>
+    <hyperlink ref="F133" r:id="rId323" display="链接"/>
+    <hyperlink ref="B134" r:id="rId324" display="react-native-image-header-scroll-view"/>
+    <hyperlink ref="F134" r:id="rId325" display="链接"/>
+    <hyperlink ref="B135" r:id="rId326" display="react-native-linear-gradient-text"/>
+    <hyperlink ref="F135" r:id="rId327" display="链接"/>
+    <hyperlink ref="B136" r:id="rId328" display="react-native-marquee-ab"/>
+    <hyperlink ref="F136" r:id="rId329" display="链接"/>
+    <hyperlink ref="B137" r:id="rId330" display="react-native-reconnecting-websocket"/>
+    <hyperlink ref="F137" r:id="rId331" display="链接"/>
+    <hyperlink ref="B138" r:id="rId332" display="react-native-json-tree"/>
+    <hyperlink ref="F138" r:id="rId333" display="链接"/>
+    <hyperlink ref="B139" r:id="rId334" display="react-native-image-gallery"/>
+    <hyperlink ref="F139" r:id="rId335" display="链接"/>
+    <hyperlink ref="E139" r:id="rId336" display="@react-native-oh-tpl/react-native-image-gallery"/>
+    <hyperlink ref="B129" r:id="rId337" display="react-native-clippath"/>
+    <hyperlink ref="E129" r:id="rId338" display="@react-native-oh-tpl/react-native-clippath"/>
+    <hyperlink ref="F129" r:id="rId339" display="链接"/>
+    <hyperlink ref="B140" r:id="rId340" display="react-native-image-crop-picker"/>
+    <hyperlink ref="B141" r:id="rId341" display="react-native-image-image-base64"/>
+    <hyperlink ref="E140" r:id="rId342" display="@react-native-oh-tpl/react-native-image-crop-picker"/>
+    <hyperlink ref="F140" r:id="rId343" display="链接"/>
+    <hyperlink ref="F141" r:id="rId344" display="链接"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="484">
   <si>
     <t>序号</t>
   </si>
@@ -50,7 +50,7 @@
     <t>文档链接</t>
   </si>
   <si>
-    <t>@react-native-async-storage/async-storage</t>
+    <t>[@react-native-async-storage/async-storage](https://github.com/react-native-async-storage/async-storage)</t>
   </si>
   <si>
     <t>1.21.1</t>
@@ -59,40 +59,49 @@
     <t>是</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/async-storage</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>@react-native-camera-roll/camera-roll</t>
+    <t>[@react-native-oh-tpl/async-storage](https://github.com/react-native-oh-library/async-storage/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-async-storage-async-storage.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-camera-roll/camera-roll](https://github.com/react-native-oh-library/react-native-cameraroll)</t>
   </si>
   <si>
     <t>6.0.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/camera-roll</t>
-  </si>
-  <si>
-    <t>@react-native-clipboard/clipboard</t>
+    <t>[@react-native-oh-tpl/camera-roll](https://github.com/react-native-oh-library/react-native-cameraroll/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-cameraroll.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-clipboard/clipboard](https://github.com/react-native-clipboard/clipboard)</t>
   </si>
   <si>
     <t>1.13.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/clipboard</t>
-  </si>
-  <si>
-    <t>@react-native-community/blur</t>
+    <t>[@react-native-oh-tpl/clipboard](https://github.com/react-native-oh-library/clipboard/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-clipboard-clipboard.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/blur](https://github.com/Kureev/react-native-blur)</t>
   </si>
   <si>
     <t>4.4.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/blur Releases</t>
-  </si>
-  <si>
-    <t>@react-native-community/checkbox</t>
+    <t>[@react-native-oh-tpl/blurReleases](https://github.com/react-native-oh-library/react-native-blur/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-blur.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/checkbox](https://github.com/react-native-checkbox/react-native-checkbox)</t>
   </si>
   <si>
     <t>0.5.16</t>
@@ -101,109 +110,145 @@
     <t>否</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-checkbox</t>
-  </si>
-  <si>
-    <t>@react-native-community/datetimepicker</t>
+    <t>[@react-native-oh-tpl/react-native-checkbox](https://github.com/react-native-oh-library/react-native-checkbox/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-checkbox.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/datetimepicker](https://github.com/react-native-datetimepicker/datetimepicker)</t>
   </si>
   <si>
     <t>7.6.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/datetimepicker</t>
-  </si>
-  <si>
-    <t>@react-native-community/geolocation</t>
+    <t>[@react-native-oh-tpl/datetimepicker](https://github.com/react-native-oh-library/datetimepicker/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-datetimepicker.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/geolocation](https://github.com/michalchudziak/react-native-geolocation)</t>
   </si>
   <si>
     <t>3.1.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-geolocation</t>
-  </si>
-  <si>
-    <t>@react-native-community/netinfo</t>
+    <t>[@react-native-oh-tpl/react-native-geolocation](https://github.com/react-native-oh-library/react-native-geolocation/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-geolocation.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/netinfo](https://github.com/react-native-netinfo/react-native-netinfo)</t>
   </si>
   <si>
     <t>11.1.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/netinfo</t>
-  </si>
-  <si>
-    <t>@react-native-community/progress-bar-android</t>
+    <t>[@react-native-oh-tpl/netinfo](https://github.com/react-native-oh-library/react-native-netinfo/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-netinfo.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/progress-bar-android](https://github.com/react-native-progress-view/progress-bar-android)</t>
   </si>
   <si>
     <t>1.0.4</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/progress-bar-android</t>
-  </si>
-  <si>
-    <t>@react-native-community/progress-view</t>
+    <t>[@react-native-oh-tpl/progress-bar-android](https://github.com/react-native-oh-library/progress-bar-android/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-progress-bar-android.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/progress-view](https://github.com/react-native-progress-view/progress-view)</t>
   </si>
   <si>
     <t>1.4.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/progress-view</t>
-  </si>
-  <si>
-    <t>@react-native-community/push-notification-ios</t>
+    <t>[@react-native-oh-tpl/progress-view](https://github.com/react-native-oh-library/progress-view/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-progress-view.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/push-notification-ios](https://github.com/react-native-push-notification/ios)</t>
   </si>
   <si>
     <t>1.11.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/push-notification-ios</t>
-  </si>
-  <si>
-    <t>@react-native-community/slider</t>
+    <t>[@react-native-oh-tpl/push-notification-ios](https://github.com/react-native-oh-library/react-native-push-notification-ios/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-push-notification-ios.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/slider](https://github.com/callstack/react-native-slider)</t>
   </si>
   <si>
     <t>4.4.3</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/slider</t>
-  </si>
-  <si>
-    <t>@react-native-community/toolbar-android</t>
+    <t>[@react-native-oh-tpl/slider](https://github.com/react-native-oh-library/react-native-slider/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-community-slider.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-community/toolbar-android](https://github.com/react-native-toolbar-android/toolbar-android)</t>
   </si>
   <si>
     <t>0.2.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/toolbar-android</t>
-  </si>
-  <si>
-    <t>@react-native-cookies/cookies</t>
+    <t>[@react-native-oh-tpl/toolbar-android](https://github.com/react-native-oh-library/toolbar-android/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-toolbar-android.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-cookies/cookies](https://github.com/react-native-cookies/cookies)</t>
   </si>
   <si>
     <t>6.2.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/cookies</t>
-  </si>
-  <si>
-    <t>@react-native-masked-view/masked-view</t>
+    <t>[@react-native-oh-tpl/cookies](https://github.com/react-native-oh-library/react-native-cookies/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-cookies.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-masked-view/masked-view](https://github.com/react-native-masked-view/masked-view)</t>
   </si>
   <si>
     <t>0.2.9</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/masked-view</t>
-  </si>
-  <si>
-    <t>@react-native-picker/picker</t>
+    <t>[@react-native-oh-tpl/masked-view](https://github.com/react-native-oh-library/masked-view/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-masked-view-masked-view.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-picker/picker](https://github.com/react-native-picker/picker)</t>
   </si>
   <si>
     <t>2.5.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/picker</t>
-  </si>
-  <si>
-    <t>@react-native-segmented-control/segmented-control</t>
+    <t>[@react-native-oh-tpl/picker](https://github.com/react-native-oh-library/picker/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-picker-picker.md)</t>
+  </si>
+  <si>
+    <t>[@react-native-segmented-control/segmented-control](https://github.com/react-native-segmented-control/segmented-control)</t>
   </si>
   <si>
     <t>2.5.0</t>
@@ -212,766 +257,1096 @@
     <t>-</t>
   </si>
   <si>
-    <t>@react-navigation/bottom-tabs</t>
+    <t>[链接](/zh-cn/react-native-community-segmented-control.md)</t>
+  </si>
+  <si>
+    <t>[@react-navigation/bottom-tabs](https://github.com/react-navigation/react-navigation/tree/6.x/packages/bottom-tabs)</t>
   </si>
   <si>
     <t>6.5.11</t>
   </si>
   <si>
-    <t>@react-navigation/elements</t>
+    <t>[链接](/zh-cn/react-navigation-bottom-tabs.md)</t>
+  </si>
+  <si>
+    <t>[@react-navigation/elements](https://github.com/react-navigation/react-navigation/tree/6.x/packages/elements)</t>
   </si>
   <si>
     <t>1.3.21</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/elements</t>
-  </si>
-  <si>
-    <t>@react-navigation/native</t>
+    <t>[@react-native-oh-tpl/elements](https://github.com/react-native-oh-library/react-navigation/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-navigation-elements.md)</t>
+  </si>
+  <si>
+    <t>[@react-navigation/native](https://github.com/react-navigation/react-navigation/tree/6.x/packages/native)</t>
   </si>
   <si>
     <t>6.1.9</t>
   </si>
   <si>
-    <t>@react-navigation/stack</t>
+    <t>[链接](/zh-cn/react-navigation-native.md)</t>
+  </si>
+  <si>
+    <t>[@react-navigation/stack](https://github.com/react-navigation/react-navigation/tree/6.x/packages/stack)</t>
   </si>
   <si>
     <t>6.3.19</t>
   </si>
   <si>
-    <t>@shopify/flash-list</t>
+    <t>[链接](/zh-cn/react-navigation-stack.md)</t>
+  </si>
+  <si>
+    <t>[@shopify/flash-list](https://github.com/Shopify/flash-list)</t>
   </si>
   <si>
     <t>1.6.3</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/flash-list</t>
-  </si>
-  <si>
-    <t>axios</t>
+    <t>[@react-native-oh-tpl/flash-list](https://github.com/react-native-oh-library/flash-list/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/shopify-flash-list.md)</t>
+  </si>
+  <si>
+    <t>[axios](https://github.com/axios/axios)</t>
   </si>
   <si>
     <t>1.6.7</t>
   </si>
   <si>
-    <t>crypto-js</t>
+    <t>[链接](/zh-cn/axios.md)</t>
+  </si>
+  <si>
+    <t>[crypto-js](https://github.com/brix/crypto-js/tree/4.2.0)</t>
   </si>
   <si>
     <t>4.2.0</t>
   </si>
   <si>
-    <t>dayJs</t>
+    <t>[链接](/zh-cn/crypto-js.md)</t>
+  </si>
+  <si>
+    <t>[dayJs](https://github.com/iamkun/dayjs?tab=readme-ov-file)</t>
   </si>
   <si>
     <t>1.11.1</t>
   </si>
   <si>
-    <t>deepmerge</t>
+    <t>[链接](/zh-cn/dayJs.md)</t>
+  </si>
+  <si>
+    <t>[deepmerge](https://github.com/TehShrike/deepmerge)</t>
   </si>
   <si>
     <t>4.3.1</t>
   </si>
   <si>
-    <t>EventBus</t>
+    <t>[链接](/zh-cn/deepmerge.md)</t>
+  </si>
+  <si>
+    <t>[EventBus](https://github.com/krasimir/EventBus)</t>
   </si>
   <si>
     <t>0.2.0</t>
   </si>
   <si>
-    <t>htmlparser2</t>
+    <t>[链接](/zh-cn/EventBus.md)</t>
+  </si>
+  <si>
+    <t>[htmlparser2](https://github.com/fb55/htmlparser2)</t>
   </si>
   <si>
     <t>9.1.0</t>
   </si>
   <si>
-    <t>immer</t>
+    <t>[链接](/zh-cn/htmlparser2.md)</t>
+  </si>
+  <si>
+    <t>[immer](https://github.com/immerjs/immer)</t>
   </si>
   <si>
     <t>10.0.4</t>
   </si>
   <si>
-    <t>jeanregisser/react-native-slider</t>
+    <t>[链接](/zh-cn/Immer.md)</t>
+  </si>
+  <si>
+    <t>[jeanregisser/react-native-slider](https://github.com/react-native-oh-library/jeanregisser-react-native-slider)</t>
   </si>
   <si>
     <t>0.11.0</t>
   </si>
   <si>
-    <t>JsBarCode</t>
+    <t>[链接](/zh-cn/jeanregisser-react-native-slider.md)</t>
+  </si>
+  <si>
+    <t>[JsBarCode](https://github.com/lindell/JsBarcode)</t>
   </si>
   <si>
     <t>3.11.6</t>
   </si>
   <si>
-    <t>js-beautify</t>
+    <t>[链接](/zh-cn/jsbarcode.md)</t>
+  </si>
+  <si>
+    <t>[js-beautify](https://github.com/beautifier/js-beautify)</t>
   </si>
   <si>
     <t>1.14.9</t>
   </si>
   <si>
+    <t>[链接](/zh-cn/js-beautify.md)</t>
+  </si>
+  <si>
     <t>1.15.1</t>
   </si>
   <si>
-    <t>lodash</t>
+    <t>[lodash](https://github.com/lodash/lodash/tree/4.17.21)</t>
   </si>
   <si>
     <t>4.17.21</t>
   </si>
   <si>
-    <t>lottie-react-native</t>
+    <t>[链接](/zh-cn/lodash.md)</t>
+  </si>
+  <si>
+    <t>[lottie-react-native](https://github.com/lottie-react-native/lottie-react-native)</t>
   </si>
   <si>
     <t>6.4.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/lottie-react-native</t>
-  </si>
-  <si>
-    <t>mobx</t>
+    <t>[@react-native-oh-tpl/lottie-react-native](https://github.com/react-native-oh-library/lottie-react-native/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/lottie-react-native.md)</t>
+  </si>
+  <si>
+    <t>[mobx](https://github.com/mobxjs/mobx/tree/mobx@6.10.0)</t>
   </si>
   <si>
     <t>6.10.0</t>
   </si>
   <si>
-    <t>mobx-react</t>
+    <t>[链接](/zh-cn/mobx.md)</t>
+  </si>
+  <si>
+    <t>[mobx-react](https://github.com/mobxjs/mobx/tree/mobx-react@7.6.0)</t>
   </si>
   <si>
     <t>7.6.0</t>
   </si>
   <si>
-    <t>Moment</t>
+    <t>[链接](/zh-cn/mobx-react.md)</t>
+  </si>
+  <si>
+    <t>[Moment](https://github.com/moment/moment)</t>
   </si>
   <si>
     <t>2.30.1</t>
   </si>
   <si>
-    <t>parse5</t>
+    <t>[链接](/zh-cn/moment.md)</t>
+  </si>
+  <si>
+    <t>[parse5](https://github.com/inikulin/parse5)</t>
   </si>
   <si>
     <t>7.1.2</t>
   </si>
   <si>
-    <t>prop-types</t>
+    <t>[链接](/zh-cn/parse5.md)</t>
+  </si>
+  <si>
+    <t>[prop-types](https://github.com/facebook/prop-types/tree/v15.8.1)</t>
   </si>
   <si>
     <t>15.8.1</t>
   </si>
   <si>
-    <t>qrcode-generator</t>
+    <t>[链接](/zh-cn/prop-types.md)</t>
+  </si>
+  <si>
+    <t>[qrcode-generator](https://github.com/kazuhikoarase/qrcode-generator)</t>
   </si>
   <si>
     <t>1.4.4</t>
   </si>
   <si>
-    <t>react-ahooks</t>
+    <t>[链接](/zh-cn/qrcode-generator.md)</t>
+  </si>
+  <si>
+    <t>[react-ahooks](https://github.com/alibaba/hooks)</t>
   </si>
   <si>
     <t>3.7.11</t>
   </si>
   <si>
-    <t>react-i18next</t>
+    <t>[链接](/zh-cn/react-ahooks.md)</t>
+  </si>
+  <si>
+    <t>[react-i18next](https://github.com/i18next/react-i18next)</t>
   </si>
   <si>
     <t>8.6.3</t>
   </si>
   <si>
-    <t>react-lifecycles-compat</t>
+    <t>[链接](/zh-cn/react-i18next.md)</t>
+  </si>
+  <si>
+    <t>[react-lifecycles-compat](https://github.com/reactjs/react-lifecycles-compat)</t>
   </si>
   <si>
     <t>3.0.4</t>
   </si>
   <si>
-    <t>react-native-action-button</t>
+    <t>[链接](/zh-cn/react-lifecycles-compat.md)</t>
+  </si>
+  <si>
+    <t>[react-native-action-button](https://github.com/mastermoo/react-native-action-button)</t>
   </si>
   <si>
     <t>2.8.5</t>
   </si>
   <si>
-    <t>react-native-animate-number</t>
+    <t>[链接](/zh-cn/react-native-action-button.md)</t>
+  </si>
+  <si>
+    <t>[react-native-animate-number](https://github.com/wkh237/react-native-animate-number)</t>
   </si>
   <si>
     <t>0.1.2</t>
   </si>
   <si>
-    <t>react-native-aria</t>
+    <t>[链接](/zh-cn/react-native-animate-number.md)</t>
+  </si>
+  <si>
+    <t>[react-native-aria](https://github.com/gluestack/react-native-aria/)</t>
   </si>
   <si>
     <t>0.2.4</t>
   </si>
   <si>
-    <t>react-native-autoheight-webview</t>
+    <t>[链接](/zh-cn/react-native-aria.md)</t>
+  </si>
+  <si>
+    <t>[react-native-autoheight-webview](https://github.com/react-native-oh-library/react-native-autoheight-webview)</t>
   </si>
   <si>
     <t>1.6.5</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-autoheight-webview</t>
-  </si>
-  <si>
-    <t>react-native-base64</t>
-  </si>
-  <si>
-    <t>react-native-blob-util</t>
+    <t>[@react-native-oh-tpl/react-native-autoheight-webview](https://github.com/react-native-oh-library/react-native-autoheight-webview/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-autoheight-webview.md)</t>
+  </si>
+  <si>
+    <t>[react-native-base64](https://github.com/eranbo/react-native-base64)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-base64.md)</t>
+  </si>
+  <si>
+    <t>[react-native-blob-util](https://github.com/react-native-oh-library/react-native-blob-util)</t>
   </si>
   <si>
     <t>0.19.6</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-blob-util</t>
-  </si>
-  <si>
-    <t>react-native-canvas</t>
+    <t>[@react-native-oh-tpl/react-native-blob-util](https://github.com/react-native-oh-library/react-native-blob-util/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-blob-util.md)</t>
+  </si>
+  <si>
+    <t>[react-native-canvas](https://github.com/iddan/react-native-canvas)</t>
   </si>
   <si>
     <t>0.1.39</t>
   </si>
   <si>
-    <t>react-native-check-box</t>
+    <t>[链接](/zh-cn/react-native-canvas.md)</t>
+  </si>
+  <si>
+    <t>[react-native-check-box](https://github.com/crazycodeboy/react-native-check-box)</t>
   </si>
   <si>
     <t>2.1.0</t>
   </si>
   <si>
-    <t>react-native-confirmation-code-field</t>
+    <t>[链接](/zh-cn/react-native-check-box.md)</t>
+  </si>
+  <si>
+    <t>[react-native-confirmation-code-field](https://github.com/retyui/react-native-confirmation-code-field)</t>
   </si>
   <si>
     <t>7.4.0</t>
   </si>
   <si>
-    <t>react-native-crypto-js</t>
+    <t>[链接](/zh-cn/react-native-confirmation-code-field.md)</t>
+  </si>
+  <si>
+    <t>[react-native-crypto-js](https://github.com/imchintan/react-native-crypto-js)</t>
   </si>
   <si>
     <t>1.0.0</t>
   </si>
   <si>
-    <t>react-native-dotenv</t>
+    <t>[链接](/zh-cn/react-native-crypto-js.md)</t>
+  </si>
+  <si>
+    <t>[react-native-dotenv](https://github.com/goatandsheep/react-native-dotenv)</t>
   </si>
   <si>
     <t>3.4.9</t>
   </si>
   <si>
-    <t>react-native-drag-sort</t>
+    <t>[链接](/zh-cn/react-native-dotenv.md)</t>
+  </si>
+  <si>
+    <t>[react-native-drag-sort](https://github.com/mochixuan/react-native-drag-sort)</t>
   </si>
   <si>
     <t>2.4.4</t>
   </si>
   <si>
-    <t>react-native-drawer-layout-polyfill</t>
+    <t>[链接](/zh-cn/react-native-drag-sort.md)</t>
+  </si>
+  <si>
+    <t>[react-native-drawer-layout-polyfill](https://github.com/rnc-archive/react-native-drawer-layout-polyfill)</t>
   </si>
   <si>
     <t>2.0.0</t>
   </si>
   <si>
-    <t>react-native-echarts-pro</t>
+    <t>[链接](/zh-cn/react-native-drawer-layout-polyfill.md)</t>
+  </si>
+  <si>
+    <t>[react-native-echarts-pro](https://github.com/supervons/react-native-echarts-pro)</t>
   </si>
   <si>
     <t>1.9.1</t>
   </si>
   <si>
-    <t>react-native-exception-handler</t>
+    <t>[链接](/zh-cn/react-native-echarts-pro.md)</t>
+  </si>
+  <si>
+    <t>[react-native-exception-handler](https://github.com/a7ul/react-native-exception-handler)</t>
   </si>
   <si>
     <t>2.10.10</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-exception-handler</t>
-  </si>
-  <si>
-    <t>react-native-fast-image</t>
-  </si>
-  <si>
-    <t>@react-native-oh-tpl/react-native-fast-image</t>
-  </si>
-  <si>
-    <t>react-native-fit-Image</t>
+    <t>[@react-native-oh-tpl/react-native-exception-handler](https://github.com/react-native-oh-library/react-native-exception-handler/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-exception-handler.md)</t>
+  </si>
+  <si>
+    <t>[react-native-fast-image](https://github.com/DylanVann/react-native-fast-image)</t>
+  </si>
+  <si>
+    <t>[@react-native-oh-tpl/react-native-fast-image](https://github.com/react-native-oh-library/react-native-fast-image/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-fast-image.md)</t>
+  </si>
+  <si>
+    <t>[react-native-fit-Image](https://github.com/huiseoul/react-native-fit-image)</t>
   </si>
   <si>
     <t>1.5.5</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-fit-Image</t>
-  </si>
-  <si>
-    <t>react-native-fs</t>
+    <t>[@react-native-oh-tpl/react-native-fit-Image](https://github.com/huiseoul/react-native-fit-image/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-fit-Image.md)</t>
+  </si>
+  <si>
+    <t>[react-native-fs](https://github.com/itinance/react-native-fs)</t>
   </si>
   <si>
     <t>2.20.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-fs</t>
-  </si>
-  <si>
-    <t>react-native-gesture-handler</t>
+    <t>[@react-native-oh-tpl/react-native-fs](https://github.com/react-native-oh-library/react-native-fs/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-fs.md)</t>
+  </si>
+  <si>
+    <t>[react-native-gesture-handler](https://github.com/software-mansion/react-native-gesture-handler)</t>
   </si>
   <si>
     <t>2.12.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-gesture-handler</t>
-  </si>
-  <si>
-    <t>react-native-image-editor</t>
+    <t>[@react-native-oh-tpl/react-native-gesture-handler](https://github.com/react-native-oh-library/react-native-gesture-handler/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-gesture-handler.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-editor](https://github.com/react-native-oh-library/react-native-image-editor)</t>
   </si>
   <si>
     <t>3.2.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-image-editor</t>
-  </si>
-  <si>
-    <t>react-native-image-picker</t>
+    <t>[@react-native-oh-tpl/react-native-image-editor](https://github.com/react-native-oh-library/react-native-image-editor/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-editor.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-picker](https://github.com/react-native-image-picker/react-native-image-picker)</t>
   </si>
   <si>
     <t>7.0.3</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-image-picker</t>
-  </si>
-  <si>
-    <t>react-native-image-viewer</t>
+    <t>[@react-native-oh-tpl/react-native-image-picker](https://github.com/react-native-oh-library/react-native-image-picker/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-picker.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-viewer](https://github.com/react-native-oh-library/react-native-image-viewer)</t>
   </si>
   <si>
     <t>3.0.1</t>
   </si>
   <si>
-    <t>react-native-image-viewing</t>
+    <t>[react-native-image-viewer](https://github.com/react-native-oh-library/react-native-image-viewer/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-viewer.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-viewing](https://github.com/react-native-oh-library/react-native-image-viewing)</t>
   </si>
   <si>
     <t>0.2.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-image-viewing</t>
-  </si>
-  <si>
-    <t>react-native-image-zoom</t>
+    <t>[@react-native-oh-tpl/react-native-image-viewing](https://github.com/react-native-oh-library/react-native-image-viewing/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-viewing.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-zoom](https://github.com/react-native-oh-library/react-native-image-zoom)</t>
   </si>
   <si>
     <t>2.1.12</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-image-zoom</t>
-  </si>
-  <si>
-    <t>react-native-intersection-observer</t>
-  </si>
-  <si>
-    <t>@react-native-oh-tpl/react-native-intersection-observer</t>
-  </si>
-  <si>
-    <t>react-native-keyboard-aware-scroll-view</t>
+    <t>[@react-native-oh-tpl/react-native-image-zoom](https://github.com/react-native-oh-library/react-native-image-zoom/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-zoom.md)</t>
+  </si>
+  <si>
+    <t>[react-native-intersection-observer](https://github.com/react-native-oh-library/react-native-intersection-observer)</t>
+  </si>
+  <si>
+    <t>[@react-native-oh-tpl/react-native-intersection-observer](https://github.com/react-native-oh-library/react-native-intersection-observer/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-intersection-observer.md)</t>
+  </si>
+  <si>
+    <t>[react-native-keyboard-aware-scroll-view](https://github.com/APSL/react-native-keyboard-aware-scroll-view)</t>
   </si>
   <si>
     <t>0.9.5</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-keyboard-aware-scroll-view</t>
-  </si>
-  <si>
-    <t>react-native-linear-gradient</t>
+    <t>[@react-native-oh-tpl/react-native-keyboard-aware-scroll-view](https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-keyboard-aware-scroll-view.md)</t>
+  </si>
+  <si>
+    <t>[react-native-linear-gradient](https://github.com/react-native-linear-gradient/react-native-linear-gradient)</t>
   </si>
   <si>
     <t>3.0.0-alpha.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-linear-gradient</t>
-  </si>
-  <si>
-    <t>react-native-maps</t>
+    <t>[@react-native-oh-tpl/react-native-linear-gradient](https://github.com/react-native-oh-library/react-native-linear-gradient/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-linear-gradient.md)</t>
+  </si>
+  <si>
+    <t>[react-native-maps](https://github.com/react-native-maps/react-native-maps)</t>
   </si>
   <si>
     <t>1.10.3</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-maps</t>
-  </si>
-  <si>
-    <t>react-native-markdown-display</t>
+    <t>[@react-native-oh-tpl/react-native-maps](https://github.com/react-native-maps/react-native-maps/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-maps.md)</t>
+  </si>
+  <si>
+    <t>[react-native-markdown-display](https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig)</t>
   </si>
   <si>
     <t>7.0.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-markdown-display</t>
-  </si>
-  <si>
-    <t>react-native-marquee</t>
+    <t>[@react-native-oh-tpl/react-native-markdown-display](https://github.com/react-native-oh-library/react-native-markdown-display/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-markdown-display.md)</t>
+  </si>
+  <si>
+    <t>[react-native-marquee](https://github.com/react-native-oh-library/react-native-marquee)</t>
   </si>
   <si>
     <t>0.5.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-marquee</t>
-  </si>
-  <si>
-    <t>react-native-MJRefresh</t>
+    <t>[@react-native-oh-tpl/react-native-marquee](https://github.com/react-native-oh-library/react-native-marquee/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-marquee.md)</t>
+  </si>
+  <si>
+    <t>[react-native-MJRefresh](https://github.com/react-native-studio/react-native-MJRefresh)</t>
   </si>
   <si>
     <t>0.7.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-mjrefresh</t>
-  </si>
-  <si>
-    <t>react-native-pager-view</t>
+    <t>[@react-native-oh-tpl/react-native-mjrefresh](https://github.com/react-native-oh-library/react-native-MJRefresh/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-MJRefresh.md)</t>
+  </si>
+  <si>
+    <t>[react-native-pager-view](https://github.com/callstack/react-native-pager-view)</t>
   </si>
   <si>
     <t>6.2.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-pager-view</t>
-  </si>
-  <si>
-    <t>react-native-pdf</t>
+    <t>[@react-native-oh-tpl/react-native-pager-view](https://github.com/react-native-oh-library/react-native-pager-view/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-pager-view.md)</t>
+  </si>
+  <si>
+    <t>[react-native-pdf](https://github.com/wonday/react-native-pdf)</t>
   </si>
   <si>
     <t>6.7.4</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-pdf</t>
-  </si>
-  <si>
-    <t>react-native-permissions</t>
+    <t>[@react-native-oh-tpl/react-native-pdf](https://github.com/react-native-oh-library/react-native-pdf/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-pdf.md)</t>
+  </si>
+  <si>
+    <t>[react-native-permissions](https://github.com/zoontek/react-native-permissions)</t>
   </si>
   <si>
     <t>4.1.5</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-permissions</t>
-  </si>
-  <si>
-    <t>react-native-popover-view</t>
+    <t>[@react-native-oh-tpl/react-native-permissions](https://github.com/react-native-oh-library/react-native-permissions/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-permissions.md)</t>
+  </si>
+  <si>
+    <t>[react-native-popover-view](https://github.com/react-native-oh-library/react-native-popover-view)</t>
   </si>
   <si>
     <t>5.1.7</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-popover-view</t>
-  </si>
-  <si>
-    <t>react-native-popup-menu</t>
+    <t>[@react-native-oh-tpl/react-native-popover-view](https://github.com/react-native-oh-library/react-native-popover-view/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-popover-view.md)</t>
+  </si>
+  <si>
+    <t>[react-native-popup-menu](https://github.com/instea/react-native-popup-menu)</t>
   </si>
   <si>
     <t>0.16.0</t>
   </si>
   <si>
-    <t>react-native-progress</t>
+    <t>[链接](/zh-cn/react-native-popup-menu.md)</t>
+  </si>
+  <si>
+    <t>[react-native-progress](https://github.com/oblador/react-native-progress)</t>
   </si>
   <si>
     <t>5.0.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-progress</t>
-  </si>
-  <si>
-    <t>react-native-pull</t>
+    <t>[@react-native-oh-tpl/react-native-progress](https://github.com/react-native-oh-library/react-native-progress/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-progress.md)</t>
+  </si>
+  <si>
+    <t>[react-native-pull](https://github.com/react-native-oh-library/react-native-pull)</t>
   </si>
   <si>
     <t>2.0.4</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-pull</t>
-  </si>
-  <si>
-    <t>react-native-qrcode-svg</t>
+    <t>[@react-native-oh-tpl/react-native-pull](https://github.com/react-native-oh-library/react-native-pull/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-pull.md)</t>
+  </si>
+  <si>
+    <t>[react-native-qrcode-svg](https://github.com/awesomejerry/react-native-qrcode-svg)</t>
   </si>
   <si>
     <t>6.2.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-qrcode-svg</t>
-  </si>
-  <si>
-    <t>react-native-reanimated</t>
+    <t>[@react-native-oh-tpl/react-native-qrcode-svg](https://github.com/react-native-oh-library/react-native-qrcode-svg/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-qrcode-svg.md)</t>
+  </si>
+  <si>
+    <t>[react-native-reanimated](https://github.com/software-mansion/react-native-reanimated)</t>
   </si>
   <si>
     <t>3.6.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-reanimated</t>
-  </si>
-  <si>
-    <t>react-native-reanimated-carousel</t>
+    <t>[@react-native-oh-tpl/react-native-reanimated](https://github.com/react-native-oh-library/react-native-reanimated/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-reanimated.md)</t>
+  </si>
+  <si>
+    <t>[react-native-reanimated-carousel](https://github.com/dohooo/react-native-reanimated-carousel)</t>
   </si>
   <si>
     <t>3.5.1</t>
   </si>
   <si>
-    <t>react-native-reanimated-table</t>
-  </si>
-  <si>
-    <t>react-native-redash</t>
+    <t>[链接](/zh-cn/react-native-reanimated-carousel.md)</t>
+  </si>
+  <si>
+    <t>[react-native-reanimated-table](https://github.com/dohooo/react-native-reanimated-table)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-reanimated-table.md)</t>
+  </si>
+  <si>
+    <t>[react-native-redash](https://github.com/wcandillon/react-native-redash/)</t>
   </si>
   <si>
     <t>18.1.3</t>
   </si>
   <si>
-    <t>react-native-render-html</t>
+    <t>[链接](/zh-cn/react-native-redash.md)</t>
+  </si>
+  <si>
+    <t>[react-native-render-html](https://github.com/meliorence/react-native-render-html)</t>
   </si>
   <si>
     <t>6.3.4</t>
   </si>
   <si>
-    <t>react-native-safe-area-context</t>
+    <t>[链接](/zh-cn/react-native-render-html.md)</t>
+  </si>
+  <si>
+    <t>[react-native-safe-area-context](https://github.com/th3rdwave/react-native-safe-area-context)</t>
   </si>
   <si>
     <t>4.7.4</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-safe-area-context</t>
-  </si>
-  <si>
-    <t>react-native-screens</t>
+    <t>[@react-native-oh-tpl/react-native-safe-area-context](https://github.com/react-native-oh-library/react-native-safe-area-context/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-safe-area-context.md)</t>
+  </si>
+  <si>
+    <t>[react-native-screens](https://github.com/software-mansion/react-native-screens)</t>
   </si>
   <si>
     <t>3.29.0</t>
   </si>
   <si>
-    <t>react-native-scrollable-tab-view</t>
-  </si>
-  <si>
-    <t>@react-native-oh-tpl/react-native-scrollable-tab-view</t>
-  </si>
-  <si>
-    <t>react-native-section-list-get-item-layout</t>
+    <t>[链接](/zh-cn/react-native-screens.md)</t>
+  </si>
+  <si>
+    <t>[react-native-scrollable-tab-view](https://github.com/react-native-oh-library/react-native-scrollable-tab-view)</t>
+  </si>
+  <si>
+    <t>[@react-native-oh-tpl/react-native-scrollable-tab-view](https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-scrollable-tab-view.md)</t>
+  </si>
+  <si>
+    <t>[react-native-section-list-get-item-layout](https://github.com/jsoendermann/rn-section-list-get-item-layout)</t>
   </si>
   <si>
     <t>2.2.3</t>
   </si>
   <si>
-    <t>react-native-SmartRefreshLayout</t>
+    <t>[链接](/zh-cn/react-native-section-list-get-item-layout.md)</t>
+  </si>
+  <si>
+    <t>[react-native-SmartRefreshLayout](https://github.com/react-native-studio/react-native-SmartRefreshLayout)</t>
   </si>
   <si>
     <t>0.6.7</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-SmartRefreshLayout</t>
-  </si>
-  <si>
-    <t>react-native-snap-carousel</t>
+    <t>[@react-native-oh-tpl/react-native-SmartRefreshLayout](https://github.com/react-native-oh-library/react-native-SmartRefreshLayout/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-SmartRefreshLayout.md)</t>
+  </si>
+  <si>
+    <t>[react-native-snap-carousel](https://github.com/meliorence/react-native-snap-carousel)</t>
   </si>
   <si>
     <t>3.9.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-snap-carousel</t>
-  </si>
-  <si>
-    <t>react-native-sound</t>
+    <t>[@react-native-oh-tpl/react-native-snap-carousel](https://github.com/react-native-oh-library/react-native-snap-carousel/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-snap-carousel.md)</t>
+  </si>
+  <si>
+    <t>[react-native-sound](https://github.com/zmxv/react-native-sound)</t>
   </si>
   <si>
     <t>0.11.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-sound</t>
-  </si>
-  <si>
-    <t>react-native-stickyheader</t>
+    <t>[@react-native-oh-tpl/react-native-sound](https://github.com/react-native-oh-library/react-native-sound/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-sound.md)</t>
+  </si>
+  <si>
+    <t>[react-native-stickyheader](https://github.com/react-native-oh-library/react-native-stickyheader)</t>
   </si>
   <si>
     <t>1.1.3</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-stickyheader</t>
-  </si>
-  <si>
-    <t>react-native-svg</t>
+    <t>[@react-native-oh-tpl/react-native-stickyheader](https://github.com/react-native-oh-library/react-native-stickyheader/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-stickyheader.md)</t>
+  </si>
+  <si>
+    <t>[react-native-svg](https://github.com/software-mansion/react-native-svg)</t>
   </si>
   <si>
     <t>13.14.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-svg</t>
-  </si>
-  <si>
-    <t>react-native-swipe-list-view</t>
+    <t>[@react-native-oh-tpl/react-native-svg](https://github.com/react-native-oh-library/react-native-svg/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-svg.md)</t>
+  </si>
+  <si>
+    <t>[react-native-swipe-list-view](https://github.com/rnc-archive/react-native-drawer-layout-polyfill)</t>
   </si>
   <si>
     <t>3.2.9</t>
   </si>
   <si>
-    <t>react-native-swiper</t>
+    <t>[链接](/zh-cn/react-native-swipe-list-view.md)</t>
+  </si>
+  <si>
+    <t>[react-native-swiper](https://github.com/leecade/react-native-swiper)</t>
   </si>
   <si>
     <t>1.6.0</t>
   </si>
   <si>
-    <t>react-native-tab-view</t>
+    <t>[链接](/zh-cn/react-native-swiper.md)</t>
+  </si>
+  <si>
+    <t>[react-native-tab-view](https://github.com/react-navigation/react-navigation/tree/6.x/packages/react-native-tab-view)</t>
   </si>
   <si>
     <t>3.5.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-tab-view</t>
-  </si>
-  <si>
-    <t>react-native-text-size</t>
+    <t>[@react-native-oh-tpl/react-native-tab-view](https://github.com/react-native-oh-library/react-navigation/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-tab-view.md)</t>
+  </si>
+  <si>
+    <t>[react-native-text-size](https://github.com/aMarCruz/react-native-text-size)</t>
   </si>
   <si>
     <t>4.0.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-text-size</t>
-  </si>
-  <si>
-    <t>react-native-transitiongroup</t>
+    <t>[@react-native-oh-tpl/react-native-text-size](https://github.com/react-native-oh-library/react-native-text-size/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-text-size.md)</t>
+  </si>
+  <si>
+    <t>[react-native-transitiongroup](https://github.com/madsleejensen/react-native-transitiongroup)</t>
   </si>
   <si>
     <t>1.2.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-transitiongroup</t>
-  </si>
-  <si>
-    <t>react-native-translucent-modal</t>
+    <t>[@react-native-oh-tpl/react-native-transitiongroup](https://github.com/react-native-oh-library/react-native-transitiongroup/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-transitiongroup.md)</t>
+  </si>
+  <si>
+    <t>[react-native-translucent-modal](https://github.com/23mf/react-native-translucent-modal)</t>
   </si>
   <si>
     <t>1.1.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-translucent-modal</t>
-  </si>
-  <si>
-    <t>react-native-vector-icons</t>
+    <t>[@react-native-oh-tpl/react-native-translucent-modal](https://github.com/react-native-oh-library/react-native-translucent-modal/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-translucent-modal.md)</t>
+  </si>
+  <si>
+    <t>[react-native-vector-icons](https://github.com/oblador/react-native-vector-icons)</t>
   </si>
   <si>
     <t>10.0.3</t>
   </si>
   <si>
-    <t>react-native-video</t>
+    <t>[链接](/zh-cn/react-native-vector-icons.md)</t>
+  </si>
+  <si>
+    <t>[react-native-video](https://github.com/react-native-video/react-native-video)</t>
   </si>
   <si>
     <t>5.2.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-video</t>
-  </si>
-  <si>
-    <t>react-native-view-shot</t>
+    <t>[@react-native-oh-tpl/react-native-video](https://github.com/react-native-oh-library/react-native-video)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-video.md)</t>
+  </si>
+  <si>
+    <t>[react-native-view-shot](https://github.com/gre/react-native-view-shot)</t>
   </si>
   <si>
     <t>3.8.0</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-view-shot</t>
-  </si>
-  <si>
-    <t>react-native-webview</t>
+    <t>[@react-native-oh-tpl/react-native-view-shot](https://github.com/react-native-oh-library/react-native-view-shot/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-view-shot.md)</t>
+  </si>
+  <si>
+    <t>[react-native-webview](https://github.com/react-native-webview/react-native-webview)</t>
   </si>
   <si>
     <t>13.6.2</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-webview</t>
-  </si>
-  <si>
-    <t>react-native-worklets-core</t>
-  </si>
-  <si>
-    <t>@react-native-oh-tpl/react-native-worklets-core</t>
-  </si>
-  <si>
-    <t>react-redux</t>
+    <t>[@react-native-oh-tpl/react-native-webview](https://github.com/react-native-oh-library/react-native-webview/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-webview.md)</t>
+  </si>
+  <si>
+    <t>[react-native-worklets-core](https://github.com/react-native-oh-library/react-native-worklets-core)</t>
+  </si>
+  <si>
+    <t>[@react-native-oh-tpl/react-native-worklets-core](https://github.com/react-native-oh-library/react-native-worklets-core/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-worklets-core.md)</t>
+  </si>
+  <si>
+    <t>[react-redux](https://github.com/reduxjs/react-redux)</t>
   </si>
   <si>
     <t>9.1.1</t>
   </si>
   <si>
-    <t>react-router-dom</t>
+    <t>[链接](/zh-cn/react-redux.md)</t>
+  </si>
+  <si>
+    <t>[react-router-dom](https://github.com/remix-run/react-router)</t>
   </si>
   <si>
     <t>6.22.3</t>
   </si>
   <si>
-    <t>react-use</t>
+    <t>[链接](/zh-cn/react-router-dom.md)</t>
+  </si>
+  <si>
+    <t>[react-use](https://github.com/zenghongtu/react-use)</t>
   </si>
   <si>
     <t>17.2.4</t>
   </si>
   <si>
-    <t>recyclerlistview</t>
-  </si>
-  <si>
-    <t>redux</t>
-  </si>
-  <si>
-    <t>redux-actions</t>
+    <t>[链接](/zh-cn/react-use.md)</t>
+  </si>
+  <si>
+    <t>[recyclerlistview](https://github.com/Flipkart/recyclerlistview)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/recyclerListView.md)</t>
+  </si>
+  <si>
+    <t>[redux](https://github.com/reduxjs/redux)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/redux.md)</t>
+  </si>
+  <si>
+    <t>[redux-actions](https://github.com/redux-utilities/redux-actions)</t>
   </si>
   <si>
     <t>3.0.0</t>
   </si>
   <si>
-    <t>redux-logger</t>
+    <t>[链接](/zh-cn/redux-actions.md)</t>
+  </si>
+  <si>
+    <t>[redux-logger](https://github.com/LogRocket/redux-logger)</t>
   </si>
   <si>
     <t>3.0.6</t>
   </si>
   <si>
-    <t>redux-persist</t>
-  </si>
-  <si>
-    <t>redux-thunk</t>
-  </si>
-  <si>
-    <t>redux-toolkit</t>
-  </si>
-  <si>
-    <t>rn-placeholder</t>
+    <t>[链接](/zh-cn/redux-logger.md)</t>
+  </si>
+  <si>
+    <t>[redux-persist](https://github.com/rt2zz/redux-persist)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/redux-persist.md)</t>
+  </si>
+  <si>
+    <t>[redux-thunk](https://github.com/reduxjs/redux-thunk)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/redux-thunk.md)</t>
+  </si>
+  <si>
+    <t>[redux-toolkit](https://github.com/reduxjs/redux-toolkit)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/redux-toolkit.md)</t>
+  </si>
+  <si>
+    <t>[rn-placeholder](https://github.com/mfrachet/rn-placeholder)</t>
   </si>
   <si>
     <t>3.0.3</t>
   </si>
   <si>
-    <t>styled-components</t>
+    <t>[链接](/zh-cn/rn-placeholder.md)</t>
+  </si>
+  <si>
+    <t>[styled-components](https://github.com/styled-components/styled-components)</t>
   </si>
   <si>
     <t>6.1.8</t>
   </si>
   <si>
-    <t>styled-system</t>
+    <t>[链接](/zh-cn/styled-components.md)</t>
+  </si>
+  <si>
+    <t>[styled-system](https://github.com/styled-system/styled-system)</t>
   </si>
   <si>
     <t>5.1.5</t>
   </si>
   <si>
-    <t>react-native-sensors</t>
+    <t>[链接](/zh-cn/styled-system.md)</t>
+  </si>
+  <si>
+    <t>[react-native-sensors](https://github.com/react-native-oh-library/react-native-sensors)</t>
   </si>
   <si>
     <t>7.2.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-sensors</t>
-  </si>
-  <si>
-    <t>react-native-sortable-list</t>
+    <t>[@react-native-oh-tpl/react-native-sensors](https://github.com/react-native-oh-library/react-native-sensors/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-sensors.md)</t>
+  </si>
+  <si>
+    <t>[react-native-sortable-list](https://github.com/gitim/react-native-sortable-list)</t>
   </si>
   <si>
     <t>0.0.25</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-sortable-list</t>
-  </si>
-  <si>
-    <t>react-native-easy-toast</t>
+    <t>[@react-native-oh-tpl/react-native-sortable-list](https://github.com/react-native-oh-library/react-native-sortable-list)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-sortable-list.md)</t>
+  </si>
+  <si>
+    <t>[react-native-easy-toast](https://github.com/crazycodeboy/react-native-easy-toast)</t>
   </si>
   <si>
     <t>2.3.0</t>
   </si>
   <si>
-    <t>react-native-image-sequence-2</t>
+    <t>[链接](/zh-cn/react-native-easy-toast.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-sequence-2](https://github.com/bwindsor/react-native-image-sequence)</t>
   </si>
   <si>
     <t>0.9.1</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-image-sequence-2</t>
-  </si>
-  <si>
-    <t>react-native-feather</t>
+    <t>[@react-native-oh-tpl/react-native-image-sequence-2](https://github.com/react-native-oh-library/react-native-image-sequence/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-sequence-2.md)</t>
+  </si>
+  <si>
+    <t>[react-native-feather](https://github.com/yigithanyucedag/react-native-feather)</t>
   </si>
   <si>
     <t>1.1.2</t>
   </si>
   <si>
-    <t>@react-navigation/native-stack</t>
+    <t>[链接](/zh-cn/react-native-feather.md)</t>
+  </si>
+  <si>
+    <t>[@react-navigation/native-stack](https://github.com/react-navigation/react-navigation/tree/main/packages/native-stack)</t>
   </si>
   <si>
     <t>6.9.26</t>
@@ -980,91 +1355,133 @@
     <t>−</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/native-stack</t>
-  </si>
-  <si>
-    <t>react-native-clippath</t>
+    <t>[@react-native-oh-tpl/native-stack](https://github.com/react-native-oh-library/react-navigation/tree/sig/packages/native-stack)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-navigation-native-stack.md)</t>
+  </si>
+  <si>
+    <t>[react-native-clippath](https://github.com/Only-IceSoul/react-native-clippath)</t>
   </si>
   <si>
     <t>1.1.8</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-clippath</t>
-  </si>
-  <si>
-    <t>react-native-waterfall-flow</t>
+    <t>[@react-native-oh-tpl/react-native-clippath](https://github.com/react-native-oh-library/react-native-clippath/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-clippath.md)</t>
+  </si>
+  <si>
+    <t>[react-native-waterfall-flow](https://github.com/axerjs/react-native-waterfall-flow)</t>
   </si>
   <si>
     <t>1.1.5</t>
   </si>
   <si>
-    <t>react-native-vconsole</t>
+    <t>[链接](/zh-cn/react-native-waterfall-flow.md)</t>
+  </si>
+  <si>
+    <t>[react-native-vconsole](https://github.com/kafudev/react-native-vconsole)</t>
   </si>
   <si>
     <t>0.1.11</t>
   </si>
   <si>
-    <t>better-banner</t>
+    <t>[链接](/zh-cn/react-native-vconsole.md)</t>
+  </si>
+  <si>
+    <t>[better-banner](https://github.com/tmxiong/better-banner)</t>
   </si>
   <si>
     <t>0.0.1</t>
   </si>
   <si>
-    <t>react-native-ezswiper</t>
+    <t>[链接](/zh-cn/react-native-better-banner.md)</t>
+  </si>
+  <si>
+    <t>[react-native-ezswiper](https://github.com/easyui/react-native-ezswiper)</t>
   </si>
   <si>
     <t>1.3.0</t>
   </si>
   <si>
-    <t>react-native-image-header-scroll-view</t>
+    <t>[链接](/zh-cn/react-native-ezswiper.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-header-scroll-view](https://github.com/bamlab/react-native-image-header-scroll-view)</t>
   </si>
   <si>
     <t>0.10.3</t>
   </si>
   <si>
-    <t>react-native-linear-gradient-text</t>
+    <t>[链接](/zh-cn/react-native-image-header-scroll-view.md)</t>
+  </si>
+  <si>
+    <t>[react-native-linear-gradient-text](https://github.com/HMDarkFir3/react-native-linear-gradient-text)</t>
   </si>
   <si>
     <t>1.2.8</t>
   </si>
   <si>
-    <t>react-native-marquee-ab</t>
+    <t>[链接](/zh-cn/react-native-linear-gradient-text.md)</t>
+  </si>
+  <si>
+    <t>[react-native-marquee-ab](https://github.com/ZhangTaoK/react-native-marquee-ab)</t>
   </si>
   <si>
     <t>2.0.0-rc.1</t>
   </si>
   <si>
-    <t>react-native-reconnecting-websocket</t>
+    <t>[链接](/zh-cn/react-native-marquee-ab.md)</t>
+  </si>
+  <si>
+    <t>[react-native-reconnecting-websocket](https://github.com/React-Sextant/react-native-reconnecting-websocket)</t>
   </si>
   <si>
     <t>1.0.3</t>
   </si>
   <si>
-    <t>react-native-json-tree</t>
-  </si>
-  <si>
-    <t>react-native-image-gallery</t>
+    <t>[链接](/zh-cn/react-native-reconnecting-websocket.md)</t>
+  </si>
+  <si>
+    <t>[react-native-json-tree](https://github.com/Dean177/react-native-json-tree)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-json-tree.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-gallery](https://github.com/meliorence/react-native-image-gallery)</t>
   </si>
   <si>
     <t>2.1.5</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-image-gallery</t>
-  </si>
-  <si>
-    <t>react-native-image-crop-picker</t>
+    <t>[@react-native-oh-tpl/react-native-image-gallery](https://github.com/react-native-oh-library/react-native-image-gallery)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-gallery.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-crop-picker](https://github.com/ivpusic/react-native-image-crop-picker)</t>
   </si>
   <si>
     <t>0.40.3</t>
   </si>
   <si>
-    <t>@react-native-oh-tpl/react-native-image-crop-picker</t>
-  </si>
-  <si>
-    <t>react-native-image-image-base64</t>
+    <t>[@react-native-oh-tpl/react-native-image-crop-picker](https://github.com/react-native-oh-library/react-native-image-crop-picker/releases)</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-crop-picker.md)</t>
+  </si>
+  <si>
+    <t>[react-native-image-image-base64](https://github.com/SnappFr/react-native-image-base64)</t>
   </si>
   <si>
     <t>0.1.3</t>
+  </si>
+  <si>
+    <t>[链接](/zh-cn/react-native-image-base64.md)</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1494,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1516,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0A0E14"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1592,16 +2015,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1610,119 +2030,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1737,6 +2160,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2266,23 +2692,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.9416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.7333333333333" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.23333333333333" style="1"/>
-    <col min="5" max="5" width="51.925" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.23333333333333" style="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="64.55" style="1" customWidth="1"/>
+    <col min="6" max="6" width="86.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.23333333333333" style="1"/>
+    <col min="8" max="8" width="126.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.23333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.25" spans="1:6">
+    <row r="1" ht="27.75" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2302,11 +2731,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" ht="41.25" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2322,11 +2751,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" ht="41.25" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2339,567 +2768,567 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="41.25" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="41.25" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="41.25" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="41.25" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="41.25" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="41.25" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="41.25" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" ht="41.25" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="41.25" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="41.25" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" ht="41.25" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="41.25" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="41.25" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" ht="41.25" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" ht="41.25" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" ht="41.25" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>60</v>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" ht="54.75" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>62</v>
+      <c r="B20" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" ht="41.25" spans="1:6">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" ht="27.75" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" ht="27.75" spans="1:6">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
+      <c r="B24" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="27.75" spans="1:6">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" ht="27.75" spans="1:6">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>76</v>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>78</v>
+      <c r="B27" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>80</v>
+      <c r="B28" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>82</v>
+      <c r="B29" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>84</v>
+      <c r="B30" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" ht="41.25" spans="1:6">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:6">
@@ -2907,2561 +3336,3344 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" ht="27.75" spans="1:6">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>90</v>
+      <c r="B33" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" ht="27.75" spans="1:6">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>90</v>
+      <c r="B34" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" ht="27.75" spans="1:6">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" ht="41.25" spans="1:6">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="1:6">
+      <c r="E36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" ht="27.75" spans="1:6">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>98</v>
+      <c r="B37" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" ht="41.25" spans="1:6">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>102</v>
+      <c r="B39" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>104</v>
+      <c r="B40" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" ht="27.75" spans="1:6">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>106</v>
+      <c r="B41" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" ht="41.25" spans="1:6">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>108</v>
+      <c r="B42" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:6">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>110</v>
+      <c r="B43" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" ht="27.75" spans="1:6">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>112</v>
+      <c r="B44" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" ht="41.25" spans="1:6">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>114</v>
+      <c r="B45" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" ht="41.25" spans="1:6">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" ht="41.25" spans="1:6">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" ht="41.25" spans="1:6">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>120</v>
+      <c r="B48" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" ht="27.75" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" ht="41.25" spans="1:6">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>122</v>
+      <c r="B49" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" ht="41.25" spans="1:6">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" ht="41.25" spans="1:6">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:6">
+      <c r="E51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" ht="41.25" spans="1:6">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>129</v>
+      <c r="B52" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" ht="41.25" spans="1:6">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" ht="41.25" spans="1:6">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" ht="41.25" spans="1:6">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>135</v>
+      <c r="B55" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" ht="41.25" spans="1:6">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>137</v>
+      <c r="B56" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" ht="41.25" spans="1:6">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>139</v>
+      <c r="B57" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" ht="41.25" spans="1:6">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" ht="41.25" spans="1:6">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" ht="41.25" spans="1:6">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>147</v>
+        <v>25</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" ht="41.25" spans="1:6">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" spans="1:6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" ht="41.25" spans="1:6">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" ht="41.25" spans="1:6">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" spans="1:6">
+        <v>214</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" ht="41.25" spans="1:6">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>156</v>
+      <c r="B64" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" spans="1:6">
+        <v>218</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" ht="41.25" spans="1:6">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>159</v>
+      <c r="B65" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" spans="1:6">
+        <v>222</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" ht="41.25" spans="1:6">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" spans="1:6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" ht="41.25" spans="1:6">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>165</v>
+      <c r="B67" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:6">
+        <v>230</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" ht="41.25" spans="1:6">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>167</v>
+      <c r="B68" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" spans="1:6">
+        <v>234</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" ht="41.25" spans="1:6">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>170</v>
+      <c r="B69" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>172</v>
+        <v>74</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" ht="27.75" spans="1:6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" ht="41.25" spans="1:6">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" ht="27.75" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" ht="41.25" spans="1:6">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>177</v>
+        <v>74</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" ht="27.75" spans="1:6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" ht="41.25" spans="1:6">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" spans="1:6">
+      <c r="E72" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" ht="41.25" spans="1:6">
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>181</v>
+      <c r="B73" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" spans="1:6">
+      <c r="E73" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" ht="41.25" spans="1:6">
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>184</v>
+      <c r="B74" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" ht="41.25" spans="1:6">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>189</v>
+        <v>74</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" spans="1:6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" ht="41.25" spans="1:6">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" ht="41.25" spans="1:6">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" spans="1:6">
+        <v>269</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" ht="41.25" spans="1:6">
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>196</v>
+      <c r="B78" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" spans="1:6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" ht="41.25" spans="1:6">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>201</v>
+      <c r="E79" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" spans="1:6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" ht="41.25" spans="1:6">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>204</v>
+        <v>74</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" spans="1:6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" ht="41.25" spans="1:6">
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>205</v>
+      <c r="B81" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" spans="1:6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" ht="41.25" spans="1:6">
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>207</v>
+      <c r="B82" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" ht="41.25" spans="1:6">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" ht="41.25" spans="1:6">
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>213</v>
+      <c r="B84" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" ht="41.25" spans="1:6">
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>216</v>
+      <c r="B85" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>218</v>
+      <c r="E85" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="1:6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" ht="41.25" spans="1:6">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" ht="41.25" spans="1:6">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="1:6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" ht="41.25" spans="1:6">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" ht="41.25" spans="1:6">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" spans="1:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" ht="41.25" spans="1:6">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>228</v>
+      <c r="E90" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" spans="1:6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" ht="27.75" spans="1:6">
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>229</v>
+      <c r="B91" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>59</v>
+      <c r="E91" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" ht="27.75" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" ht="41.25" spans="1:6">
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>231</v>
+      <c r="B92" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" spans="1:6">
+        <v>321</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" ht="41.25" spans="1:6">
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>233</v>
+      <c r="B93" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" ht="27.75" spans="1:6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" ht="41.25" spans="1:6">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>237</v>
+        <v>25</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" ht="41.25" spans="1:6">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" ht="41.25" spans="1:6">
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>241</v>
+      <c r="B96" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" spans="1:6">
+        <v>336</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="97" ht="41.25" spans="1:6">
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>244</v>
+      <c r="B97" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" ht="41.25" spans="1:6">
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>247</v>
+      <c r="B98" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" spans="1:6">
+      <c r="E98" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" ht="41.25" spans="1:6">
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>250</v>
+      <c r="B99" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" ht="41.25" spans="1:6">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" spans="1:6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" ht="41.25" spans="1:6">
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>254</v>
+      <c r="B101" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" ht="41.25" spans="1:6">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" spans="1:6">
+        <v>358</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" ht="41.25" spans="1:6">
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>260</v>
+      <c r="B103" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" ht="41.25" spans="1:6">
       <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>263</v>
+      <c r="B104" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>265</v>
+        <v>25</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" spans="1:6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="105" ht="41.25" spans="1:6">
       <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>266</v>
+      <c r="B105" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" ht="41.25" spans="1:6">
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>268</v>
+      <c r="B106" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>269</v>
+        <v>372</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" spans="1:6">
+        <v>373</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" ht="41.25" spans="1:6">
       <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>271</v>
+        <v>375</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" spans="1:6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" ht="41.25" spans="1:6">
       <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>274</v>
+      <c r="B108" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" spans="1:6">
+      <c r="E108" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" ht="41.25" spans="1:6">
       <c r="A109" s="3">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>277</v>
+        <v>383</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" spans="1:6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" ht="27.75" spans="1:6">
       <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>279</v>
+      <c r="B110" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" spans="1:6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" ht="27.75" spans="1:6">
       <c r="A111" s="3">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:6">
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>283</v>
+      <c r="B112" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" spans="1:6">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" ht="27.75" spans="1:6">
       <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>285</v>
+      <c r="B113" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:6">
       <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>286</v>
+      <c r="B114" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" ht="27.75" spans="1:6">
       <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>287</v>
+      <c r="B115" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>288</v>
+        <v>400</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" ht="27.75" spans="1:6">
       <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>289</v>
+      <c r="B116" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" spans="1:6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117" ht="27.75" spans="1:6">
       <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="118" ht="27.75" spans="1:6">
       <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>292</v>
+      <c r="B118" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" spans="1:6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" ht="27.75" spans="1:6">
       <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>293</v>
+        <v>409</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" ht="27.75" spans="1:6">
       <c r="A120" s="3">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>294</v>
+        <v>411</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" ht="27.75" spans="1:6">
       <c r="A121" s="3">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>296</v>
+        <v>414</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" spans="1:6">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" ht="27.75" spans="1:6">
       <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>298</v>
+      <c r="B122" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" ht="41.25" spans="1:6">
       <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>300</v>
+      <c r="B123" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" ht="41.25" spans="1:6">
       <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>303</v>
+      <c r="B124" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="125" ht="41.25" spans="1:6">
       <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>306</v>
+      <c r="B125" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>307</v>
+        <v>429</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" spans="1:6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" ht="41.25" spans="1:6">
       <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>308</v>
+      <c r="B126" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>309</v>
+        <v>432</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" ht="41.25" spans="1:6">
       <c r="A127" s="3">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>312</v>
+        <v>436</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" spans="1:6">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" ht="41.25" spans="1:6">
       <c r="A128" s="3">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>313</v>
+        <v>438</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" ht="41.25" spans="1:6">
       <c r="A129" s="3">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" spans="1:6">
+      <c r="E129" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="130" ht="41.25" spans="1:6">
       <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>320</v>
+      <c r="B130" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>321</v>
+        <v>448</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>315</v>
+        <v>440</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" spans="1:6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="131" ht="41.25" spans="1:6">
       <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>322</v>
+      <c r="B131" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" ht="27.75" spans="1:6">
       <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>324</v>
+      <c r="B132" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="133" ht="41.25" spans="1:6">
       <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>326</v>
+      <c r="B133" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>327</v>
+        <v>457</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="134" ht="41.25" spans="1:6">
       <c r="A134" s="3">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>328</v>
+        <v>459</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>315</v>
+        <v>440</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" spans="1:6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="135" ht="41.25" spans="1:6">
       <c r="A135" s="3">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>331</v>
+        <v>463</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>315</v>
+        <v>440</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" ht="27.75" spans="1:6">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" ht="41.25" spans="1:6">
       <c r="A136" s="3">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>333</v>
+        <v>466</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="137" ht="41.25" spans="1:6">
       <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>334</v>
+      <c r="B137" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>335</v>
+        <v>469</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="138" ht="41.25" spans="1:6">
       <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>336</v>
+      <c r="B138" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>327</v>
+        <v>457</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>315</v>
+        <v>440</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" spans="1:6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="139" ht="41.25" spans="1:6">
       <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>337</v>
+      <c r="B139" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>338</v>
+        <v>474</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>339</v>
+        <v>440</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" spans="1:6">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="140" ht="41.25" spans="1:6">
       <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>340</v>
+      <c r="B140" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>341</v>
+        <v>478</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" spans="1:6">
+      <c r="E140" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" ht="41.25" spans="1:6">
       <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>343</v>
+      <c r="B141" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>344</v>
+        <v>482</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="B142" s="4"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="5"/>
       <c r="F142" s="3"/>
     </row>
+    <row r="143" ht="14.25" spans="5:7">
+      <c r="E143" s="3"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" ht="14.25" spans="1:7">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+    </row>
+    <row r="145" ht="14.25" spans="1:7">
+      <c r="A145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+    </row>
+    <row r="146" ht="14.25" spans="1:7">
+      <c r="A146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" ht="14.25" spans="1:7">
+      <c r="A147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" ht="14.25" spans="1:7">
+      <c r="A148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" ht="14.25" spans="1:7">
+      <c r="A149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" ht="14.25" spans="1:7">
+      <c r="A150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" ht="14.25" spans="1:7">
+      <c r="A151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" ht="14.25" spans="1:7">
+      <c r="A152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" ht="14.25" spans="1:7">
+      <c r="A153" s="3"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" ht="14.25" spans="1:7">
+      <c r="A154" s="3"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" ht="14.25" spans="1:7">
+      <c r="A155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" ht="14.25" spans="1:7">
+      <c r="A156" s="3"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" ht="14.25" spans="1:7">
+      <c r="A157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" ht="14.25" spans="1:7">
+      <c r="A158" s="3"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" ht="14.25" spans="1:7">
+      <c r="A159" s="3"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" ht="14.25" spans="1:7">
+      <c r="A160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" ht="14.25" spans="1:7">
+      <c r="A161" s="3"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+    </row>
+    <row r="162" ht="14.25" spans="1:7">
+      <c r="A162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" ht="14.25" spans="1:7">
+      <c r="A163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" ht="14.25" spans="1:7">
+      <c r="A164" s="3"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+    </row>
+    <row r="165" ht="14.25" spans="1:7">
+      <c r="A165" s="3"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" ht="14.25" spans="1:7">
+      <c r="A166" s="3"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" ht="14.25" spans="1:7">
+      <c r="A167" s="3"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" ht="14.25" spans="1:7">
+      <c r="A168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" ht="14.25" spans="1:7">
+      <c r="A169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" ht="14.25" spans="1:7">
+      <c r="A170" s="3"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" ht="14.25" spans="1:7">
+      <c r="A171" s="3"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+    </row>
+    <row r="172" ht="14.25" spans="1:7">
+      <c r="A172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+    </row>
+    <row r="173" ht="14.25" spans="1:7">
+      <c r="A173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+    </row>
+    <row r="174" ht="14.25" spans="1:7">
+      <c r="A174" s="3"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+    </row>
+    <row r="175" ht="14.25" spans="1:7">
+      <c r="A175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+    </row>
+    <row r="176" ht="14.25" spans="1:7">
+      <c r="A176" s="3"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+    </row>
+    <row r="177" ht="14.25" spans="1:7">
+      <c r="A177" s="3"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+    </row>
+    <row r="178" ht="14.25" spans="1:7">
+      <c r="A178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" ht="14.25" spans="1:7">
+      <c r="A179" s="3"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+    </row>
+    <row r="180" ht="14.25" spans="1:7">
+      <c r="A180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" ht="14.25" spans="1:7">
+      <c r="A181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" ht="14.25" spans="1:7">
+      <c r="A182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+    </row>
+    <row r="183" ht="14.25" spans="1:7">
+      <c r="A183" s="3"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" ht="14.25" spans="1:7">
+      <c r="A184" s="3"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" ht="14.25" spans="1:7">
+      <c r="A185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" ht="14.25" spans="1:7">
+      <c r="A186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" ht="14.25" spans="1:7">
+      <c r="A187" s="3"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" ht="14.25" spans="1:7">
+      <c r="A188" s="3"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" ht="14.25" spans="1:7">
+      <c r="A189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" ht="14.25" spans="1:7">
+      <c r="A190" s="3"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" ht="14.25" spans="1:7">
+      <c r="A191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+    </row>
+    <row r="192" ht="14.25" spans="1:7">
+      <c r="A192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" ht="14.25" spans="1:7">
+      <c r="A193" s="3"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" ht="14.25" spans="1:7">
+      <c r="A194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" ht="14.25" spans="1:7">
+      <c r="A195" s="3"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" ht="14.25" spans="1:7">
+      <c r="A196" s="3"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+    </row>
+    <row r="197" ht="14.25" spans="1:7">
+      <c r="A197" s="3"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" ht="14.25" spans="1:7">
+      <c r="A198" s="3"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" ht="14.25" spans="1:7">
+      <c r="A199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" ht="14.25" spans="1:7">
+      <c r="A200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" ht="14.25" spans="1:7">
+      <c r="A201" s="3"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" ht="14.25" spans="1:7">
+      <c r="A202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" ht="14.25" spans="1:7">
+      <c r="A203" s="3"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" ht="14.25" spans="1:7">
+      <c r="A204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+    </row>
+    <row r="205" ht="14.25" spans="1:7">
+      <c r="A205" s="3"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+    </row>
+    <row r="206" ht="14.25" spans="1:7">
+      <c r="A206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" ht="14.25" spans="1:7">
+      <c r="A207" s="3"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+    </row>
+    <row r="208" ht="14.25" spans="1:7">
+      <c r="A208" s="3"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+    </row>
+    <row r="209" ht="14.25" spans="1:7">
+      <c r="A209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+    </row>
+    <row r="210" ht="14.25" spans="1:7">
+      <c r="A210" s="3"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+    </row>
+    <row r="211" ht="14.25" spans="1:7">
+      <c r="A211" s="3"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+    </row>
+    <row r="212" ht="14.25" spans="1:7">
+      <c r="A212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+    </row>
+    <row r="213" ht="14.25" spans="1:7">
+      <c r="A213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" ht="14.25" spans="1:7">
+      <c r="A214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" ht="14.25" spans="1:7">
+      <c r="A215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" ht="14.25" spans="1:7">
+      <c r="A216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+    </row>
+    <row r="217" ht="14.25" spans="1:7">
+      <c r="A217" s="3"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+    </row>
+    <row r="218" ht="14.25" spans="1:7">
+      <c r="A218" s="3"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" ht="14.25" spans="1:7">
+      <c r="A219" s="3"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+    </row>
+    <row r="220" ht="14.25" spans="1:7">
+      <c r="A220" s="3"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" ht="14.25" spans="1:7">
+      <c r="A221" s="3"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" ht="14.25" spans="1:7">
+      <c r="A222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" ht="14.25" spans="1:7">
+      <c r="A223" s="3"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" ht="14.25" spans="1:7">
+      <c r="A224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" ht="14.25" spans="1:7">
+      <c r="A225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" ht="14.25" spans="1:7">
+      <c r="A226" s="3"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" ht="14.25" spans="1:7">
+      <c r="A227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+    </row>
+    <row r="228" ht="14.25" spans="1:7">
+      <c r="A228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" ht="14.25" spans="1:7">
+      <c r="A229" s="3"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" ht="14.25" spans="1:7">
+      <c r="A230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+    </row>
+    <row r="231" ht="14.25" spans="1:7">
+      <c r="A231" s="3"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+    </row>
+    <row r="232" ht="14.25" spans="1:7">
+      <c r="A232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+    </row>
+    <row r="233" ht="14.25" spans="1:7">
+      <c r="A233" s="3"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" ht="14.25" spans="1:7">
+      <c r="A234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+    </row>
+    <row r="235" ht="14.25" spans="1:7">
+      <c r="A235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+    </row>
+    <row r="236" ht="14.25" spans="1:7">
+      <c r="A236" s="3"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+    </row>
+    <row r="237" ht="14.25" spans="1:7">
+      <c r="A237" s="3"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+    </row>
+    <row r="238" ht="14.25" spans="1:7">
+      <c r="A238" s="3"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+    </row>
+    <row r="239" ht="14.25" spans="1:7">
+      <c r="A239" s="3"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+    </row>
+    <row r="240" ht="14.25" spans="1:7">
+      <c r="A240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+    </row>
+    <row r="241" ht="14.25" spans="1:7">
+      <c r="A241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+    </row>
+    <row r="242" ht="14.25" spans="1:7">
+      <c r="A242" s="3"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+    </row>
+    <row r="243" ht="14.25" spans="1:7">
+      <c r="A243" s="3"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" ht="14.25" spans="1:7">
+      <c r="A244" s="3"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" ht="14.25" spans="1:7">
+      <c r="A245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+    </row>
+    <row r="246" ht="14.25" spans="1:7">
+      <c r="A246" s="3"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" ht="14.25" spans="1:7">
+      <c r="A247" s="3"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" ht="14.25" spans="1:7">
+      <c r="A248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" ht="14.25" spans="1:7">
+      <c r="A249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+    </row>
+    <row r="250" ht="14.25" spans="1:7">
+      <c r="A250" s="3"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" ht="14.25" spans="1:7">
+      <c r="A251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+    </row>
+    <row r="252" ht="14.25" spans="1:7">
+      <c r="A252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+    </row>
+    <row r="253" ht="14.25" spans="1:7">
+      <c r="A253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+    </row>
+    <row r="254" ht="14.25" spans="1:7">
+      <c r="A254" s="3"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+    </row>
+    <row r="255" ht="14.25" spans="1:7">
+      <c r="A255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+    </row>
+    <row r="256" ht="14.25" spans="1:7">
+      <c r="A256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+    </row>
+    <row r="257" ht="14.25" spans="1:7">
+      <c r="A257" s="3"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+    </row>
+    <row r="258" ht="14.25" spans="1:7">
+      <c r="A258" s="3"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+    </row>
+    <row r="259" ht="14.25" spans="1:7">
+      <c r="A259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+    </row>
+    <row r="260" ht="14.25" spans="1:7">
+      <c r="A260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+    </row>
+    <row r="261" ht="14.25" spans="1:7">
+      <c r="A261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+    </row>
+    <row r="262" ht="14.25" spans="1:7">
+      <c r="A262" s="3"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+    </row>
+    <row r="263" ht="14.25" spans="1:7">
+      <c r="A263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+    </row>
+    <row r="264" ht="14.25" spans="1:7">
+      <c r="A264" s="3"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+    </row>
+    <row r="265" ht="14.25" spans="1:7">
+      <c r="A265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+    </row>
+    <row r="266" ht="14.25" spans="1:7">
+      <c r="A266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+    </row>
+    <row r="267" ht="14.25" spans="1:7">
+      <c r="A267" s="3"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+    </row>
+    <row r="268" ht="14.25" spans="1:7">
+      <c r="A268" s="3"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" ht="14.25" spans="1:7">
+      <c r="A269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+    </row>
+    <row r="270" ht="14.25" spans="1:7">
+      <c r="A270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" ht="14.25" spans="1:7">
+      <c r="A271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+    </row>
+    <row r="272" ht="14.25" spans="1:7">
+      <c r="A272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+    </row>
+    <row r="273" ht="14.25" spans="1:7">
+      <c r="A273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+    </row>
+    <row r="274" ht="14.25" spans="1:7">
+      <c r="A274" s="3"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+    </row>
+    <row r="275" ht="14.25" spans="1:7">
+      <c r="A275" s="3"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+    </row>
+    <row r="276" ht="14.25" spans="1:7">
+      <c r="A276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+    </row>
+    <row r="277" ht="14.25" spans="1:7">
+      <c r="A277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+    </row>
+    <row r="278" ht="14.25" spans="1:7">
+      <c r="A278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" ht="14.25" spans="1:7">
+      <c r="A279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+    </row>
+    <row r="280" ht="14.25" spans="1:7">
+      <c r="A280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+    </row>
+    <row r="281" ht="14.25" spans="1:7">
+      <c r="A281" s="3"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" ht="14.25" spans="1:7">
+      <c r="A282" s="3"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+    </row>
+    <row r="283" ht="14.25" spans="1:7">
+      <c r="A283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+    </row>
+    <row r="284" spans="6:7">
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+    </row>
+    <row r="285" spans="6:7">
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+    </row>
+    <row r="286" spans="6:7">
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:F122">
-    <sortCondition ref="B2:B122"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="@react-native-async-storage/async-storage" tooltip="https://github.com/react-native-async-storage/async-storage"/>
-    <hyperlink ref="E2" r:id="rId2" display="@react-native-oh-tpl/async-storage" tooltip="https://github.com/react-native-oh-library/async-storage/releases"/>
-    <hyperlink ref="F2" r:id="rId3" display="链接"/>
-    <hyperlink ref="B4" r:id="rId4" display="@react-native-clipboard/clipboard" tooltip="https://github.com/react-native-clipboard/clipboard"/>
-    <hyperlink ref="E4" r:id="rId5" display="@react-native-oh-tpl/clipboard" tooltip="https://github.com/react-native-oh-library/clipboard/releases"/>
-    <hyperlink ref="F4" r:id="rId6" display="链接"/>
-    <hyperlink ref="B7" r:id="rId7" display="@react-native-community/datetimepicker" tooltip="https://github.com/react-native-datetimepicker/datetimepicker"/>
-    <hyperlink ref="E7" r:id="rId8" display="@react-native-oh-tpl/datetimepicker" tooltip="https://github.com/react-native-oh-library/datetimepicker/releases"/>
-    <hyperlink ref="F7" r:id="rId9" display="链接"/>
-    <hyperlink ref="B23" r:id="rId10" display="@shopify/flash-list" tooltip="https://github.com/Shopify/flash-list"/>
-    <hyperlink ref="E23" r:id="rId11" display="@react-native-oh-tpl/flash-list" tooltip="https://github.com/react-native-oh-library/flash-list/releases"/>
-    <hyperlink ref="F23" r:id="rId12" display="链接"/>
-    <hyperlink ref="B36" r:id="rId13" display="lottie-react-native" tooltip="https://github.com/lottie-react-native/lottie-react-native"/>
-    <hyperlink ref="E36" r:id="rId14" display="@react-native-oh-tpl/lottie-react-native" tooltip="https://github.com/react-native-oh-library/lottie-react-native/releases"/>
-    <hyperlink ref="F36" r:id="rId15" display="链接"/>
-    <hyperlink ref="B17" r:id="rId16" display="@react-native-picker/picker" tooltip="https://github.com/react-native-picker/picker"/>
-    <hyperlink ref="E17" r:id="rId17" display="@react-native-oh-tpl/picker" tooltip="https://github.com/react-native-oh-library/picker/releases"/>
-    <hyperlink ref="F17" r:id="rId18" display="链接"/>
-    <hyperlink ref="B10" r:id="rId19" display="@react-native-community/progress-bar-android" tooltip="https://github.com/react-native-progress-view/progress-bar-android"/>
-    <hyperlink ref="E10" r:id="rId20" display="@react-native-oh-tpl/progress-bar-android" tooltip="https://github.com/react-native-oh-library/progress-bar-android/releases"/>
-    <hyperlink ref="F10" r:id="rId21" display="链接"/>
-    <hyperlink ref="B6" r:id="rId22" display="@react-native-community/checkbox" tooltip="https://github.com/react-native-checkbox/react-native-checkbox"/>
-    <hyperlink ref="E6" r:id="rId23" display="@react-native-oh-tpl/react-native-checkbox" tooltip="https://github.com/react-native-oh-library/react-native-checkbox/releases"/>
-    <hyperlink ref="F6" r:id="rId24" display="链接"/>
-    <hyperlink ref="B60" r:id="rId25" display="react-native-exception-handler" tooltip="https://github.com/a7ul/react-native-exception-handler"/>
-    <hyperlink ref="E60" r:id="rId26" display="@react-native-oh-tpl/react-native-exception-handler" tooltip="https://github.com/react-native-oh-library/react-native-exception-handler/releases"/>
-    <hyperlink ref="F60" r:id="rId27" display="链接"/>
-    <hyperlink ref="B61" r:id="rId28" display="react-native-fast-image" tooltip="https://github.com/DylanVann/react-native-fast-image"/>
-    <hyperlink ref="E61" r:id="rId29" display="@react-native-oh-tpl/react-native-fast-image" tooltip="https://github.com/react-native-oh-library/react-native-fast-image/releases"/>
-    <hyperlink ref="F61" r:id="rId30" display="链接"/>
-    <hyperlink ref="B64" r:id="rId31" display="react-native-gesture-handler" tooltip="https://github.com/software-mansion/react-native-gesture-handler"/>
-    <hyperlink ref="E64" r:id="rId32" display="@react-native-oh-tpl/react-native-gesture-handler" tooltip="https://github.com/react-native-oh-library/react-native-gesture-handler/releases"/>
-    <hyperlink ref="F64" r:id="rId33" display="链接"/>
-    <hyperlink ref="B66" r:id="rId34" display="react-native-image-picker" tooltip="https://github.com/react-native-image-picker/react-native-image-picker"/>
-    <hyperlink ref="E66" r:id="rId35" display="@react-native-oh-tpl/react-native-image-picker" tooltip="https://github.com/react-native-oh-library/react-native-image-picker/releases"/>
-    <hyperlink ref="F66" r:id="rId36" display="链接"/>
-    <hyperlink ref="B72" r:id="rId37" display="react-native-linear-gradient" tooltip="https://github.com/react-native-linear-gradient/react-native-linear-gradient"/>
-    <hyperlink ref="E72" r:id="rId38" display="@react-native-oh-tpl/react-native-linear-gradient" tooltip="https://github.com/react-native-oh-library/react-native-linear-gradient/releases"/>
-    <hyperlink ref="F72" r:id="rId39" display="链接"/>
-    <hyperlink ref="B16" r:id="rId40" display="@react-native-masked-view/masked-view" tooltip="https://github.com/react-native-masked-view/masked-view"/>
-    <hyperlink ref="E16" r:id="rId41" display="@react-native-oh-tpl/masked-view" tooltip="https://github.com/react-native-oh-library/masked-view/releases"/>
-    <hyperlink ref="F16" r:id="rId42" display="链接"/>
-    <hyperlink ref="B9" r:id="rId43" display="@react-native-community/netinfo" tooltip="https://github.com/react-native-netinfo/react-native-netinfo"/>
-    <hyperlink ref="E9" r:id="rId44" display="@react-native-oh-tpl/netinfo" tooltip="https://github.com/react-native-oh-library/react-native-netinfo/releases"/>
-    <hyperlink ref="F9" r:id="rId45" display="链接"/>
-    <hyperlink ref="B77" r:id="rId46" display="react-native-pager-view" tooltip="https://github.com/callstack/react-native-pager-view"/>
-    <hyperlink ref="E77" r:id="rId47" display="@react-native-oh-tpl/react-native-pager-view" tooltip="https://github.com/react-native-oh-library/react-native-pager-view/releases"/>
-    <hyperlink ref="F77" r:id="rId48" display="链接"/>
-    <hyperlink ref="B90" r:id="rId49" display="react-native-safe-area-context" tooltip="https://github.com/th3rdwave/react-native-safe-area-context"/>
-    <hyperlink ref="E90" r:id="rId50" display="@react-native-oh-tpl/react-native-safe-area-context" tooltip="https://github.com/react-native-oh-library/react-native-safe-area-context/releases"/>
-    <hyperlink ref="F90" r:id="rId51" display="链接"/>
-    <hyperlink ref="B91" r:id="rId52" display="react-native-screens" tooltip="https://github.com/software-mansion/react-native-screens"/>
-    <hyperlink ref="F91" r:id="rId53" display="链接"/>
-    <hyperlink ref="B13" r:id="rId54" display="@react-native-community/slider" tooltip="https://github.com/callstack/react-native-slider"/>
-    <hyperlink ref="E13" r:id="rId55" display="@react-native-oh-tpl/slider" tooltip="https://github.com/react-native-oh-library/react-native-slider/releases"/>
-    <hyperlink ref="F13" r:id="rId56" display="链接"/>
-    <hyperlink ref="B94" r:id="rId57" display="react-native-SmartRefreshLayout" tooltip="https://github.com/react-native-studio/react-native-SmartRefreshLayout"/>
-    <hyperlink ref="E94" r:id="rId58" display="@react-native-oh-tpl/react-native-SmartRefreshLayout" tooltip="https://github.com/react-native-oh-library/react-native-SmartRefreshLayout/releases"/>
-    <hyperlink ref="F94" r:id="rId59" display="链接"/>
-    <hyperlink ref="B98" r:id="rId60" display="react-native-svg" tooltip="https://github.com/software-mansion/react-native-svg"/>
-    <hyperlink ref="E98" r:id="rId61" display="@react-native-oh-tpl/react-native-svg" tooltip="https://github.com/react-native-oh-library/react-native-svg/releases"/>
-    <hyperlink ref="F98" r:id="rId62" display="链接"/>
-    <hyperlink ref="B101" r:id="rId63" display="react-native-tab-view" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/react-native-tab-view"/>
-    <hyperlink ref="E101" r:id="rId64" display="@react-native-oh-tpl/react-native-tab-view" tooltip="https://github.com/react-native-oh-library/react-navigation/releases"/>
-    <hyperlink ref="F101" r:id="rId65" display="链接"/>
-    <hyperlink ref="B106" r:id="rId66" display="react-native-video" tooltip="https://github.com/react-native-video/react-native-video"/>
-    <hyperlink ref="E106" r:id="rId67" display="@react-native-oh-tpl/react-native-video" tooltip="https://github.com/react-native-oh-library/react-native-video"/>
-    <hyperlink ref="F106" r:id="rId68" display="链接"/>
-    <hyperlink ref="B108" r:id="rId69" display="react-native-webview" tooltip="https://github.com/react-native-webview/react-native-webview"/>
-    <hyperlink ref="E108" r:id="rId70" display="@react-native-oh-tpl/react-native-webview" tooltip="https://github.com/react-native-oh-library/react-native-webview/releases"/>
-    <hyperlink ref="F108" r:id="rId71" display="链接"/>
-    <hyperlink ref="B20" r:id="rId72" display="@react-navigation/elements" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/elements"/>
-    <hyperlink ref="E20" r:id="rId64" display="@react-native-oh-tpl/elements" tooltip="https://github.com/react-native-oh-library/react-navigation/releases"/>
-    <hyperlink ref="F20" r:id="rId73" display="链接"/>
-    <hyperlink ref="B25" r:id="rId74" display="crypto-js" tooltip="https://github.com/brix/crypto-js/tree/4.2.0"/>
-    <hyperlink ref="F25" r:id="rId75" display="链接"/>
-    <hyperlink ref="B27" r:id="rId76" display="deepmerge" tooltip="https://github.com/TehShrike/deepmerge"/>
-    <hyperlink ref="F27" r:id="rId77" display="链接"/>
-    <hyperlink ref="B29" r:id="rId78" display="htmlparser2" tooltip="https://github.com/fb55/htmlparser2"/>
-    <hyperlink ref="F29" r:id="rId79" display="链接"/>
-    <hyperlink ref="B33" r:id="rId80" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
-    <hyperlink ref="F33" r:id="rId81" display="链接"/>
-    <hyperlink ref="B35" r:id="rId82" display="lodash" tooltip="https://github.com/lodash/lodash/tree/4.17.21"/>
-    <hyperlink ref="F35" r:id="rId83" display="链接"/>
-    <hyperlink ref="B38" r:id="rId84" display="mobx-react" tooltip="https://github.com/mobxjs/mobx/tree/mobx-react@7.6.0"/>
-    <hyperlink ref="F38" r:id="rId85" display="链接"/>
-    <hyperlink ref="B37" r:id="rId86" display="mobx" tooltip="https://github.com/mobxjs/mobx/tree/mobx@6.10.0"/>
-    <hyperlink ref="F37" r:id="rId87" display="链接"/>
-    <hyperlink ref="B40" r:id="rId88" display="parse5" tooltip="https://github.com/inikulin/parse5"/>
-    <hyperlink ref="F40" r:id="rId89" display="链接"/>
-    <hyperlink ref="B41" r:id="rId90" display="prop-types" tooltip="https://github.com/facebook/prop-types/tree/v15.8.1"/>
-    <hyperlink ref="F41" r:id="rId91" display="链接"/>
-    <hyperlink ref="B44" r:id="rId92" display="react-i18next" tooltip="https://github.com/i18next/react-i18next"/>
-    <hyperlink ref="F44" r:id="rId93" display="链接"/>
-    <hyperlink ref="B46" r:id="rId94" display="react-native-action-button" tooltip="https://github.com/mastermoo/react-native-action-button"/>
-    <hyperlink ref="F46" r:id="rId95" display="链接"/>
-    <hyperlink ref="B49" r:id="rId96" display="react-native-autoheight-webview" tooltip="https://github.com/react-native-oh-library/react-native-autoheight-webview"/>
-    <hyperlink ref="E49" r:id="rId97" display="@react-native-oh-tpl/react-native-autoheight-webview" tooltip="https://github.com/react-native-oh-library/react-native-autoheight-webview/releases"/>
-    <hyperlink ref="F49" r:id="rId98" display="链接"/>
-    <hyperlink ref="B3" r:id="rId99" display="@react-native-camera-roll/camera-roll" tooltip="https://github.com/react-native-oh-library/react-native-cameraroll"/>
-    <hyperlink ref="E3" r:id="rId100" display="@react-native-oh-tpl/camera-roll" tooltip="https://github.com/react-native-oh-library/react-native-cameraroll/releases"/>
-    <hyperlink ref="F3" r:id="rId101" display="链接"/>
-    <hyperlink ref="B11" r:id="rId102" display="@react-native-community/progress-view" tooltip="https://github.com/react-native-progress-view/progress-view"/>
-    <hyperlink ref="E11" r:id="rId103" display="@react-native-oh-tpl/progress-view" tooltip="https://github.com/react-native-oh-library/progress-view/releases"/>
-    <hyperlink ref="F11" r:id="rId104" display="链接"/>
-    <hyperlink ref="B18" r:id="rId105" display="@react-native-segmented-control/segmented-control" tooltip="https://github.com/react-native-segmented-control/segmented-control"/>
-    <hyperlink ref="F18" r:id="rId106" display="链接"/>
-    <hyperlink ref="B56" r:id="rId107" display="react-native-dotenv" tooltip="https://github.com/goatandsheep/react-native-dotenv"/>
-    <hyperlink ref="F56" r:id="rId108" display="链接"/>
-    <hyperlink ref="B8" r:id="rId109" display="@react-native-community/geolocation" tooltip="https://github.com/michalchudziak/react-native-geolocation"/>
-    <hyperlink ref="E8" r:id="rId110" display="@react-native-oh-tpl/react-native-geolocation" tooltip="https://github.com/react-native-oh-library/react-native-geolocation/releases"/>
-    <hyperlink ref="F8" r:id="rId111" display="链接"/>
-    <hyperlink ref="B84" r:id="rId112" display="react-native-qrcode-svg" tooltip="https://github.com/awesomejerry/react-native-qrcode-svg"/>
-    <hyperlink ref="E84" r:id="rId113" display="@react-native-oh-tpl/react-native-qrcode-svg" tooltip="https://github.com/react-native-oh-library/react-native-qrcode-svg/releases"/>
-    <hyperlink ref="F84" r:id="rId114" display="链接"/>
-    <hyperlink ref="B85" r:id="rId115" display="react-native-reanimated" tooltip="https://github.com/software-mansion/react-native-reanimated"/>
-    <hyperlink ref="E85" r:id="rId116" display="@react-native-oh-tpl/react-native-reanimated" tooltip="https://github.com/react-native-oh-library/react-native-reanimated/releases"/>
-    <hyperlink ref="F85" r:id="rId117" display="链接"/>
-    <hyperlink ref="B89" r:id="rId118" display="react-native-render-html" tooltip="https://github.com/meliorence/react-native-render-html"/>
-    <hyperlink ref="F89" r:id="rId119" display="链接"/>
-    <hyperlink ref="B93" r:id="rId120" display="react-native-section-list-get-item-layout" tooltip="https://github.com/jsoendermann/rn-section-list-get-item-layout"/>
-    <hyperlink ref="F93" r:id="rId121" display="链接"/>
-    <hyperlink ref="B105" r:id="rId122" display="react-native-vector-icons" tooltip="https://github.com/oblador/react-native-vector-icons"/>
-    <hyperlink ref="F105" r:id="rId123" display="链接"/>
-    <hyperlink ref="B107" r:id="rId124" display="react-native-view-shot" tooltip="https://github.com/gre/react-native-view-shot"/>
-    <hyperlink ref="E107" r:id="rId125" display="@react-native-oh-tpl/react-native-view-shot" tooltip="https://github.com/react-native-oh-library/react-native-view-shot/releases"/>
-    <hyperlink ref="F107" r:id="rId126" display="链接"/>
-    <hyperlink ref="B19" r:id="rId127" display="@react-navigation/bottom-tabs" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/bottom-tabs"/>
-    <hyperlink ref="F19" r:id="rId128" display="链接"/>
-    <hyperlink ref="B21" r:id="rId129" display="@react-navigation/native" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/native"/>
-    <hyperlink ref="F21" r:id="rId130" display="链接"/>
-    <hyperlink ref="B22" r:id="rId131" display="@react-navigation/stack" tooltip="https://github.com/react-navigation/react-navigation/tree/6.x/packages/stack"/>
-    <hyperlink ref="F22" r:id="rId132" display="链接"/>
-    <hyperlink ref="B113" r:id="rId133" display="recyclerlistview" tooltip="https://github.com/Flipkart/recyclerlistview"/>
-    <hyperlink ref="F113" r:id="rId134" display="链接"/>
-    <hyperlink ref="B120" r:id="rId135" display="rn-placeholder" tooltip="https://github.com/mfrachet/rn-placeholder"/>
-    <hyperlink ref="F120" r:id="rId136" display="链接"/>
-    <hyperlink ref="B121" r:id="rId137" display="styled-components" tooltip="https://github.com/styled-components/styled-components"/>
-    <hyperlink ref="F121" r:id="rId138" display="链接"/>
-    <hyperlink ref="B122" r:id="rId139" display="styled-system" tooltip="https://github.com/react-native-picker/picker"/>
-    <hyperlink ref="F122" r:id="rId140" display="链接"/>
-    <hyperlink ref="B31" r:id="rId141" display="jeanregisser/react-native-slider" tooltip="https://github.com/react-native-oh-library/jeanregisser-react-native-slider"/>
-    <hyperlink ref="F31" r:id="rId142" display="链接"/>
-    <hyperlink ref="B34" r:id="rId80" display="js-beautify" tooltip="https://github.com/beautifier/js-beautify"/>
-    <hyperlink ref="F34" r:id="rId81" display="链接"/>
-    <hyperlink ref="B50" r:id="rId143" display="react-native-base64" tooltip="https://github.com/eranbo/react-native-base64"/>
-    <hyperlink ref="F50" r:id="rId144" display="链接"/>
-    <hyperlink ref="B53" r:id="rId145" display="react-native-check-box" tooltip="https://github.com/crazycodeboy/react-native-check-box"/>
-    <hyperlink ref="F53" r:id="rId146" display="链接"/>
-    <hyperlink ref="B5" r:id="rId147" display="@react-native-community/blur" tooltip="https://github.com/Kureev/react-native-blur"/>
-    <hyperlink ref="E5" r:id="rId148" display="@react-native-oh-tpl/blur Releases" tooltip="https://github.com/react-native-oh-library/react-native-blur/releases"/>
-    <hyperlink ref="F5" r:id="rId149" display="链接"/>
-    <hyperlink ref="B12" r:id="rId150" display="@react-native-community/push-notification-ios" tooltip="https://github.com/react-native-push-notification/ios"/>
-    <hyperlink ref="E12" r:id="rId151" display="@react-native-oh-tpl/push-notification-ios" tooltip="https://github.com/react-native-oh-library/react-native-push-notification-ios/releases"/>
-    <hyperlink ref="F12" r:id="rId152" display="链接"/>
-    <hyperlink ref="B15" r:id="rId153" display="@react-native-cookies/cookies" tooltip="https://github.com/react-native-cookies/cookies"/>
-    <hyperlink ref="E15" r:id="rId154" display="@react-native-oh-tpl/cookies" tooltip="https://github.com/react-native-oh-library/react-native-cookies/releases"/>
-    <hyperlink ref="F15" r:id="rId155" display="链接"/>
-    <hyperlink ref="B55" r:id="rId156" display="react-native-crypto-js" tooltip="https://github.com/imchintan/react-native-crypto-js"/>
-    <hyperlink ref="B73" r:id="rId157" display="react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps"/>
-    <hyperlink ref="E73" r:id="rId158" display="@react-native-oh-tpl/react-native-maps" tooltip="https://github.com/react-native-maps/react-native-maps/releases"/>
-    <hyperlink ref="F73" r:id="rId159" display="链接"/>
-    <hyperlink ref="B78" r:id="rId160" display="react-native-pdf" tooltip="https://github.com/wonday/react-native-pdf"/>
-    <hyperlink ref="E78" r:id="rId161" display="@react-native-oh-tpl/react-native-pdf" tooltip="https://github.com/react-native-oh-library/react-native-pdf/releases"/>
-    <hyperlink ref="F78" r:id="rId162" display="链接"/>
-    <hyperlink ref="B88" r:id="rId163" display="react-native-redash" tooltip="https://github.com/wcandillon/react-native-redash/"/>
-    <hyperlink ref="F88" r:id="rId164" display="链接"/>
-    <hyperlink ref="B95" r:id="rId165" display="react-native-snap-carousel" tooltip="https://github.com/meliorence/react-native-snap-carousel"/>
-    <hyperlink ref="E95" r:id="rId166" display="@react-native-oh-tpl/react-native-snap-carousel" tooltip="https://github.com/react-native-oh-library/react-native-snap-carousel/releases"/>
-    <hyperlink ref="F95" r:id="rId167" display="链接"/>
-    <hyperlink ref="B103" r:id="rId168" display="react-native-transitiongroup" tooltip="https://github.com/madsleejensen/react-native-transitiongroup"/>
-    <hyperlink ref="E103" r:id="rId169" display="@react-native-oh-tpl/react-native-transitiongroup" tooltip="https://github.com/react-native-oh-library/react-native-transitiongroup/releases"/>
-    <hyperlink ref="F103" r:id="rId170" display="链接"/>
-    <hyperlink ref="B104" r:id="rId171" display="react-native-translucent-modal" tooltip="https://github.com/23mf/react-native-translucent-modal"/>
-    <hyperlink ref="E104" r:id="rId172" display="@react-native-oh-tpl/react-native-translucent-modal" tooltip="https://github.com/react-native-oh-library/react-native-translucent-modal/releases"/>
-    <hyperlink ref="F104" r:id="rId173" display="链接"/>
-    <hyperlink ref="B114" r:id="rId174" display="redux" tooltip="https://github.com/reduxjs/redux"/>
-    <hyperlink ref="F114" r:id="rId175" display="链接"/>
-    <hyperlink ref="B116" r:id="rId176" display="redux-logger" tooltip="https://github.com/LogRocket/redux-logger"/>
-    <hyperlink ref="F116" r:id="rId177" display="链接"/>
-    <hyperlink ref="B117" r:id="rId178" display="redux-persist" tooltip="https://github.com/rt2zz/redux-persist"/>
-    <hyperlink ref="F117" r:id="rId179" display="链接"/>
-    <hyperlink ref="B24" r:id="rId180" display="axios" tooltip="https://github.com/axios/axios"/>
-    <hyperlink ref="F24" r:id="rId181" display="链接"/>
-    <hyperlink ref="B26" r:id="rId182" display="dayJs" tooltip="https://github.com/iamkun/dayjs?tab=readme-ov-file"/>
-    <hyperlink ref="F26" r:id="rId183" display="链接"/>
-    <hyperlink ref="B28" r:id="rId184" display="EventBus" tooltip="https://github.com/krasimir/EventBus"/>
-    <hyperlink ref="F28" r:id="rId185" display="链接"/>
-    <hyperlink ref="B30" r:id="rId186" display="immer" tooltip="https://github.com/immerjs/immer"/>
-    <hyperlink ref="F30" r:id="rId187" display="链接"/>
-    <hyperlink ref="B32" r:id="rId188" display="JsBarCode" tooltip="https://github.com/lindell/JsBarcode"/>
-    <hyperlink ref="F32" r:id="rId189" display="链接"/>
-    <hyperlink ref="B39" r:id="rId190" display="Moment" tooltip="https://github.com/moment/moment"/>
-    <hyperlink ref="F39" r:id="rId191" display="链接"/>
-    <hyperlink ref="B42" r:id="rId192" display="qrcode-generator" tooltip="https://github.com/kazuhikoarase/qrcode-generator"/>
-    <hyperlink ref="F42" r:id="rId193" display="链接"/>
-    <hyperlink ref="B43" r:id="rId194" display="react-ahooks" tooltip="https://github.com/alibaba/hooks"/>
-    <hyperlink ref="F43" r:id="rId195" display="链接"/>
-    <hyperlink ref="B45" r:id="rId196" display="react-lifecycles-compat" tooltip="https://github.com/reactjs/react-lifecycles-compat"/>
-    <hyperlink ref="F45" r:id="rId197" display="链接"/>
-    <hyperlink ref="B47" r:id="rId198" display="react-native-animate-number" tooltip="https://github.com/wkh237/react-native-animate-number"/>
-    <hyperlink ref="F47" r:id="rId199" display="链接"/>
-    <hyperlink ref="B51" r:id="rId200" display="react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util"/>
-    <hyperlink ref="E51" r:id="rId201" display="@react-native-oh-tpl/react-native-blob-util" tooltip="https://github.com/react-native-oh-library/react-native-blob-util/releases"/>
-    <hyperlink ref="F51" r:id="rId202" display="链接"/>
-    <hyperlink ref="B52" r:id="rId203" display="react-native-canvas" tooltip="https://github.com/iddan/react-native-canvas"/>
-    <hyperlink ref="F52" r:id="rId204" display="链接"/>
-    <hyperlink ref="B54" r:id="rId205" display="react-native-confirmation-code-field" tooltip="https://github.com/retyui/react-native-confirmation-code-field"/>
-    <hyperlink ref="F54" r:id="rId206" display="链接"/>
-    <hyperlink ref="B58" r:id="rId207" display="react-native-drawer-layout-polyfill" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
-    <hyperlink ref="F58" r:id="rId208" display="链接"/>
-    <hyperlink ref="B59" r:id="rId209" display="react-native-echarts-pro" tooltip="https://github.com/supervons/react-native-echarts-pro"/>
-    <hyperlink ref="F59" r:id="rId210" display="链接"/>
-    <hyperlink ref="B62" r:id="rId211" display="react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image"/>
-    <hyperlink ref="E62" r:id="rId212" display="@react-native-oh-tpl/react-native-fit-Image" tooltip="https://github.com/huiseoul/react-native-fit-image/releases"/>
-    <hyperlink ref="F62" r:id="rId213" display="链接"/>
-    <hyperlink ref="B65" r:id="rId214" display="react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor"/>
-    <hyperlink ref="E65" r:id="rId215" display="@react-native-oh-tpl/react-native-image-editor" tooltip="https://github.com/react-native-oh-library/react-native-image-editor/releases"/>
-    <hyperlink ref="F65" r:id="rId216" display="链接"/>
-    <hyperlink ref="B67" r:id="rId217" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer"/>
-    <hyperlink ref="E67" r:id="rId218" display="react-native-image-viewer" tooltip="https://github.com/react-native-oh-library/react-native-image-viewer/releases"/>
-    <hyperlink ref="F67" r:id="rId219" display="链接"/>
-    <hyperlink ref="B69" r:id="rId220" display="react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom"/>
-    <hyperlink ref="E69" r:id="rId221" display="@react-native-oh-tpl/react-native-image-zoom" tooltip="https://github.com/react-native-oh-library/react-native-image-zoom/releases"/>
-    <hyperlink ref="F69" r:id="rId222" display="链接"/>
-    <hyperlink ref="B70" r:id="rId223" display="react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer"/>
-    <hyperlink ref="E70" r:id="rId224" display="@react-native-oh-tpl/react-native-intersection-observer" tooltip="https://github.com/react-native-oh-library/react-native-intersection-observer/releases"/>
-    <hyperlink ref="F70" r:id="rId225" display="链接"/>
-    <hyperlink ref="B68" r:id="rId226" display="react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing"/>
-    <hyperlink ref="E68" r:id="rId227" display="@react-native-oh-tpl/react-native-image-viewing" tooltip="https://github.com/react-native-oh-library/react-native-image-viewing/releases"/>
-    <hyperlink ref="F68" r:id="rId228" display="链接"/>
-    <hyperlink ref="B74" r:id="rId229" display="react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/tree/sig"/>
-    <hyperlink ref="E74" r:id="rId230" display="@react-native-oh-tpl/react-native-markdown-display" tooltip="https://github.com/react-native-oh-library/react-native-markdown-display/releases"/>
-    <hyperlink ref="F74" r:id="rId231" display="链接"/>
-    <hyperlink ref="B75" r:id="rId232" display="react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee"/>
-    <hyperlink ref="E75" r:id="rId233" display="@react-native-oh-tpl/react-native-marquee" tooltip="https://github.com/react-native-oh-library/react-native-marquee/releases"/>
-    <hyperlink ref="F75" r:id="rId234" display="链接"/>
-    <hyperlink ref="B80" r:id="rId235" display="react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view"/>
-    <hyperlink ref="E80" r:id="rId236" display="@react-native-oh-tpl/react-native-popover-view" tooltip="https://github.com/react-native-oh-library/react-native-popover-view/releases"/>
-    <hyperlink ref="F80" r:id="rId237" display="链接"/>
-    <hyperlink ref="B81" r:id="rId238" display="react-native-popup-menu" tooltip="https://github.com/instea/react-native-popup-menu"/>
-    <hyperlink ref="F81" r:id="rId239" display="链接"/>
-    <hyperlink ref="B83" r:id="rId240" display="react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull"/>
-    <hyperlink ref="E83" r:id="rId241" display="@react-native-oh-tpl/react-native-pull" tooltip="https://github.com/react-native-oh-library/react-native-pull/releases"/>
-    <hyperlink ref="F83" r:id="rId242" display="链接"/>
-    <hyperlink ref="B87" r:id="rId243" display="react-native-reanimated-table" tooltip="https://github.com/dohooo/react-native-reanimated-table"/>
-    <hyperlink ref="F87" r:id="rId244" display="链接"/>
-    <hyperlink ref="B92" r:id="rId245" display="react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view"/>
-    <hyperlink ref="F92" r:id="rId246" display="链接"/>
-    <hyperlink ref="B97" r:id="rId247" display="react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader"/>
-    <hyperlink ref="E97" r:id="rId248" display="@react-native-oh-tpl/react-native-stickyheader" tooltip="https://github.com/react-native-oh-library/react-native-stickyheader/releases"/>
-    <hyperlink ref="F97" r:id="rId249" display="链接"/>
-    <hyperlink ref="B99" r:id="rId207" display="react-native-swipe-list-view" tooltip="https://github.com/rnc-archive/react-native-drawer-layout-polyfill"/>
-    <hyperlink ref="F99" r:id="rId250" display="链接"/>
-    <hyperlink ref="B100" r:id="rId251" display="react-native-swiper" tooltip="https://github.com/leecade/react-native-swiper"/>
-    <hyperlink ref="F100" r:id="rId252" display="链接"/>
-    <hyperlink ref="B109" r:id="rId253" display="react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core"/>
-    <hyperlink ref="E109" r:id="rId254" display="@react-native-oh-tpl/react-native-worklets-core" tooltip="https://github.com/react-native-oh-library/react-native-worklets-core/releases"/>
-    <hyperlink ref="F109" r:id="rId255" display="链接"/>
-    <hyperlink ref="B112" r:id="rId256" display="react-use" tooltip="https://github.com/zenghongtu/react-use"/>
-    <hyperlink ref="F112" r:id="rId257" display="链接"/>
-    <hyperlink ref="B119" r:id="rId258" display="redux-toolkit" tooltip="https://github.com/reduxjs/redux-toolkit"/>
-    <hyperlink ref="F119" r:id="rId259" display="链接"/>
-    <hyperlink ref="B102" r:id="rId260" display="react-native-text-size" tooltip="https://github.com/aMarCruz/react-native-text-size"/>
-    <hyperlink ref="E102" r:id="rId261" display="@react-native-oh-tpl/react-native-text-size" tooltip="https://github.com/react-native-oh-library/react-native-text-size/releases"/>
-    <hyperlink ref="F102" r:id="rId262" display="链接"/>
-    <hyperlink ref="B111" r:id="rId263" display="react-router-dom" tooltip="https://github.com/remix-run/react-router"/>
-    <hyperlink ref="F111" r:id="rId264" display="链接"/>
-    <hyperlink ref="B115" r:id="rId265" display="redux-actions" tooltip="https://github.com/redux-utilities/redux-actions"/>
-    <hyperlink ref="F115" r:id="rId266" display="链接"/>
-    <hyperlink ref="B118" r:id="rId267" display="redux-thunk" tooltip="https://github.com/reduxjs/redux-thunk"/>
-    <hyperlink ref="F118" r:id="rId268" display="链接"/>
-    <hyperlink ref="B48" r:id="rId269" display="react-native-aria" tooltip="https://github.com/gluestack/react-native-aria/"/>
-    <hyperlink ref="F48" r:id="rId270" display="链接"/>
-    <hyperlink ref="B82" r:id="rId271" display="react-native-progress" tooltip="https://github.com/oblador/react-native-progress"/>
-    <hyperlink ref="E82" r:id="rId272" display="@react-native-oh-tpl/react-native-progress" tooltip="https://github.com/react-native-oh-library/react-native-progress/releases"/>
-    <hyperlink ref="F82" r:id="rId273" display="链接"/>
-    <hyperlink ref="B63" r:id="rId274" display="react-native-fs" tooltip="https://github.com/itinance/react-native-fs"/>
-    <hyperlink ref="E63" r:id="rId275" display="@react-native-oh-tpl/react-native-fs" tooltip="https://github.com/react-native-oh-library/react-native-fs/releases"/>
-    <hyperlink ref="F63" r:id="rId276" display="链接"/>
-    <hyperlink ref="B71" r:id="rId277" display="react-native-keyboard-aware-scroll-view" tooltip="https://github.com/APSL/react-native-keyboard-aware-scroll-view"/>
-    <hyperlink ref="E71" r:id="rId278" display="@react-native-oh-tpl/react-native-keyboard-aware-scroll-view" tooltip="https://github.com/react-native-oh-library/react-native-keyboard-aware-scroll-view/releases"/>
-    <hyperlink ref="F71" r:id="rId279" display="链接"/>
-    <hyperlink ref="B79" r:id="rId280" display="react-native-permissions" tooltip="https://github.com/zoontek/react-native-permissions"/>
-    <hyperlink ref="E79" r:id="rId281" display="@react-native-oh-tpl/react-native-permissions" tooltip="https://github.com/react-native-oh-library/react-native-permissions/releases"/>
-    <hyperlink ref="F79" r:id="rId282" display="链接"/>
-    <hyperlink ref="B57" r:id="rId283" display="react-native-drag-sort" tooltip="https://github.com/mochixuan/react-native-drag-sort"/>
-    <hyperlink ref="F57" r:id="rId284" display="链接"/>
-    <hyperlink ref="B96" r:id="rId285" display="react-native-sound" tooltip="https://github.com/zmxv/react-native-sound"/>
-    <hyperlink ref="E96" r:id="rId286" display="@react-native-oh-tpl/react-native-sound" tooltip="https://github.com/react-native-oh-library/react-native-sound/releases"/>
-    <hyperlink ref="F96" r:id="rId287" display="链接"/>
-    <hyperlink ref="B86" r:id="rId288" display="react-native-reanimated-carousel" tooltip="https://github.com/dohooo/react-native-reanimated-carousel"/>
-    <hyperlink ref="F86" r:id="rId289" display="链接"/>
-    <hyperlink ref="B14" r:id="rId290" display="@react-native-community/toolbar-android" tooltip="https://github.com/react-native-toolbar-android/toolbar-android"/>
-    <hyperlink ref="E14" r:id="rId291" display="@react-native-oh-tpl/toolbar-android" tooltip="https://github.com/react-native-oh-library/toolbar-android/releases"/>
-    <hyperlink ref="F14" r:id="rId292" display="链接"/>
-    <hyperlink ref="B110" r:id="rId293" display="react-redux" tooltip="https://github.com/reduxjs/react-redux"/>
-    <hyperlink ref="F110" r:id="rId294" display="链接"/>
-    <hyperlink ref="B76" r:id="rId295" display="react-native-MJRefresh" tooltip="https://github.com/react-native-studio/react-native-MJRefresh"/>
-    <hyperlink ref="E76" r:id="rId296" display="@react-native-oh-tpl/react-native-mjrefresh" tooltip="https://github.com/react-native-oh-library/react-native-MJRefresh/releases"/>
-    <hyperlink ref="E92" r:id="rId297" display="@react-native-oh-tpl/react-native-scrollable-tab-view" tooltip="https://github.com/react-native-oh-library/react-native-scrollable-tab-view/releases"/>
-    <hyperlink ref="F55" r:id="rId298" display="链接"/>
-    <hyperlink ref="F76" r:id="rId299" display="链接"/>
-    <hyperlink ref="F123" r:id="rId300" display="链接"/>
-    <hyperlink ref="F124" r:id="rId301" display="链接"/>
-    <hyperlink ref="E124" r:id="rId302" display="@react-native-oh-tpl/react-native-sortable-list"/>
-    <hyperlink ref="B124" r:id="rId303" display="react-native-sortable-list"/>
-    <hyperlink ref="B123" r:id="rId304" display="react-native-sensors"/>
-    <hyperlink ref="E123" r:id="rId305" display="@react-native-oh-tpl/react-native-sensors"/>
-    <hyperlink ref="B126" r:id="rId306" display="react-native-image-sequence-2"/>
-    <hyperlink ref="E126" r:id="rId307" display="@react-native-oh-tpl/react-native-image-sequence-2"/>
-    <hyperlink ref="F126" r:id="rId308" display="链接"/>
-    <hyperlink ref="B127" r:id="rId309" display="react-native-feather"/>
-    <hyperlink ref="F127" r:id="rId310" display="链接"/>
-    <hyperlink ref="B125" r:id="rId311" display="react-native-easy-toast"/>
-    <hyperlink ref="F125" r:id="rId312" display="链接"/>
-    <hyperlink ref="B128" r:id="rId313" display="@react-navigation/native-stack"/>
-    <hyperlink ref="E128" r:id="rId314" display="@react-native-oh-tpl/native-stack"/>
-    <hyperlink ref="F128" r:id="rId315" display="链接"/>
-    <hyperlink ref="B130" r:id="rId316" display="react-native-waterfall-flow"/>
-    <hyperlink ref="F130" r:id="rId317" display="链接"/>
-    <hyperlink ref="B131" r:id="rId318" display="react-native-vconsole"/>
-    <hyperlink ref="F131" r:id="rId319" display="链接"/>
-    <hyperlink ref="B132" r:id="rId320" display="better-banner"/>
-    <hyperlink ref="F132" r:id="rId321" display="链接"/>
-    <hyperlink ref="B133" r:id="rId322" display="react-native-ezswiper"/>
-    <hyperlink ref="F133" r:id="rId323" display="链接"/>
-    <hyperlink ref="B134" r:id="rId324" display="react-native-image-header-scroll-view"/>
-    <hyperlink ref="F134" r:id="rId325" display="链接"/>
-    <hyperlink ref="B135" r:id="rId326" display="react-native-linear-gradient-text"/>
-    <hyperlink ref="F135" r:id="rId327" display="链接"/>
-    <hyperlink ref="B136" r:id="rId328" display="react-native-marquee-ab"/>
-    <hyperlink ref="F136" r:id="rId329" display="链接"/>
-    <hyperlink ref="B137" r:id="rId330" display="react-native-reconnecting-websocket"/>
-    <hyperlink ref="F137" r:id="rId331" display="链接"/>
-    <hyperlink ref="B138" r:id="rId332" display="react-native-json-tree"/>
-    <hyperlink ref="F138" r:id="rId333" display="链接"/>
-    <hyperlink ref="B139" r:id="rId334" display="react-native-image-gallery"/>
-    <hyperlink ref="F139" r:id="rId335" display="链接"/>
-    <hyperlink ref="E139" r:id="rId336" display="@react-native-oh-tpl/react-native-image-gallery"/>
-    <hyperlink ref="B129" r:id="rId337" display="react-native-clippath"/>
-    <hyperlink ref="E129" r:id="rId338" display="@react-native-oh-tpl/react-native-clippath"/>
-    <hyperlink ref="F129" r:id="rId339" display="链接"/>
-    <hyperlink ref="B140" r:id="rId340" display="react-native-image-crop-picker"/>
-    <hyperlink ref="B141" r:id="rId341" display="react-native-image-image-base64"/>
-    <hyperlink ref="E140" r:id="rId342" display="@react-native-oh-tpl/react-native-image-crop-picker"/>
-    <hyperlink ref="F140" r:id="rId343" display="链接"/>
-    <hyperlink ref="F141" r:id="rId344" display="链接"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
